--- a/resource_api/raporlar/dosyalar/uretilen_listesi.xlsx
+++ b/resource_api/raporlar/dosyalar/uretilen_listesi.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sayfa1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sayfa1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="[$$-409]#,##0.00" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="[$$-409]#,##0.00"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -76,66 +76,134 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="3" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="3" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -448,24 +516,24 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="4" width="17.88671875"/>
-    <col customWidth="1" max="2" min="2" style="4" width="16.77734375"/>
-    <col customWidth="1" max="3" min="3" style="4" width="15.77734375"/>
-    <col customWidth="1" max="4" min="4" style="4" width="5.109375"/>
-    <col customWidth="1" max="5" min="5" style="1" width="6.33203125"/>
-    <col customWidth="1" max="6" min="6" style="1" width="7.88671875"/>
-    <col customWidth="1" max="7" min="7" style="1" width="13.77734375"/>
-    <col customWidth="1" max="8" min="8" style="6" width="15.109375"/>
-    <col customWidth="1" max="9" min="9" style="6" width="26.77734375"/>
-    <col customWidth="1" max="10" min="10" style="1" width="8.21875"/>
-    <col customWidth="1" max="11" min="11" style="1" width="9.88671875"/>
-    <col customWidth="1" max="12" min="12" style="6" width="13.109375"/>
-    <col customWidth="1" max="14" min="13" style="1" width="8.88671875"/>
-    <col customWidth="1" max="19" min="15" style="6" width="14.5546875"/>
-    <col customWidth="1" max="20" min="20" style="9" width="14.33203125"/>
+    <col width="17.88671875" customWidth="1" style="4" min="1" max="1"/>
+    <col width="16.77734375" customWidth="1" style="4" min="2" max="2"/>
+    <col width="15.77734375" customWidth="1" style="4" min="3" max="3"/>
+    <col width="5.109375" customWidth="1" style="4" min="4" max="4"/>
+    <col width="6.33203125" customWidth="1" style="1" min="5" max="5"/>
+    <col width="7.88671875" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13.77734375" customWidth="1" style="1" min="7" max="7"/>
+    <col width="15.109375" customWidth="1" style="6" min="8" max="8"/>
+    <col width="26.77734375" customWidth="1" style="6" min="9" max="9"/>
+    <col width="8.21875" customWidth="1" style="1" min="10" max="10"/>
+    <col width="9.88671875" customWidth="1" style="1" min="11" max="11"/>
+    <col width="13.109375" customWidth="1" style="6" min="12" max="12"/>
+    <col width="8.88671875" customWidth="1" style="1" min="13" max="14"/>
+    <col width="14.5546875" customWidth="1" style="6" min="15" max="19"/>
+    <col width="14.33203125" customWidth="1" style="9" min="20" max="20"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="20.4" r="1">
+    <row r="1" ht="20.4" customHeight="1">
       <c r="A1" s="12" t="inlineStr">
         <is>
           <t>Kategori</t>
@@ -526,42 +594,42 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Marble Tiles</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Toros Black</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+          <t>Bush Hammered</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>10,0</t>
+          <t>11,5</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>10,0</t>
+          <t>23,5</t>
         </is>
       </c>
       <c r="F2" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="G2" s="10" t="n">
-        <v>353</v>
+        <v>1500</v>
       </c>
       <c r="H2" s="11" t="n">
-        <v>133.68</v>
+        <v>0</v>
       </c>
       <c r="I2" s="5" t="n">
-        <v>219.32</v>
+        <v>1500</v>
       </c>
       <c r="J2" s="2" t="n"/>
       <c r="K2" s="10" t="n"/>
@@ -578,27 +646,27 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Marble Tiles</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Bianco Ibiza</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed</t>
+          <t>Honed&amp;Bevelled</t>
         </is>
       </c>
       <c r="D3" s="3" t="inlineStr">
         <is>
-          <t>10,0</t>
+          <t>15,0</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>10,0</t>
+          <t>40,0</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
@@ -607,13 +675,13 @@
         </is>
       </c>
       <c r="G3" s="10" t="n">
-        <v>78.53</v>
+        <v>15</v>
       </c>
       <c r="H3" s="11" t="n">
-        <v>78.53</v>
+        <v>0</v>
       </c>
       <c r="I3" s="5" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="10" t="n"/>
@@ -630,42 +698,42 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Marble Mosaic</t>
+          <t>Marble Tiles</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Nero Marquina</t>
+          <t>Bianco Ibiza</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Honed&amp;Bevelled</t>
         </is>
       </c>
       <c r="D4" s="3" t="inlineStr">
         <is>
-          <t>10,0</t>
+          <t>15,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,0</t>
+          <t>80,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1.2</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="G4" s="10" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H4" s="11" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="5" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="J4" s="2" t="n"/>
       <c r="K4" s="10" t="n"/>
@@ -682,42 +750,42 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>Marble Mosaic</t>
+          <t>Marble Tiles</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>Nero Marquina</t>
+          <t>Bianco Ibiza</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr">
         <is>
-          <t>Honed</t>
+          <t>Honed&amp;Bevelled</t>
         </is>
       </c>
       <c r="D5" s="3" t="inlineStr">
         <is>
-          <t>10,0</t>
+          <t>15,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,0</t>
+          <t>110,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="G5" s="10" t="n">
-        <v>23.5</v>
+        <v>41.25</v>
       </c>
       <c r="H5" s="11" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>23.5</v>
+        <v>41.25</v>
       </c>
       <c r="J5" s="2" t="n"/>
       <c r="K5" s="10" t="n"/>
@@ -734,42 +802,42 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>Marble Tiles</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Carrara White</t>
+          <t>Classic Light</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Filled&amp;Honed&amp;Beveled</t>
         </is>
       </c>
       <c r="D6" s="3" t="inlineStr">
         <is>
-          <t>100,0</t>
+          <t>15,0</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>100,0</t>
+          <t>80,0</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G6" s="10" t="n">
-        <v>457</v>
+        <v>65</v>
       </c>
       <c r="H6" s="11" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>457</v>
+        <v>65</v>
       </c>
       <c r="J6" s="2" t="n"/>
       <c r="K6" s="10" t="n"/>
@@ -786,42 +854,42 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>Travertine Stairs</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Classic Light</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Filled&amp;Honed&amp;Beveled</t>
         </is>
       </c>
       <c r="D7" s="3" t="inlineStr">
         <is>
-          <t>100,0</t>
+          <t>15,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>190,0</t>
+          <t>110,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G7" s="10" t="n">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="H7" s="11" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="5" t="n">
-        <v>9</v>
+        <v>120</v>
       </c>
       <c r="J7" s="2" t="n"/>
       <c r="K7" s="10" t="n"/>
@@ -838,27 +906,27 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>Marble Skirting</t>
+          <t>Marble Risers</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Nero Marquina</t>
+          <t>Blanco Ivory</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>Polished&amp;Bevelled</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="D8" s="3" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>FREE</t>
+          <t>120,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -867,13 +935,13 @@
         </is>
       </c>
       <c r="G8" s="10" t="n">
-        <v>46.8</v>
+        <v>21.6</v>
       </c>
       <c r="H8" s="11" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="I8" s="5" t="n">
         <v>0</v>
-      </c>
-      <c r="I8" s="5" t="n">
-        <v>46.8</v>
       </c>
       <c r="J8" s="2" t="n"/>
       <c r="K8" s="10" t="n"/>
@@ -890,27 +958,27 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>Marble Skirting</t>
+          <t>Marble Risers</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>Diana Royal</t>
+          <t>Blanco Ivory</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>Polished&amp;Bevelled</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="D9" s="3" t="inlineStr">
         <is>
-          <t>12,0</t>
+          <t>15,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>FREE</t>
+          <t>165,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -919,13 +987,13 @@
         </is>
       </c>
       <c r="G9" s="10" t="n">
-        <v>103.1</v>
+        <v>6.19</v>
       </c>
       <c r="H9" s="11" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="I9" s="5" t="n">
         <v>0</v>
-      </c>
-      <c r="I9" s="5" t="n">
-        <v>103.1</v>
       </c>
       <c r="J9" s="2" t="n"/>
       <c r="K9" s="10" t="n"/>
@@ -942,42 +1010,42 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>Travertine Landing</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="D10" s="3" t="inlineStr">
         <is>
-          <t>129,0</t>
+          <t>15,25</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>242,0</t>
+          <t>30,5</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G10" s="10" t="n">
-        <v>1</v>
+        <v>74.33</v>
       </c>
       <c r="H10" s="11" t="n">
-        <v>0</v>
+        <v>39.07</v>
       </c>
       <c r="I10" s="5" t="n">
-        <v>1</v>
+        <v>35.26</v>
       </c>
       <c r="J10" s="2" t="n"/>
       <c r="K10" s="10" t="n"/>
@@ -994,27 +1062,27 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>Travertine Stairs</t>
+          <t>Marble Tiles</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Cappuccino Medium</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>Resin Filled&amp;Polished</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="D11" s="3" t="inlineStr">
         <is>
-          <t>13,5</t>
+          <t>150,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>153,0</t>
+          <t>150,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1023,13 +1091,13 @@
         </is>
       </c>
       <c r="G11" s="10" t="n">
-        <v>4</v>
+        <v>261</v>
       </c>
       <c r="H11" s="11" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>4</v>
+        <v>261</v>
       </c>
       <c r="J11" s="2" t="n"/>
       <c r="K11" s="10" t="n"/>
@@ -1046,27 +1114,27 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>Travertine Landing</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Semi Polished</t>
         </is>
       </c>
       <c r="D12" s="3" t="inlineStr">
         <is>
-          <t>131,0</t>
+          <t>16,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>270,0</t>
+          <t>110,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1075,13 +1143,13 @@
         </is>
       </c>
       <c r="G12" s="10" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="H12" s="11" t="n">
         <v>0</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1</v>
+        <v>300</v>
       </c>
       <c r="J12" s="2" t="n"/>
       <c r="K12" s="10" t="n"/>
@@ -1098,42 +1166,42 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>Travertine Landing</t>
+          <t>Travertine Mosaic</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Yellow TS-Y-PZ15</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="D13" s="3" t="inlineStr">
         <is>
-          <t>134,0</t>
+          <t>18,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>430,0</t>
+          <t>50,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="G13" s="10" t="n">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="H13" s="11" t="n">
-        <v>0</v>
+        <v>72.36</v>
       </c>
       <c r="I13" s="5" t="n">
-        <v>4</v>
+        <v>-0.36</v>
       </c>
       <c r="J13" s="2" t="n"/>
       <c r="K13" s="10" t="n"/>
@@ -1150,42 +1218,42 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>Travertine Risers</t>
+          <t>Travertine Mosaic</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Silver Panel 3D</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Filled&amp;Semi Polished</t>
         </is>
       </c>
       <c r="D14" s="3" t="inlineStr">
         <is>
-          <t>15,0</t>
+          <t>18,0</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>125,0</t>
+          <t>50,0</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="G14" s="10" t="n">
-        <v>22</v>
+        <v>19.44</v>
       </c>
       <c r="H14" s="11" t="n">
+        <v>19.44</v>
+      </c>
+      <c r="I14" s="5" t="n">
         <v>0</v>
-      </c>
-      <c r="I14" s="5" t="n">
-        <v>22</v>
       </c>
       <c r="J14" s="2" t="n"/>
       <c r="K14" s="10" t="n"/>
@@ -1202,27 +1270,27 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>Marble Risers</t>
+          <t>Travertine Mosaic</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>Vanilla Beige</t>
+          <t>Light Philadelphia</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="D15" s="3" t="inlineStr">
         <is>
-          <t>15,0</t>
+          <t>18,0</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>110,0</t>
+          <t>50,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1231,13 +1299,13 @@
         </is>
       </c>
       <c r="G15" s="10" t="n">
-        <v>20</v>
+        <v>50.4</v>
       </c>
       <c r="H15" s="11" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="I15" s="5" t="n">
         <v>0</v>
-      </c>
-      <c r="I15" s="5" t="n">
-        <v>20</v>
       </c>
       <c r="J15" s="2" t="n"/>
       <c r="K15" s="10" t="n"/>
@@ -1254,27 +1322,27 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>Travertine Risers</t>
+          <t>Marble Moulding</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Naturella Cream</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>Polished&amp;Bevelled</t>
+          <t>Polished&amp;Bullnose</t>
         </is>
       </c>
       <c r="D16" s="3" t="inlineStr">
         <is>
-          <t>15,0</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>125,0</t>
+          <t>16,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
@@ -1283,13 +1351,13 @@
         </is>
       </c>
       <c r="G16" s="10" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="H16" s="11" t="n">
         <v>0</v>
       </c>
       <c r="I16" s="5" t="n">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="J16" s="2" t="n"/>
       <c r="K16" s="10" t="n"/>
@@ -1306,12 +1374,12 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>Travertine Risers</t>
+          <t>Glass Mosaic</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>GL132647</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
@@ -1321,27 +1389,27 @@
       </c>
       <c r="D17" s="3" t="inlineStr">
         <is>
-          <t>15,0</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>170,0</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="G17" s="10" t="n">
-        <v>60</v>
+        <v>58.35</v>
       </c>
       <c r="H17" s="11" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>60</v>
+        <v>-0.65</v>
       </c>
       <c r="J17" s="2" t="n"/>
       <c r="K17" s="10" t="n"/>
@@ -1358,42 +1426,42 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Marble Tiles</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Cappuccino Medium</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Honed&amp;Bevelled</t>
         </is>
       </c>
       <c r="D18" s="3" t="inlineStr">
         <is>
-          <t>15,25</t>
+          <t>20,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>100,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>8,0</t>
         </is>
       </c>
       <c r="G18" s="10" t="n">
-        <v>111.51</v>
+        <v>38</v>
       </c>
       <c r="H18" s="11" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>111.51</v>
+        <v>38</v>
       </c>
       <c r="J18" s="2" t="n"/>
       <c r="K18" s="10" t="n"/>
@@ -1410,42 +1478,42 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Travertine Mosaic</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Yellow TB-Y-P26</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Splitface</t>
         </is>
       </c>
       <c r="D19" s="3" t="inlineStr">
         <is>
-          <t>15,25</t>
+          <t>20,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>60,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="G19" s="10" t="n">
-        <v>675.27</v>
+        <v>12.36</v>
       </c>
       <c r="H19" s="11" t="n">
-        <v>238.14</v>
+        <v>12.96</v>
       </c>
       <c r="I19" s="5" t="n">
-        <v>437.13</v>
+        <v>-0.6</v>
       </c>
       <c r="J19" s="2" t="n"/>
       <c r="K19" s="10" t="n"/>
@@ -1462,42 +1530,42 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Travertine Mosaic</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Picasso Ivory</t>
+          <t>Classic Vein Cut 3D</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Semi Polished</t>
+          <t>Unfilled&amp;Brushed</t>
         </is>
       </c>
       <c r="D20" s="3" t="inlineStr">
         <is>
-          <t>15,25</t>
+          <t>20,0</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>60,0</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="G20" s="10" t="n">
-        <v>460.47</v>
+        <v>16.08</v>
       </c>
       <c r="H20" s="11" t="n">
-        <v>217.31</v>
+        <v>37.44</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>243.16</v>
+        <v>-21.36</v>
       </c>
       <c r="J20" s="2" t="n"/>
       <c r="K20" s="10" t="n"/>
@@ -1514,7 +1582,7 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Travertine Mosaic</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
@@ -1524,32 +1592,32 @@
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Unfilled&amp;Brushed</t>
         </is>
       </c>
       <c r="D21" s="3" t="inlineStr">
         <is>
-          <t>15,25</t>
+          <t>20,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>60,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="G21" s="10" t="n">
-        <v>91.28</v>
+        <v>313.2</v>
       </c>
       <c r="H21" s="11" t="n">
-        <v>503.25</v>
+        <v>20.88</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>-411.97</v>
+        <v>292.32</v>
       </c>
       <c r="J21" s="2" t="n"/>
       <c r="K21" s="10" t="n"/>
@@ -1571,22 +1639,22 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Picasso Ivory</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="D22" s="3" t="inlineStr">
         <is>
-          <t>15,25</t>
+          <t>20,3</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>20,3</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1595,13 +1663,13 @@
         </is>
       </c>
       <c r="G22" s="10" t="n">
-        <v>13.95</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="H22" s="11" t="n">
-        <v>48.84</v>
+        <v>0</v>
       </c>
       <c r="I22" s="5" t="n">
-        <v>-34.89</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="J22" s="2" t="n"/>
       <c r="K22" s="10" t="n"/>
@@ -1618,42 +1686,42 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Marble Tiles</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>Classic Mina Vein Cut</t>
+          <t>Cappuccino Medium</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Semi Polished</t>
+          <t>Honed&amp;Half Bullnose</t>
         </is>
       </c>
       <c r="D23" s="3" t="inlineStr">
         <is>
-          <t>15,25</t>
+          <t>22,0</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>100,0</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>14,0</t>
         </is>
       </c>
       <c r="G23" s="10" t="n">
-        <v>300</v>
+        <v>7</v>
       </c>
       <c r="H23" s="11" t="n">
         <v>0</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>300</v>
+        <v>7</v>
       </c>
       <c r="J23" s="2" t="n"/>
       <c r="K23" s="10" t="n"/>
@@ -1670,27 +1738,27 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Limestone Tile</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Jarusalem</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Semi Polished</t>
+          <t>Honed</t>
         </is>
       </c>
       <c r="D24" s="3" t="inlineStr">
         <is>
-          <t>16,0</t>
+          <t>23,0</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>110,0</t>
+          <t>45,7</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1699,13 +1767,13 @@
         </is>
       </c>
       <c r="G24" s="10" t="n">
-        <v>300</v>
+        <v>391</v>
       </c>
       <c r="H24" s="11" t="n">
-        <v>0</v>
+        <v>391.07</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>300</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="J24" s="2" t="n"/>
       <c r="K24" s="10" t="n"/>
@@ -1722,27 +1790,27 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>Travertine Risers</t>
+          <t>Marble Tiles</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Cappuccino Medium</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>Polished&amp;Bevelled</t>
+          <t>Brushed</t>
         </is>
       </c>
       <c r="D25" s="3" t="inlineStr">
         <is>
-          <t>18,0</t>
+          <t>30,0</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>120,0</t>
+          <t>30,0</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1751,13 +1819,13 @@
         </is>
       </c>
       <c r="G25" s="10" t="n">
-        <v>80</v>
+        <v>15.3</v>
       </c>
       <c r="H25" s="11" t="n">
         <v>0</v>
       </c>
       <c r="I25" s="5" t="n">
-        <v>80</v>
+        <v>15.3</v>
       </c>
       <c r="J25" s="2" t="n"/>
       <c r="K25" s="10" t="n"/>
@@ -1774,42 +1842,42 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>Travertine Mosaic</t>
+          <t>Marble Coping</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Silver Corner</t>
+          <t>Bluestone</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Polished&amp;Bullnose</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>18,0</t>
+          <t>30,0</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>50,0</t>
+          <t>100,0</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="G26" s="10" t="n">
-        <v>11.7</v>
+        <v>23</v>
       </c>
       <c r="H26" s="11" t="n">
-        <v>16.2</v>
+        <v>0</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>-4.5</v>
+        <v>23</v>
       </c>
       <c r="J26" s="2" t="n"/>
       <c r="K26" s="10" t="n"/>
@@ -1826,27 +1894,27 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>Travertine Mosaic</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>Silver Panel</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Filled&amp;Semi Polished</t>
         </is>
       </c>
       <c r="D27" s="3" t="inlineStr">
         <is>
-          <t>18,0</t>
+          <t>30,0</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>50,0</t>
+          <t>110,0</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1855,13 +1923,13 @@
         </is>
       </c>
       <c r="G27" s="10" t="n">
-        <v>237.6</v>
+        <v>300</v>
       </c>
       <c r="H27" s="11" t="n">
-        <v>178.92</v>
+        <v>0</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>58.68</v>
+        <v>300</v>
       </c>
       <c r="J27" s="2" t="n"/>
       <c r="K27" s="10" t="n"/>
@@ -1878,42 +1946,42 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>Travertine Mosaic</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Silver Panel 3D</t>
+          <t>Silver Rustic</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Semi Polished</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="D28" s="3" t="inlineStr">
         <is>
-          <t>18,0</t>
+          <t>30,5</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>50,0</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G28" s="10" t="n">
-        <v>19.44</v>
+        <v>351.63</v>
       </c>
       <c r="H28" s="11" t="n">
-        <v>19.44</v>
+        <v>390.7</v>
       </c>
       <c r="I28" s="5" t="n">
-        <v>0</v>
+        <v>-39.07</v>
       </c>
       <c r="J28" s="2" t="n"/>
       <c r="K28" s="10" t="n"/>
@@ -1930,42 +1998,42 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>Travertine Mosaic</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>Light Philadelphia</t>
+          <t>Scott Rustic</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
         <is>
-          <t>18,0</t>
+          <t>30,5</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>50,0</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G29" s="10" t="n">
-        <v>50.4</v>
+        <v>275.17</v>
       </c>
       <c r="H29" s="11" t="n">
-        <v>50.4</v>
+        <v>0</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0</v>
+        <v>275.17</v>
       </c>
       <c r="J29" s="2" t="n"/>
       <c r="K29" s="10" t="n"/>
@@ -1982,12 +2050,12 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>Travertine Risers</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Picasso Ivory</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
@@ -1997,27 +2065,27 @@
       </c>
       <c r="D30" s="3" t="inlineStr">
         <is>
-          <t>18,0</t>
+          <t>30,5</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>129,0</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G30" s="10" t="n">
-        <v>112</v>
+        <v>523.55</v>
       </c>
       <c r="H30" s="11" t="n">
-        <v>0</v>
+        <v>273.49</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>112</v>
+        <v>250.06</v>
       </c>
       <c r="J30" s="2" t="n"/>
       <c r="K30" s="10" t="n"/>
@@ -2034,42 +2102,42 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>Travertine Mosaic</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>30,5</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>10,0</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G31" s="10" t="n">
-        <v>18.6</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="H31" s="11" t="n">
-        <v>33.48</v>
+        <v>0</v>
       </c>
       <c r="I31" s="5" t="n">
-        <v>-14.88</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="J31" s="2" t="n"/>
       <c r="K31" s="10" t="n"/>
@@ -2086,42 +2154,42 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>Travertine Risers</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>Polished&amp;Bevelled</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="D32" s="3" t="inlineStr">
         <is>
-          <t>20,0</t>
+          <t>30,5</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>129,0</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G32" s="10" t="n">
-        <v>40</v>
+        <v>17.5</v>
       </c>
       <c r="H32" s="11" t="n">
-        <v>0</v>
+        <v>1056.76</v>
       </c>
       <c r="I32" s="5" t="n">
-        <v>40</v>
+        <v>-1039.26</v>
       </c>
       <c r="J32" s="2" t="n"/>
       <c r="K32" s="10" t="n"/>
@@ -2138,7 +2206,7 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>Travertine Risers</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
@@ -2148,32 +2216,32 @@
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>Polished&amp;Bevelled</t>
+          <t>Filled&amp;Brushed</t>
         </is>
       </c>
       <c r="D33" s="3" t="inlineStr">
         <is>
-          <t>20,0</t>
+          <t>30,5</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>115,0</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G33" s="10" t="n">
-        <v>40</v>
+        <v>78.14</v>
       </c>
       <c r="H33" s="11" t="n">
         <v>0</v>
       </c>
       <c r="I33" s="5" t="n">
-        <v>40</v>
+        <v>78.14</v>
       </c>
       <c r="J33" s="2" t="n"/>
       <c r="K33" s="10" t="n"/>
@@ -2195,7 +2263,7 @@
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
@@ -2205,12 +2273,12 @@
       </c>
       <c r="D34" s="3" t="inlineStr">
         <is>
-          <t>20,3</t>
+          <t>30,5</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>40,6</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2219,13 +2287,13 @@
         </is>
       </c>
       <c r="G34" s="10" t="n">
-        <v>27.03</v>
+        <v>361.68</v>
       </c>
       <c r="H34" s="11" t="n">
         <v>0</v>
       </c>
       <c r="I34" s="5" t="n">
-        <v>27.03</v>
+        <v>361.68</v>
       </c>
       <c r="J34" s="2" t="n"/>
       <c r="K34" s="10" t="n"/>
@@ -2247,22 +2315,22 @@
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>Sonoma</t>
+          <t>Classic Light</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="D35" s="3" t="inlineStr">
         <is>
-          <t>20,3</t>
+          <t>31,3</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>50,8</t>
+          <t>100,0</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2271,13 +2339,13 @@
         </is>
       </c>
       <c r="G35" s="10" t="n">
-        <v>1023</v>
+        <v>84.51000000000001</v>
       </c>
       <c r="H35" s="11" t="n">
         <v>0</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>1023</v>
+        <v>84.51000000000001</v>
       </c>
       <c r="J35" s="2" t="n"/>
       <c r="K35" s="10" t="n"/>
@@ -2294,42 +2362,42 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Travertine Sink</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="D36" s="3" t="inlineStr">
         <is>
-          <t>20,3</t>
+          <t>33,0</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>40,6</t>
+          <t>33,0</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>15,0</t>
         </is>
       </c>
       <c r="G36" s="10" t="n">
-        <v>485</v>
+        <v>1</v>
       </c>
       <c r="H36" s="11" t="n">
-        <v>128.58</v>
+        <v>0</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>356.42</v>
+        <v>1</v>
       </c>
       <c r="J36" s="2" t="n"/>
       <c r="K36" s="10" t="n"/>
@@ -2346,42 +2414,42 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Marble Threads</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Picasso Ivory</t>
+          <t>Cappuccino Medium</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Semi Polished</t>
+          <t>Polished&amp;Grooved&amp;Bevelled</t>
         </is>
       </c>
       <c r="D37" s="3" t="inlineStr">
         <is>
-          <t>20,3</t>
+          <t>33,0</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>40,6</t>
+          <t>125,0</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="G37" s="10" t="n">
-        <v>300</v>
+        <v>4</v>
       </c>
       <c r="H37" s="11" t="n">
-        <v>126.09</v>
+        <v>0</v>
       </c>
       <c r="I37" s="5" t="n">
-        <v>173.91</v>
+        <v>4</v>
       </c>
       <c r="J37" s="2" t="n"/>
       <c r="K37" s="10" t="n"/>
@@ -2398,42 +2466,42 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Marble Risers</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+          <t>Cappuccino Medium</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="D38" s="3" t="inlineStr">
         <is>
-          <t>20,3</t>
+          <t>33,0</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>40,6</t>
+          <t>125,0</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="G38" s="10" t="n">
-        <v>100.06</v>
+        <v>4</v>
       </c>
       <c r="H38" s="11" t="n">
         <v>0</v>
       </c>
       <c r="I38" s="5" t="n">
-        <v>100.06</v>
+        <v>4</v>
       </c>
       <c r="J38" s="2" t="n"/>
       <c r="K38" s="10" t="n"/>
@@ -2455,22 +2523,22 @@
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>Picasso Grey</t>
+          <t>Romano</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="D39" s="3" t="inlineStr">
         <is>
-          <t>20,3</t>
+          <t>40,6</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>51,0</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2479,13 +2547,13 @@
         </is>
       </c>
       <c r="G39" s="10" t="n">
-        <v>270.02</v>
+        <v>126.3</v>
       </c>
       <c r="H39" s="11" t="n">
-        <v>0</v>
+        <v>89.16</v>
       </c>
       <c r="I39" s="5" t="n">
-        <v>270.02</v>
+        <v>37.14</v>
       </c>
       <c r="J39" s="2" t="n"/>
       <c r="K39" s="10" t="n"/>
@@ -2507,37 +2575,37 @@
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Gold</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="D40" s="3" t="inlineStr">
         <is>
-          <t>20,3</t>
+          <t>40,6</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>40,6</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>3,2</t>
         </is>
       </c>
       <c r="G40" s="10" t="n">
-        <v>293.25</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="H40" s="11" t="n">
+        <v>98.09999999999999</v>
+      </c>
+      <c r="I40" s="5" t="n">
         <v>0</v>
-      </c>
-      <c r="I40" s="5" t="n">
-        <v>293.25</v>
       </c>
       <c r="J40" s="2" t="n"/>
       <c r="K40" s="10" t="n"/>
@@ -2554,7 +2622,7 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>Travertine Risers</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
@@ -2564,32 +2632,32 @@
       </c>
       <c r="C41" s="3" t="inlineStr">
         <is>
-          <t>Polished&amp;Bevelled</t>
+          <t>Filled&amp;Semi Polished</t>
         </is>
       </c>
       <c r="D41" s="3" t="inlineStr">
         <is>
-          <t>22,0</t>
+          <t>40,6</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>126,0</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G41" s="10" t="n">
-        <v>40</v>
+        <v>454.2</v>
       </c>
       <c r="H41" s="11" t="n">
         <v>0</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>40</v>
+        <v>454.2</v>
       </c>
       <c r="J41" s="2" t="n"/>
       <c r="K41" s="10" t="n"/>
@@ -2606,42 +2674,42 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>Marble Landing</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>Vanilla Beige</t>
+          <t>Pablo Vein Cut</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="D42" s="3" t="inlineStr">
         <is>
-          <t>220,0</t>
+          <t>40,6</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>105,0</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G42" s="10" t="n">
-        <v>1</v>
+        <v>19.57</v>
       </c>
       <c r="H42" s="11" t="n">
         <v>0</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>1</v>
+        <v>19.57</v>
       </c>
       <c r="J42" s="2" t="n"/>
       <c r="K42" s="10" t="n"/>
@@ -2658,27 +2726,27 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>Travertine Risers</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Semi Polished</t>
         </is>
       </c>
       <c r="D43" s="3" t="inlineStr">
         <is>
-          <t>23,0</t>
+          <t>43,0</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>129,0</t>
+          <t>110,0</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
@@ -2687,13 +2755,13 @@
         </is>
       </c>
       <c r="G43" s="10" t="n">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="H43" s="11" t="n">
         <v>0</v>
       </c>
       <c r="I43" s="5" t="n">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="J43" s="2" t="n"/>
       <c r="K43" s="10" t="n"/>
@@ -2710,27 +2778,27 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>Travertine Table Tops</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>Silver Vein Cut</t>
+          <t>Gold</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="D44" s="3" t="inlineStr">
         <is>
-          <t>24,0</t>
+          <t>50,0</t>
         </is>
       </c>
       <c r="E44" s="2" t="inlineStr">
         <is>
-          <t>24,0</t>
+          <t>100,0</t>
         </is>
       </c>
       <c r="F44" s="2" t="inlineStr">
@@ -2739,13 +2807,13 @@
         </is>
       </c>
       <c r="G44" s="10" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="H44" s="11" t="n">
+        <v>50</v>
+      </c>
+      <c r="I44" s="5" t="n">
         <v>0</v>
-      </c>
-      <c r="I44" s="5" t="n">
-        <v>1</v>
       </c>
       <c r="J44" s="2" t="n"/>
       <c r="K44" s="10" t="n"/>
@@ -2762,27 +2830,27 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>Travertine Table Tops</t>
+          <t>Marble Tiles</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>Silver Vein Cut</t>
+          <t>Tundra Grey</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished&amp;Round</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="D45" s="3" t="inlineStr">
         <is>
-          <t>24,0</t>
+          <t>50,0</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr">
         <is>
-          <t>24,0</t>
+          <t>50,0</t>
         </is>
       </c>
       <c r="F45" s="2" t="inlineStr">
@@ -2791,13 +2859,13 @@
         </is>
       </c>
       <c r="G45" s="10" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="H45" s="11" t="n">
+        <v>25</v>
+      </c>
+      <c r="I45" s="5" t="n">
         <v>0</v>
-      </c>
-      <c r="I45" s="5" t="n">
-        <v>1</v>
       </c>
       <c r="J45" s="2" t="n"/>
       <c r="K45" s="10" t="n"/>
@@ -2819,22 +2887,22 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed&amp;Bullnosed</t>
+          <t>Filled&amp;Brushed</t>
         </is>
       </c>
       <c r="D46" s="3" t="inlineStr">
         <is>
-          <t>25,0</t>
+          <t>90,0</t>
         </is>
       </c>
       <c r="E46" s="2" t="inlineStr">
         <is>
-          <t>80,0</t>
+          <t>26,0</t>
         </is>
       </c>
       <c r="F46" s="2" t="inlineStr">
@@ -2843,13 +2911,13 @@
         </is>
       </c>
       <c r="G46" s="10" t="n">
-        <v>272</v>
+        <v>1</v>
       </c>
       <c r="H46" s="11" t="n">
         <v>0</v>
       </c>
       <c r="I46" s="5" t="n">
-        <v>272</v>
+        <v>1</v>
       </c>
       <c r="J46" s="2" t="n"/>
       <c r="K46" s="10" t="n"/>
@@ -2866,42 +2934,42 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>Travertine Risers</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Mina Rustic</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Brushed&amp;Straight Edge</t>
         </is>
       </c>
       <c r="D47" s="3" t="inlineStr">
         <is>
-          <t>26,0</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="E47" s="2" t="inlineStr">
         <is>
-          <t>136,0</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="F47" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G47" s="10" t="n">
-        <v>27</v>
+        <v>568.75</v>
       </c>
       <c r="H47" s="11" t="n">
         <v>0</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>27</v>
+        <v>568.75</v>
       </c>
       <c r="J47" s="2" t="n"/>
       <c r="K47" s="10" t="n"/>
@@ -2923,37 +2991,37 @@
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Mina Rustic</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>Polished&amp;Bevelled</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="D48" s="3" t="inlineStr">
         <is>
-          <t>30,0</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr">
         <is>
-          <t>129,0</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="F48" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G48" s="10" t="n">
-        <v>40</v>
+        <v>463.92</v>
       </c>
       <c r="H48" s="11" t="n">
-        <v>0</v>
+        <v>38.66</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>40</v>
+        <v>425.26</v>
       </c>
       <c r="J48" s="2" t="n"/>
       <c r="K48" s="10" t="n"/>
@@ -2975,37 +3043,37 @@
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Scott Rustic</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="D49" s="3" t="inlineStr">
         <is>
-          <t>30,0</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="F49" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G49" s="10" t="n">
-        <v>112</v>
+        <v>970.27</v>
       </c>
       <c r="H49" s="11" t="n">
-        <v>126</v>
+        <v>966.5</v>
       </c>
       <c r="I49" s="5" t="n">
-        <v>-14</v>
+        <v>3.77</v>
       </c>
       <c r="J49" s="2" t="n"/>
       <c r="K49" s="10" t="n"/>
@@ -3022,42 +3090,42 @@
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>Marble Tiles</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>Diana Royal</t>
+          <t>Walnut</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="D50" s="3" t="inlineStr">
         <is>
-          <t>30,0</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="F50" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G50" s="10" t="n">
-        <v>978.36</v>
+        <v>736.65</v>
       </c>
       <c r="H50" s="11" t="n">
-        <v>0</v>
+        <v>734.54</v>
       </c>
       <c r="I50" s="5" t="n">
-        <v>978.36</v>
+        <v>2.11</v>
       </c>
       <c r="J50" s="2" t="n"/>
       <c r="K50" s="10" t="n"/>
@@ -3079,37 +3147,37 @@
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Ela</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Semi Polished</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="D51" s="3" t="inlineStr">
         <is>
-          <t>30,0</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="E51" s="2" t="inlineStr">
         <is>
-          <t>110,0</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G51" s="10" t="n">
-        <v>300</v>
+        <v>502.58</v>
       </c>
       <c r="H51" s="11" t="n">
-        <v>0</v>
+        <v>425.26</v>
       </c>
       <c r="I51" s="5" t="n">
-        <v>300</v>
+        <v>77.31999999999999</v>
       </c>
       <c r="J51" s="2" t="n"/>
       <c r="K51" s="10" t="n"/>
@@ -3126,42 +3194,42 @@
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>Travertine Table Tops</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>Silver Vein Cut</t>
+          <t>Picasso Ivory</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="D52" s="3" t="inlineStr">
         <is>
-          <t>30,0</t>
+          <t>Mini</t>
         </is>
       </c>
       <c r="E52" s="2" t="inlineStr">
         <is>
-          <t>30,0</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="F52" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G52" s="10" t="n">
-        <v>1</v>
+        <v>120.08</v>
       </c>
       <c r="H52" s="11" t="n">
-        <v>0</v>
+        <v>77.76000000000001</v>
       </c>
       <c r="I52" s="5" t="n">
-        <v>1</v>
+        <v>42.32</v>
       </c>
       <c r="J52" s="2" t="n"/>
       <c r="K52" s="10" t="n"/>
@@ -3178,27 +3246,27 @@
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>Travertine Table Tops</t>
+          <t>Travertine Slabs</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>Silver Vein Cut</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished&amp;Round</t>
+          <t>Unfilled&amp;Honed</t>
         </is>
       </c>
       <c r="D53" s="3" t="inlineStr">
         <is>
-          <t>30,0</t>
+          <t>SLAB</t>
         </is>
       </c>
       <c r="E53" s="2" t="inlineStr">
         <is>
-          <t>30,0</t>
+          <t>SLAB</t>
         </is>
       </c>
       <c r="F53" s="2" t="inlineStr">
@@ -3207,13 +3275,13 @@
         </is>
       </c>
       <c r="G53" s="10" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="H53" s="11" t="n">
         <v>0</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="J53" s="2" t="n"/>
       <c r="K53" s="10" t="n"/>
@@ -3230,42 +3298,42 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>Travertine Step</t>
+          <t>Travertine Slabs</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Classic Light</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Unfilled&amp;Brushed</t>
         </is>
       </c>
       <c r="D54" s="3" t="inlineStr">
         <is>
-          <t>30,0</t>
+          <t>SLAB</t>
         </is>
       </c>
       <c r="E54" s="2" t="inlineStr">
         <is>
-          <t>125,0</t>
+          <t>SLAB</t>
         </is>
       </c>
       <c r="F54" s="2" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="G54" s="10" t="n">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="H54" s="11" t="n">
+        <v>48</v>
+      </c>
+      <c r="I54" s="5" t="n">
         <v>0</v>
-      </c>
-      <c r="I54" s="5" t="n">
-        <v>20</v>
       </c>
       <c r="J54" s="2" t="n"/>
       <c r="K54" s="10" t="n"/>
@@ -3282,27 +3350,27 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>Marble Threads</t>
+          <t>Marble Tiles</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>Vanilla Beige</t>
+          <t>Toros Black</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Polished&amp;Bevelled</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
         <is>
-          <t>30,0</t>
+          <t>VAR</t>
         </is>
       </c>
       <c r="E55" s="2" t="inlineStr">
         <is>
-          <t>110,0</t>
+          <t>VAR</t>
         </is>
       </c>
       <c r="F55" s="2" t="inlineStr">
@@ -3311,13 +3379,13 @@
         </is>
       </c>
       <c r="G55" s="10" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H55" s="11" t="n">
         <v>0</v>
       </c>
       <c r="I55" s="5" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J55" s="2" t="n"/>
       <c r="K55" s="10" t="n"/>
@@ -3339,37 +3407,37 @@
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>Pablo Vein Cut</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Semi Polished</t>
+          <t>Filled&amp;Brushed&amp;2 Long Sides Bevelled</t>
         </is>
       </c>
       <c r="D56" s="3" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>VAR</t>
         </is>
       </c>
       <c r="E56" s="2" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>VAR</t>
         </is>
       </c>
       <c r="F56" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>6,0</t>
         </is>
       </c>
       <c r="G56" s="10" t="n">
-        <v>35.16</v>
+        <v>35.64</v>
       </c>
       <c r="H56" s="11" t="n">
         <v>0</v>
       </c>
       <c r="I56" s="5" t="n">
-        <v>35.16</v>
+        <v>35.64</v>
       </c>
       <c r="J56" s="2" t="n"/>
       <c r="K56" s="10" t="n"/>
@@ -3391,37 +3459,37 @@
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Brushed</t>
+          <t>Filled&amp;Brushed&amp;1 Long Side Bevelled</t>
         </is>
       </c>
       <c r="D57" s="3" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>VAR</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>VAR</t>
         </is>
       </c>
       <c r="F57" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>6,0</t>
         </is>
       </c>
       <c r="G57" s="10" t="n">
-        <v>327.63</v>
+        <v>32.66</v>
       </c>
       <c r="H57" s="11" t="n">
         <v>0</v>
       </c>
       <c r="I57" s="5" t="n">
-        <v>327.63</v>
+        <v>32.66</v>
       </c>
       <c r="J57" s="2" t="n"/>
       <c r="K57" s="10" t="n"/>
@@ -3443,37 +3511,37 @@
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>Picasso Grey</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Filled&amp;Brushed&amp;Front Side Bullnose</t>
         </is>
       </c>
       <c r="D58" s="3" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>VAR</t>
         </is>
       </c>
       <c r="E58" s="2" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>VAR</t>
         </is>
       </c>
       <c r="F58" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="G58" s="10" t="n">
-        <v>270.02</v>
+        <v>7.57</v>
       </c>
       <c r="H58" s="11" t="n">
         <v>0</v>
       </c>
       <c r="I58" s="5" t="n">
-        <v>270.02</v>
+        <v>7.57</v>
       </c>
       <c r="J58" s="2" t="n"/>
       <c r="K58" s="10" t="n"/>
@@ -3490,7 +3558,7 @@
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Travertine Block</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
@@ -3500,32 +3568,32 @@
       </c>
       <c r="C59" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Semi Polished</t>
+          <t>Filled&amp;Brushed&amp;1,2m Side Bevelled</t>
         </is>
       </c>
       <c r="D59" s="3" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>VAR</t>
         </is>
       </c>
       <c r="E59" s="2" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>VAR</t>
         </is>
       </c>
       <c r="F59" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>22.5</t>
         </is>
       </c>
       <c r="G59" s="10" t="n">
-        <v>411.17</v>
+        <v>3.6</v>
       </c>
       <c r="H59" s="11" t="n">
         <v>0</v>
       </c>
       <c r="I59" s="5" t="n">
-        <v>411.17</v>
+        <v>3.6</v>
       </c>
       <c r="J59" s="2" t="n"/>
       <c r="K59" s="10" t="n"/>
@@ -3547,37 +3615,37 @@
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Filled&amp;Brushed&amp;1 Long Side Bevelled</t>
         </is>
       </c>
       <c r="D60" s="3" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>VAR</t>
         </is>
       </c>
       <c r="E60" s="2" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>VAR</t>
         </is>
       </c>
       <c r="F60" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="G60" s="10" t="n">
-        <v>1191.1</v>
+        <v>10.45</v>
       </c>
       <c r="H60" s="11" t="n">
         <v>0</v>
       </c>
       <c r="I60" s="5" t="n">
-        <v>1191.1</v>
+        <v>10.45</v>
       </c>
       <c r="J60" s="2" t="n"/>
       <c r="K60" s="10" t="n"/>
@@ -3594,42 +3662,42 @@
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Travertine Stairs</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>Classic Cream Vein Cut</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Semi Polished</t>
+          <t>Filled&amp;Brushed&amp;Front Side Bullnose</t>
         </is>
       </c>
       <c r="D61" s="3" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>VAR</t>
         </is>
       </c>
       <c r="E61" s="2" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>VAR</t>
         </is>
       </c>
       <c r="F61" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="G61" s="10" t="n">
-        <v>770.0599999999999</v>
+        <v>5</v>
       </c>
       <c r="H61" s="11" t="n">
         <v>0</v>
       </c>
       <c r="I61" s="5" t="n">
-        <v>770.0599999999999</v>
+        <v>5</v>
       </c>
       <c r="J61" s="2" t="n"/>
       <c r="K61" s="10" t="n"/>
@@ -3646,42 +3714,42 @@
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Marble Blocks</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Tundra Blue</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed</t>
+          <t>Raw</t>
         </is>
       </c>
       <c r="D62" s="3" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>VAR</t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>VAR</t>
         </is>
       </c>
       <c r="F62" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>VAR</t>
         </is>
       </c>
       <c r="G62" s="10" t="n">
-        <v>78.14</v>
+        <v>10</v>
       </c>
       <c r="H62" s="11" t="n">
         <v>0</v>
       </c>
       <c r="I62" s="5" t="n">
-        <v>78.14</v>
+        <v>10</v>
       </c>
       <c r="J62" s="2" t="n"/>
       <c r="K62" s="10" t="n"/>
@@ -3698,42 +3766,42 @@
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Marble Tiles</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Blanco Perla</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="D63" s="3" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>VAR</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>VAR</t>
         </is>
       </c>
       <c r="F63" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="G63" s="10" t="n">
-        <v>2195</v>
+        <v>59.48</v>
       </c>
       <c r="H63" s="11" t="n">
         <v>0</v>
       </c>
       <c r="I63" s="5" t="n">
-        <v>2195</v>
+        <v>59.48</v>
       </c>
       <c r="J63" s="2" t="n"/>
       <c r="K63" s="10" t="n"/>
@@ -3750,42 +3818,42 @@
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>Marble Tiles</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>Bianco Ibiza White</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="D64" s="3" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>VAR</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>VAR</t>
         </is>
       </c>
       <c r="F64" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>VAR</t>
         </is>
       </c>
       <c r="G64" s="10" t="n">
-        <v>76.65000000000001</v>
+        <v>229.69</v>
       </c>
       <c r="H64" s="11" t="n">
-        <v>76.65000000000001</v>
+        <v>88.20999999999999</v>
       </c>
       <c r="I64" s="5" t="n">
-        <v>0</v>
+        <v>141.48</v>
       </c>
       <c r="J64" s="2" t="n"/>
       <c r="K64" s="10" t="n"/>
@@ -3802,42 +3870,42 @@
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Marble Tiles</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+          <t>Naturella Cream</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="D65" s="3" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>VAR</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>VAR</t>
         </is>
       </c>
       <c r="F65" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>VAR</t>
         </is>
       </c>
       <c r="G65" s="10" t="n">
-        <v>1521.87</v>
+        <v>64.83</v>
       </c>
       <c r="H65" s="11" t="n">
-        <v>819.35</v>
+        <v>0</v>
       </c>
       <c r="I65" s="5" t="n">
-        <v>702.52</v>
+        <v>64.83</v>
       </c>
       <c r="J65" s="2" t="n"/>
       <c r="K65" s="10" t="n"/>
@@ -3854,42 +3922,42 @@
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Marble Tiles</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>Silver Vein Cut</t>
+          <t>Diana Royal</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="D66" s="3" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>VAR</t>
         </is>
       </c>
       <c r="E66" s="2" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>VAR</t>
         </is>
       </c>
       <c r="F66" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>VAR</t>
         </is>
       </c>
       <c r="G66" s="10" t="n">
-        <v>123.72</v>
+        <v>92.67</v>
       </c>
       <c r="H66" s="11" t="n">
-        <v>78.14</v>
+        <v>0</v>
       </c>
       <c r="I66" s="5" t="n">
-        <v>45.58</v>
+        <v>92.67</v>
       </c>
       <c r="J66" s="2" t="n"/>
       <c r="K66" s="10" t="n"/>
@@ -3911,37 +3979,37 @@
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Pablo Cross Cut</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="D67" s="3" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>VAR</t>
         </is>
       </c>
       <c r="E67" s="2" t="inlineStr">
         <is>
-          <t>45,7</t>
+          <t>VAR</t>
         </is>
       </c>
       <c r="F67" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>VAR</t>
         </is>
       </c>
       <c r="G67" s="10" t="n">
-        <v>114.99</v>
+        <v>70.7</v>
       </c>
       <c r="H67" s="11" t="n">
-        <v>210.75</v>
+        <v>0</v>
       </c>
       <c r="I67" s="5" t="n">
-        <v>-95.76000000000001</v>
+        <v>70.7</v>
       </c>
       <c r="J67" s="2" t="n"/>
       <c r="K67" s="10" t="n"/>
@@ -3958,42 +4026,42 @@
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Marble Tiles</t>
         </is>
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>Picasso Ivory</t>
+          <t>Blanco Esi</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="D68" s="3" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>VAR</t>
         </is>
       </c>
       <c r="E68" s="2" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>VAR</t>
         </is>
       </c>
       <c r="F68" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>VAR</t>
         </is>
       </c>
       <c r="G68" s="10" t="n">
-        <v>1500.12</v>
+        <v>134.69</v>
       </c>
       <c r="H68" s="11" t="n">
-        <v>195.35</v>
+        <v>0</v>
       </c>
       <c r="I68" s="5" t="n">
-        <v>1304.77</v>
+        <v>134.69</v>
       </c>
       <c r="J68" s="2" t="n"/>
       <c r="K68" s="10" t="n"/>
@@ -4015,37 +4083,37 @@
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Scott Rustic</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="D69" s="3" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>VAR</t>
         </is>
       </c>
       <c r="E69" s="2" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>VAR</t>
         </is>
       </c>
       <c r="F69" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="G69" s="10" t="n">
-        <v>284.22</v>
+        <v>37.31</v>
       </c>
       <c r="H69" s="11" t="n">
-        <v>39.07</v>
+        <v>0</v>
       </c>
       <c r="I69" s="5" t="n">
-        <v>245.15</v>
+        <v>37.31</v>
       </c>
       <c r="J69" s="2" t="n"/>
       <c r="K69" s="10" t="n"/>
@@ -4060,45 +4128,15 @@
       <c r="T69" s="7" t="n"/>
     </row>
     <row r="70">
-      <c r="A70" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B70" s="3" t="inlineStr">
-        <is>
-          <t>Classic Vein Cut</t>
-        </is>
-      </c>
-      <c r="C70" s="3" t="inlineStr">
-        <is>
-          <t>Filled&amp;Honed</t>
-        </is>
-      </c>
-      <c r="D70" s="3" t="inlineStr">
-        <is>
-          <t>30,5</t>
-        </is>
-      </c>
-      <c r="E70" s="2" t="inlineStr">
-        <is>
-          <t>61,0</t>
-        </is>
-      </c>
-      <c r="F70" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G70" s="10" t="n">
-        <v>832.78</v>
-      </c>
-      <c r="H70" s="11" t="n">
-        <v>303.26</v>
-      </c>
-      <c r="I70" s="5" t="n">
-        <v>529.52</v>
-      </c>
+      <c r="A70" s="3" t="n"/>
+      <c r="B70" s="3" t="n"/>
+      <c r="C70" s="3" t="n"/>
+      <c r="D70" s="3" t="n"/>
+      <c r="E70" s="2" t="n"/>
+      <c r="F70" s="2" t="n"/>
+      <c r="G70" s="10" t="n"/>
+      <c r="H70" s="11" t="n"/>
+      <c r="I70" s="5" t="n"/>
       <c r="J70" s="2" t="n"/>
       <c r="K70" s="10" t="n"/>
       <c r="L70" s="11" t="n"/>
@@ -4112,45 +4150,15 @@
       <c r="T70" s="7" t="n"/>
     </row>
     <row r="71">
-      <c r="A71" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B71" s="3" t="inlineStr">
-        <is>
-          <t>Yellow</t>
-        </is>
-      </c>
-      <c r="C71" s="3" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Honed</t>
-        </is>
-      </c>
-      <c r="D71" s="3" t="inlineStr">
-        <is>
-          <t>30,5</t>
-        </is>
-      </c>
-      <c r="E71" s="2" t="inlineStr">
-        <is>
-          <t>61,0</t>
-        </is>
-      </c>
-      <c r="F71" s="2" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="G71" s="10" t="n">
-        <v>520</v>
-      </c>
-      <c r="H71" s="11" t="n">
-        <v>352.16</v>
-      </c>
-      <c r="I71" s="5" t="n">
-        <v>167.84</v>
-      </c>
+      <c r="A71" s="3" t="n"/>
+      <c r="B71" s="3" t="n"/>
+      <c r="C71" s="3" t="n"/>
+      <c r="D71" s="3" t="n"/>
+      <c r="E71" s="2" t="n"/>
+      <c r="F71" s="2" t="n"/>
+      <c r="G71" s="10" t="n"/>
+      <c r="H71" s="11" t="n"/>
+      <c r="I71" s="5" t="n"/>
       <c r="J71" s="2" t="n"/>
       <c r="K71" s="10" t="n"/>
       <c r="L71" s="11" t="n"/>
@@ -4164,45 +4172,15 @@
       <c r="T71" s="7" t="n"/>
     </row>
     <row r="72">
-      <c r="A72" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B72" s="3" t="inlineStr">
-        <is>
-          <t>Classic Mina</t>
-        </is>
-      </c>
-      <c r="C72" s="3" t="inlineStr">
-        <is>
-          <t>Filled&amp;Semi Polished</t>
-        </is>
-      </c>
-      <c r="D72" s="3" t="inlineStr">
-        <is>
-          <t>30,5</t>
-        </is>
-      </c>
-      <c r="E72" s="2" t="inlineStr">
-        <is>
-          <t>61,0</t>
-        </is>
-      </c>
-      <c r="F72" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G72" s="10" t="n">
-        <v>1010.43</v>
-      </c>
-      <c r="H72" s="11" t="n">
-        <v>39.07</v>
-      </c>
-      <c r="I72" s="5" t="n">
-        <v>971.36</v>
-      </c>
+      <c r="A72" s="3" t="n"/>
+      <c r="B72" s="3" t="n"/>
+      <c r="C72" s="3" t="n"/>
+      <c r="D72" s="3" t="n"/>
+      <c r="E72" s="2" t="n"/>
+      <c r="F72" s="2" t="n"/>
+      <c r="G72" s="10" t="n"/>
+      <c r="H72" s="11" t="n"/>
+      <c r="I72" s="5" t="n"/>
       <c r="J72" s="2" t="n"/>
       <c r="K72" s="10" t="n"/>
       <c r="L72" s="11" t="n"/>
@@ -4216,45 +4194,15 @@
       <c r="T72" s="7" t="n"/>
     </row>
     <row r="73">
-      <c r="A73" s="3" t="inlineStr">
-        <is>
-          <t>Marble Tiles</t>
-        </is>
-      </c>
-      <c r="B73" s="3" t="inlineStr">
-        <is>
-          <t>Tundra Grey</t>
-        </is>
-      </c>
-      <c r="C73" s="3" t="inlineStr">
-        <is>
-          <t>Polished</t>
-        </is>
-      </c>
-      <c r="D73" s="3" t="inlineStr">
-        <is>
-          <t>31,3</t>
-        </is>
-      </c>
-      <c r="E73" s="2" t="inlineStr">
-        <is>
-          <t>70,0</t>
-        </is>
-      </c>
-      <c r="F73" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G73" s="10" t="n">
-        <v>237.94</v>
-      </c>
-      <c r="H73" s="11" t="n">
-        <v>237.96</v>
-      </c>
-      <c r="I73" s="5" t="n">
-        <v>-0.02</v>
-      </c>
+      <c r="A73" s="3" t="n"/>
+      <c r="B73" s="3" t="n"/>
+      <c r="C73" s="3" t="n"/>
+      <c r="D73" s="3" t="n"/>
+      <c r="E73" s="2" t="n"/>
+      <c r="F73" s="2" t="n"/>
+      <c r="G73" s="10" t="n"/>
+      <c r="H73" s="11" t="n"/>
+      <c r="I73" s="5" t="n"/>
       <c r="J73" s="2" t="n"/>
       <c r="K73" s="10" t="n"/>
       <c r="L73" s="11" t="n"/>
@@ -4268,45 +4216,15 @@
       <c r="T73" s="7" t="n"/>
     </row>
     <row r="74">
-      <c r="A74" s="3" t="inlineStr">
-        <is>
-          <t>Marble Stairs</t>
-        </is>
-      </c>
-      <c r="B74" s="3" t="inlineStr">
-        <is>
-          <t>Anatolia Beige</t>
-        </is>
-      </c>
-      <c r="C74" s="3" t="inlineStr">
-        <is>
-          <t>Polished&amp;Grooved</t>
-        </is>
-      </c>
-      <c r="D74" s="3" t="inlineStr">
-        <is>
-          <t>32,0</t>
-        </is>
-      </c>
-      <c r="E74" s="2" t="inlineStr">
-        <is>
-          <t>153,0</t>
-        </is>
-      </c>
-      <c r="F74" s="2" t="inlineStr">
-        <is>
-          <t>3,0</t>
-        </is>
-      </c>
-      <c r="G74" s="10" t="n">
-        <v>50</v>
-      </c>
-      <c r="H74" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" s="5" t="n">
-        <v>50</v>
-      </c>
+      <c r="A74" s="3" t="n"/>
+      <c r="B74" s="3" t="n"/>
+      <c r="C74" s="3" t="n"/>
+      <c r="D74" s="3" t="n"/>
+      <c r="E74" s="2" t="n"/>
+      <c r="F74" s="2" t="n"/>
+      <c r="G74" s="10" t="n"/>
+      <c r="H74" s="11" t="n"/>
+      <c r="I74" s="5" t="n"/>
       <c r="J74" s="2" t="n"/>
       <c r="K74" s="10" t="n"/>
       <c r="L74" s="11" t="n"/>
@@ -4320,45 +4238,15 @@
       <c r="T74" s="7" t="n"/>
     </row>
     <row r="75">
-      <c r="A75" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Stairs</t>
-        </is>
-      </c>
-      <c r="B75" s="3" t="inlineStr">
-        <is>
-          <t>Silver Grey</t>
-        </is>
-      </c>
-      <c r="C75" s="3" t="inlineStr">
-        <is>
-          <t>Polished&amp;Bevelled</t>
-        </is>
-      </c>
-      <c r="D75" s="3" t="inlineStr">
-        <is>
-          <t>33,0</t>
-        </is>
-      </c>
-      <c r="E75" s="2" t="inlineStr">
-        <is>
-          <t>120,0</t>
-        </is>
-      </c>
-      <c r="F75" s="2" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="G75" s="10" t="n">
-        <v>80</v>
-      </c>
-      <c r="H75" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" s="5" t="n">
-        <v>80</v>
-      </c>
+      <c r="A75" s="3" t="n"/>
+      <c r="B75" s="3" t="n"/>
+      <c r="C75" s="3" t="n"/>
+      <c r="D75" s="3" t="n"/>
+      <c r="E75" s="2" t="n"/>
+      <c r="F75" s="2" t="n"/>
+      <c r="G75" s="10" t="n"/>
+      <c r="H75" s="11" t="n"/>
+      <c r="I75" s="5" t="n"/>
       <c r="J75" s="2" t="n"/>
       <c r="K75" s="10" t="n"/>
       <c r="L75" s="11" t="n"/>
@@ -4372,45 +4260,15 @@
       <c r="T75" s="7" t="n"/>
     </row>
     <row r="76">
-      <c r="A76" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Treads</t>
-        </is>
-      </c>
-      <c r="B76" s="3" t="inlineStr">
-        <is>
-          <t>Classic Mina</t>
-        </is>
-      </c>
-      <c r="C76" s="3" t="inlineStr">
-        <is>
-          <t>Filled&amp;Honed</t>
-        </is>
-      </c>
-      <c r="D76" s="3" t="inlineStr">
-        <is>
-          <t>33,0</t>
-        </is>
-      </c>
-      <c r="E76" s="2" t="inlineStr">
-        <is>
-          <t>129,0</t>
-        </is>
-      </c>
-      <c r="F76" s="2" t="inlineStr">
-        <is>
-          <t>3,0</t>
-        </is>
-      </c>
-      <c r="G76" s="10" t="n">
-        <v>36</v>
-      </c>
-      <c r="H76" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" s="5" t="n">
-        <v>36</v>
-      </c>
+      <c r="A76" s="3" t="n"/>
+      <c r="B76" s="3" t="n"/>
+      <c r="C76" s="3" t="n"/>
+      <c r="D76" s="3" t="n"/>
+      <c r="E76" s="2" t="n"/>
+      <c r="F76" s="2" t="n"/>
+      <c r="G76" s="10" t="n"/>
+      <c r="H76" s="11" t="n"/>
+      <c r="I76" s="5" t="n"/>
       <c r="J76" s="2" t="n"/>
       <c r="K76" s="10" t="n"/>
       <c r="L76" s="11" t="n"/>
@@ -4424,45 +4282,15 @@
       <c r="T76" s="7" t="n"/>
     </row>
     <row r="77">
-      <c r="A77" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Stairs</t>
-        </is>
-      </c>
-      <c r="B77" s="3" t="inlineStr">
-        <is>
-          <t>Classic Vein Cut</t>
-        </is>
-      </c>
-      <c r="C77" s="3" t="inlineStr">
-        <is>
-          <t>Resin Filled&amp;Polished</t>
-        </is>
-      </c>
-      <c r="D77" s="3" t="inlineStr">
-        <is>
-          <t>33,0</t>
-        </is>
-      </c>
-      <c r="E77" s="2" t="inlineStr">
-        <is>
-          <t>153,0</t>
-        </is>
-      </c>
-      <c r="F77" s="2" t="inlineStr">
-        <is>
-          <t>3,0</t>
-        </is>
-      </c>
-      <c r="G77" s="10" t="n">
-        <v>4</v>
-      </c>
-      <c r="H77" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" s="5" t="n">
-        <v>4</v>
-      </c>
+      <c r="A77" s="3" t="n"/>
+      <c r="B77" s="3" t="n"/>
+      <c r="C77" s="3" t="n"/>
+      <c r="D77" s="3" t="n"/>
+      <c r="E77" s="2" t="n"/>
+      <c r="F77" s="2" t="n"/>
+      <c r="G77" s="10" t="n"/>
+      <c r="H77" s="11" t="n"/>
+      <c r="I77" s="5" t="n"/>
       <c r="J77" s="2" t="n"/>
       <c r="K77" s="10" t="n"/>
       <c r="L77" s="11" t="n"/>
@@ -4476,45 +4304,15 @@
       <c r="T77" s="7" t="n"/>
     </row>
     <row r="78">
-      <c r="A78" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Threads</t>
-        </is>
-      </c>
-      <c r="B78" s="3" t="inlineStr">
-        <is>
-          <t>Classic Mina</t>
-        </is>
-      </c>
-      <c r="C78" s="3" t="inlineStr">
-        <is>
-          <t>Filled&amp;Honed</t>
-        </is>
-      </c>
-      <c r="D78" s="3" t="inlineStr">
-        <is>
-          <t>33,0</t>
-        </is>
-      </c>
-      <c r="E78" s="2" t="inlineStr">
-        <is>
-          <t>136,0</t>
-        </is>
-      </c>
-      <c r="F78" s="2" t="inlineStr">
-        <is>
-          <t>3,0</t>
-        </is>
-      </c>
-      <c r="G78" s="10" t="n">
-        <v>8</v>
-      </c>
-      <c r="H78" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" s="5" t="n">
-        <v>8</v>
-      </c>
+      <c r="A78" s="3" t="n"/>
+      <c r="B78" s="3" t="n"/>
+      <c r="C78" s="3" t="n"/>
+      <c r="D78" s="3" t="n"/>
+      <c r="E78" s="2" t="n"/>
+      <c r="F78" s="2" t="n"/>
+      <c r="G78" s="10" t="n"/>
+      <c r="H78" s="11" t="n"/>
+      <c r="I78" s="5" t="n"/>
       <c r="J78" s="2" t="n"/>
       <c r="K78" s="10" t="n"/>
       <c r="L78" s="11" t="n"/>
@@ -4528,45 +4326,15 @@
       <c r="T78" s="7" t="n"/>
     </row>
     <row r="79">
-      <c r="A79" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Stairs</t>
-        </is>
-      </c>
-      <c r="B79" s="3" t="inlineStr">
-        <is>
-          <t>Silver Grey</t>
-        </is>
-      </c>
-      <c r="C79" s="3" t="inlineStr">
-        <is>
-          <t>Polished&amp;Bevelled</t>
-        </is>
-      </c>
-      <c r="D79" s="3" t="inlineStr">
-        <is>
-          <t>33,0</t>
-        </is>
-      </c>
-      <c r="E79" s="2" t="inlineStr">
-        <is>
-          <t>115,0</t>
-        </is>
-      </c>
-      <c r="F79" s="2" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="G79" s="10" t="n">
-        <v>40</v>
-      </c>
-      <c r="H79" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" s="5" t="n">
-        <v>40</v>
-      </c>
+      <c r="A79" s="3" t="n"/>
+      <c r="B79" s="3" t="n"/>
+      <c r="C79" s="3" t="n"/>
+      <c r="D79" s="3" t="n"/>
+      <c r="E79" s="2" t="n"/>
+      <c r="F79" s="2" t="n"/>
+      <c r="G79" s="10" t="n"/>
+      <c r="H79" s="11" t="n"/>
+      <c r="I79" s="5" t="n"/>
       <c r="J79" s="2" t="n"/>
       <c r="K79" s="10" t="n"/>
       <c r="L79" s="11" t="n"/>
@@ -4580,45 +4348,15 @@
       <c r="T79" s="7" t="n"/>
     </row>
     <row r="80">
-      <c r="A80" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Stairs</t>
-        </is>
-      </c>
-      <c r="B80" s="3" t="inlineStr">
-        <is>
-          <t>Silver Grey</t>
-        </is>
-      </c>
-      <c r="C80" s="3" t="inlineStr">
-        <is>
-          <t>Polished&amp;Bevelled</t>
-        </is>
-      </c>
-      <c r="D80" s="3" t="inlineStr">
-        <is>
-          <t>33,0</t>
-        </is>
-      </c>
-      <c r="E80" s="2" t="inlineStr">
-        <is>
-          <t>126,0</t>
-        </is>
-      </c>
-      <c r="F80" s="2" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="G80" s="10" t="n">
-        <v>40</v>
-      </c>
-      <c r="H80" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" s="5" t="n">
-        <v>40</v>
-      </c>
+      <c r="A80" s="3" t="n"/>
+      <c r="B80" s="3" t="n"/>
+      <c r="C80" s="3" t="n"/>
+      <c r="D80" s="3" t="n"/>
+      <c r="E80" s="2" t="n"/>
+      <c r="F80" s="2" t="n"/>
+      <c r="G80" s="10" t="n"/>
+      <c r="H80" s="11" t="n"/>
+      <c r="I80" s="5" t="n"/>
       <c r="J80" s="2" t="n"/>
       <c r="K80" s="10" t="n"/>
       <c r="L80" s="11" t="n"/>
@@ -4632,45 +4370,15 @@
       <c r="T80" s="7" t="n"/>
     </row>
     <row r="81">
-      <c r="A81" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Stairs</t>
-        </is>
-      </c>
-      <c r="B81" s="3" t="inlineStr">
-        <is>
-          <t>Silver Grey</t>
-        </is>
-      </c>
-      <c r="C81" s="3" t="inlineStr">
-        <is>
-          <t>Polished&amp;Bevelled</t>
-        </is>
-      </c>
-      <c r="D81" s="3" t="inlineStr">
-        <is>
-          <t>33,0</t>
-        </is>
-      </c>
-      <c r="E81" s="2" t="inlineStr">
-        <is>
-          <t>127,0</t>
-        </is>
-      </c>
-      <c r="F81" s="2" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="G81" s="10" t="n">
-        <v>40</v>
-      </c>
-      <c r="H81" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" s="5" t="n">
-        <v>40</v>
-      </c>
+      <c r="A81" s="3" t="n"/>
+      <c r="B81" s="3" t="n"/>
+      <c r="C81" s="3" t="n"/>
+      <c r="D81" s="3" t="n"/>
+      <c r="E81" s="2" t="n"/>
+      <c r="F81" s="2" t="n"/>
+      <c r="G81" s="10" t="n"/>
+      <c r="H81" s="11" t="n"/>
+      <c r="I81" s="5" t="n"/>
       <c r="J81" s="2" t="n"/>
       <c r="K81" s="10" t="n"/>
       <c r="L81" s="11" t="n"/>
@@ -4684,45 +4392,15 @@
       <c r="T81" s="7" t="n"/>
     </row>
     <row r="82">
-      <c r="A82" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Table Tops</t>
-        </is>
-      </c>
-      <c r="B82" s="3" t="inlineStr">
-        <is>
-          <t>Silver Vein Cut</t>
-        </is>
-      </c>
-      <c r="C82" s="3" t="inlineStr">
-        <is>
-          <t>Filled&amp;Polished</t>
-        </is>
-      </c>
-      <c r="D82" s="3" t="inlineStr">
-        <is>
-          <t>36,0</t>
-        </is>
-      </c>
-      <c r="E82" s="2" t="inlineStr">
-        <is>
-          <t>36,0</t>
-        </is>
-      </c>
-      <c r="F82" s="2" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="G82" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H82" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="A82" s="3" t="n"/>
+      <c r="B82" s="3" t="n"/>
+      <c r="C82" s="3" t="n"/>
+      <c r="D82" s="3" t="n"/>
+      <c r="E82" s="2" t="n"/>
+      <c r="F82" s="2" t="n"/>
+      <c r="G82" s="10" t="n"/>
+      <c r="H82" s="11" t="n"/>
+      <c r="I82" s="5" t="n"/>
       <c r="J82" s="2" t="n"/>
       <c r="K82" s="10" t="n"/>
       <c r="L82" s="11" t="n"/>
@@ -4736,45 +4414,15 @@
       <c r="T82" s="7" t="n"/>
     </row>
     <row r="83">
-      <c r="A83" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Table Tops</t>
-        </is>
-      </c>
-      <c r="B83" s="3" t="inlineStr">
-        <is>
-          <t>Silver Vein Cut</t>
-        </is>
-      </c>
-      <c r="C83" s="3" t="inlineStr">
-        <is>
-          <t>Filled&amp;Polished&amp;Round</t>
-        </is>
-      </c>
-      <c r="D83" s="3" t="inlineStr">
-        <is>
-          <t>36,0</t>
-        </is>
-      </c>
-      <c r="E83" s="2" t="inlineStr">
-        <is>
-          <t>36,0</t>
-        </is>
-      </c>
-      <c r="F83" s="2" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="G83" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H83" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="A83" s="3" t="n"/>
+      <c r="B83" s="3" t="n"/>
+      <c r="C83" s="3" t="n"/>
+      <c r="D83" s="3" t="n"/>
+      <c r="E83" s="2" t="n"/>
+      <c r="F83" s="2" t="n"/>
+      <c r="G83" s="10" t="n"/>
+      <c r="H83" s="11" t="n"/>
+      <c r="I83" s="5" t="n"/>
       <c r="J83" s="2" t="n"/>
       <c r="K83" s="10" t="n"/>
       <c r="L83" s="11" t="n"/>
@@ -4788,45 +4436,15 @@
       <c r="T83" s="7" t="n"/>
     </row>
     <row r="84">
-      <c r="A84" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B84" s="3" t="inlineStr">
-        <is>
-          <t>Classic Mina</t>
-        </is>
-      </c>
-      <c r="C84" s="3" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
-        </is>
-      </c>
-      <c r="D84" s="3" t="inlineStr">
-        <is>
-          <t>4,8</t>
-        </is>
-      </c>
-      <c r="E84" s="2" t="inlineStr">
-        <is>
-          <t>4,8</t>
-        </is>
-      </c>
-      <c r="F84" s="2" t="inlineStr">
-        <is>
-          <t>1,0</t>
-        </is>
-      </c>
-      <c r="G84" s="10" t="n">
-        <v>50.05</v>
-      </c>
-      <c r="H84" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" s="5" t="n">
-        <v>50.05</v>
-      </c>
+      <c r="A84" s="3" t="n"/>
+      <c r="B84" s="3" t="n"/>
+      <c r="C84" s="3" t="n"/>
+      <c r="D84" s="3" t="n"/>
+      <c r="E84" s="2" t="n"/>
+      <c r="F84" s="2" t="n"/>
+      <c r="G84" s="10" t="n"/>
+      <c r="H84" s="11" t="n"/>
+      <c r="I84" s="5" t="n"/>
       <c r="J84" s="2" t="n"/>
       <c r="K84" s="10" t="n"/>
       <c r="L84" s="11" t="n"/>
@@ -4840,45 +4458,15 @@
       <c r="T84" s="7" t="n"/>
     </row>
     <row r="85">
-      <c r="A85" s="3" t="inlineStr">
-        <is>
-          <t>Marble Mosaic</t>
-        </is>
-      </c>
-      <c r="B85" s="3" t="inlineStr">
-        <is>
-          <t>Staturio</t>
-        </is>
-      </c>
-      <c r="C85" s="3" t="inlineStr">
-        <is>
-          <t>Polished</t>
-        </is>
-      </c>
-      <c r="D85" s="3" t="inlineStr">
-        <is>
-          <t>4,8</t>
-        </is>
-      </c>
-      <c r="E85" s="2" t="inlineStr">
-        <is>
-          <t>4,8</t>
-        </is>
-      </c>
-      <c r="F85" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G85" s="10" t="n">
-        <v>9</v>
-      </c>
-      <c r="H85" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="I85" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="A85" s="3" t="n"/>
+      <c r="B85" s="3" t="n"/>
+      <c r="C85" s="3" t="n"/>
+      <c r="D85" s="3" t="n"/>
+      <c r="E85" s="2" t="n"/>
+      <c r="F85" s="2" t="n"/>
+      <c r="G85" s="10" t="n"/>
+      <c r="H85" s="11" t="n"/>
+      <c r="I85" s="5" t="n"/>
       <c r="J85" s="2" t="n"/>
       <c r="K85" s="10" t="n"/>
       <c r="L85" s="11" t="n"/>
@@ -4892,45 +4480,15 @@
       <c r="T85" s="7" t="n"/>
     </row>
     <row r="86">
-      <c r="A86" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B86" s="3" t="inlineStr">
-        <is>
-          <t>Classic Vein Cut</t>
-        </is>
-      </c>
-      <c r="C86" s="3" t="inlineStr">
-        <is>
-          <t>Filled&amp;Polished</t>
-        </is>
-      </c>
-      <c r="D86" s="3" t="inlineStr">
-        <is>
-          <t>40,0</t>
-        </is>
-      </c>
-      <c r="E86" s="2" t="inlineStr">
-        <is>
-          <t>80,0</t>
-        </is>
-      </c>
-      <c r="F86" s="2" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="G86" s="10" t="n">
-        <v>560</v>
-      </c>
-      <c r="H86" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" s="5" t="n">
-        <v>560</v>
-      </c>
+      <c r="A86" s="3" t="n"/>
+      <c r="B86" s="3" t="n"/>
+      <c r="C86" s="3" t="n"/>
+      <c r="D86" s="3" t="n"/>
+      <c r="E86" s="2" t="n"/>
+      <c r="F86" s="2" t="n"/>
+      <c r="G86" s="10" t="n"/>
+      <c r="H86" s="11" t="n"/>
+      <c r="I86" s="5" t="n"/>
       <c r="J86" s="2" t="n"/>
       <c r="K86" s="10" t="n"/>
       <c r="L86" s="11" t="n"/>
@@ -4944,45 +4502,15 @@
       <c r="T86" s="7" t="n"/>
     </row>
     <row r="87">
-      <c r="A87" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B87" s="3" t="inlineStr">
-        <is>
-          <t>Picasso Ivory</t>
-        </is>
-      </c>
-      <c r="C87" s="3" t="inlineStr">
-        <is>
-          <t>Filled&amp;Semi Polished</t>
-        </is>
-      </c>
-      <c r="D87" s="3" t="inlineStr">
-        <is>
-          <t>40,6</t>
-        </is>
-      </c>
-      <c r="E87" s="2" t="inlineStr">
-        <is>
-          <t>61,0</t>
-        </is>
-      </c>
-      <c r="F87" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G87" s="10" t="n">
-        <v>60.18</v>
-      </c>
-      <c r="H87" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" s="5" t="n">
-        <v>60.18</v>
-      </c>
+      <c r="A87" s="3" t="n"/>
+      <c r="B87" s="3" t="n"/>
+      <c r="C87" s="3" t="n"/>
+      <c r="D87" s="3" t="n"/>
+      <c r="E87" s="2" t="n"/>
+      <c r="F87" s="2" t="n"/>
+      <c r="G87" s="10" t="n"/>
+      <c r="H87" s="11" t="n"/>
+      <c r="I87" s="5" t="n"/>
       <c r="J87" s="2" t="n"/>
       <c r="K87" s="10" t="n"/>
       <c r="L87" s="11" t="n"/>
@@ -4996,45 +4524,15 @@
       <c r="T87" s="7" t="n"/>
     </row>
     <row r="88">
-      <c r="A88" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B88" s="3" t="inlineStr">
-        <is>
-          <t>Pablo Vein Cut</t>
-        </is>
-      </c>
-      <c r="C88" s="3" t="inlineStr">
-        <is>
-          <t>Filled&amp;Honed</t>
-        </is>
-      </c>
-      <c r="D88" s="3" t="inlineStr">
-        <is>
-          <t>40,6</t>
-        </is>
-      </c>
-      <c r="E88" s="2" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F88" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G88" s="10" t="n">
-        <v>6.72</v>
-      </c>
-      <c r="H88" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" s="5" t="n">
-        <v>6.72</v>
-      </c>
+      <c r="A88" s="3" t="n"/>
+      <c r="B88" s="3" t="n"/>
+      <c r="C88" s="3" t="n"/>
+      <c r="D88" s="3" t="n"/>
+      <c r="E88" s="2" t="n"/>
+      <c r="F88" s="2" t="n"/>
+      <c r="G88" s="10" t="n"/>
+      <c r="H88" s="11" t="n"/>
+      <c r="I88" s="5" t="n"/>
       <c r="J88" s="2" t="n"/>
       <c r="K88" s="10" t="n"/>
       <c r="L88" s="11" t="n"/>
@@ -5048,45 +4546,15 @@
       <c r="T88" s="7" t="n"/>
     </row>
     <row r="89">
-      <c r="A89" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B89" s="3" t="inlineStr">
-        <is>
-          <t>Silver Cream</t>
-        </is>
-      </c>
-      <c r="C89" s="3" t="inlineStr">
-        <is>
-          <t>Filled&amp;Polished</t>
-        </is>
-      </c>
-      <c r="D89" s="3" t="inlineStr">
-        <is>
-          <t>40,6</t>
-        </is>
-      </c>
-      <c r="E89" s="2" t="inlineStr">
-        <is>
-          <t>61,0</t>
-        </is>
-      </c>
-      <c r="F89" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G89" s="10" t="n">
-        <v>250</v>
-      </c>
-      <c r="H89" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" s="5" t="n">
-        <v>250</v>
-      </c>
+      <c r="A89" s="3" t="n"/>
+      <c r="B89" s="3" t="n"/>
+      <c r="C89" s="3" t="n"/>
+      <c r="D89" s="3" t="n"/>
+      <c r="E89" s="2" t="n"/>
+      <c r="F89" s="2" t="n"/>
+      <c r="G89" s="10" t="n"/>
+      <c r="H89" s="11" t="n"/>
+      <c r="I89" s="5" t="n"/>
       <c r="J89" s="2" t="n"/>
       <c r="K89" s="10" t="n"/>
       <c r="L89" s="11" t="n"/>
@@ -5100,45 +4568,15 @@
       <c r="T89" s="7" t="n"/>
     </row>
     <row r="90">
-      <c r="A90" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B90" s="3" t="inlineStr">
-        <is>
-          <t>Silver Vein Cut</t>
-        </is>
-      </c>
-      <c r="C90" s="3" t="inlineStr">
-        <is>
-          <t>Filled&amp;Brushed&amp;Bullnosed</t>
-        </is>
-      </c>
-      <c r="D90" s="3" t="inlineStr">
-        <is>
-          <t>40,6</t>
-        </is>
-      </c>
-      <c r="E90" s="2" t="inlineStr">
-        <is>
-          <t>61,0</t>
-        </is>
-      </c>
-      <c r="F90" s="2" t="inlineStr">
-        <is>
-          <t>3,0</t>
-        </is>
-      </c>
-      <c r="G90" s="10" t="n">
-        <v>24.77</v>
-      </c>
-      <c r="H90" s="11" t="n">
-        <v>24.77</v>
-      </c>
-      <c r="I90" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="A90" s="3" t="n"/>
+      <c r="B90" s="3" t="n"/>
+      <c r="C90" s="3" t="n"/>
+      <c r="D90" s="3" t="n"/>
+      <c r="E90" s="2" t="n"/>
+      <c r="F90" s="2" t="n"/>
+      <c r="G90" s="10" t="n"/>
+      <c r="H90" s="11" t="n"/>
+      <c r="I90" s="5" t="n"/>
       <c r="J90" s="2" t="n"/>
       <c r="K90" s="10" t="n"/>
       <c r="L90" s="11" t="n"/>
@@ -5152,45 +4590,15 @@
       <c r="T90" s="7" t="n"/>
     </row>
     <row r="91">
-      <c r="A91" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B91" s="3" t="inlineStr">
-        <is>
-          <t>Pablo Vein Cut</t>
-        </is>
-      </c>
-      <c r="C91" s="3" t="inlineStr">
-        <is>
-          <t>Filled&amp;Honed</t>
-        </is>
-      </c>
-      <c r="D91" s="3" t="inlineStr">
-        <is>
-          <t>40,6</t>
-        </is>
-      </c>
-      <c r="E91" s="2" t="inlineStr">
-        <is>
-          <t>61,0</t>
-        </is>
-      </c>
-      <c r="F91" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G91" s="10" t="n">
-        <v>15.11</v>
-      </c>
-      <c r="H91" s="11" t="n">
-        <v>16.59</v>
-      </c>
-      <c r="I91" s="5" t="n">
-        <v>-1.48</v>
-      </c>
+      <c r="A91" s="3" t="n"/>
+      <c r="B91" s="3" t="n"/>
+      <c r="C91" s="3" t="n"/>
+      <c r="D91" s="3" t="n"/>
+      <c r="E91" s="2" t="n"/>
+      <c r="F91" s="2" t="n"/>
+      <c r="G91" s="10" t="n"/>
+      <c r="H91" s="11" t="n"/>
+      <c r="I91" s="5" t="n"/>
       <c r="J91" s="2" t="n"/>
       <c r="K91" s="10" t="n"/>
       <c r="L91" s="11" t="n"/>
@@ -5204,45 +4612,15 @@
       <c r="T91" s="7" t="n"/>
     </row>
     <row r="92">
-      <c r="A92" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B92" s="3" t="inlineStr">
-        <is>
-          <t>Classic Mina</t>
-        </is>
-      </c>
-      <c r="C92" s="3" t="inlineStr">
-        <is>
-          <t>Filled&amp;Semi Polished</t>
-        </is>
-      </c>
-      <c r="D92" s="3" t="inlineStr">
-        <is>
-          <t>40,6</t>
-        </is>
-      </c>
-      <c r="E92" s="2" t="inlineStr">
-        <is>
-          <t>61,0</t>
-        </is>
-      </c>
-      <c r="F92" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G92" s="10" t="n">
-        <v>768.48</v>
-      </c>
-      <c r="H92" s="11" t="n">
-        <v>42.1</v>
-      </c>
-      <c r="I92" s="5" t="n">
-        <v>726.38</v>
-      </c>
+      <c r="A92" s="3" t="n"/>
+      <c r="B92" s="3" t="n"/>
+      <c r="C92" s="3" t="n"/>
+      <c r="D92" s="3" t="n"/>
+      <c r="E92" s="2" t="n"/>
+      <c r="F92" s="2" t="n"/>
+      <c r="G92" s="10" t="n"/>
+      <c r="H92" s="11" t="n"/>
+      <c r="I92" s="5" t="n"/>
       <c r="J92" s="2" t="n"/>
       <c r="K92" s="10" t="n"/>
       <c r="L92" s="11" t="n"/>
@@ -5256,45 +4634,15 @@
       <c r="T92" s="7" t="n"/>
     </row>
     <row r="93">
-      <c r="A93" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B93" s="3" t="inlineStr">
-        <is>
-          <t>Picasso Grey</t>
-        </is>
-      </c>
-      <c r="C93" s="3" t="inlineStr">
-        <is>
-          <t>Filled&amp;Polished</t>
-        </is>
-      </c>
-      <c r="D93" s="3" t="inlineStr">
-        <is>
-          <t>40,6</t>
-        </is>
-      </c>
-      <c r="E93" s="2" t="inlineStr">
-        <is>
-          <t>61,0</t>
-        </is>
-      </c>
-      <c r="F93" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G93" s="10" t="n">
-        <v>270.02</v>
-      </c>
-      <c r="H93" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" s="5" t="n">
-        <v>270.02</v>
-      </c>
+      <c r="A93" s="3" t="n"/>
+      <c r="B93" s="3" t="n"/>
+      <c r="C93" s="3" t="n"/>
+      <c r="D93" s="3" t="n"/>
+      <c r="E93" s="2" t="n"/>
+      <c r="F93" s="2" t="n"/>
+      <c r="G93" s="10" t="n"/>
+      <c r="H93" s="11" t="n"/>
+      <c r="I93" s="5" t="n"/>
       <c r="J93" s="2" t="n"/>
       <c r="K93" s="10" t="n"/>
       <c r="L93" s="11" t="n"/>
@@ -5308,45 +4656,15 @@
       <c r="T93" s="7" t="n"/>
     </row>
     <row r="94">
-      <c r="A94" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B94" s="3" t="inlineStr">
-        <is>
-          <t>Classic Vein Cut</t>
-        </is>
-      </c>
-      <c r="C94" s="3" t="inlineStr">
-        <is>
-          <t>Filled&amp;Polished</t>
-        </is>
-      </c>
-      <c r="D94" s="3" t="inlineStr">
-        <is>
-          <t>40,6</t>
-        </is>
-      </c>
-      <c r="E94" s="2" t="inlineStr">
-        <is>
-          <t>61,0</t>
-        </is>
-      </c>
-      <c r="F94" s="2" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="G94" s="10" t="n">
-        <v>179.26</v>
-      </c>
-      <c r="H94" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" s="5" t="n">
-        <v>179.26</v>
-      </c>
+      <c r="A94" s="3" t="n"/>
+      <c r="B94" s="3" t="n"/>
+      <c r="C94" s="3" t="n"/>
+      <c r="D94" s="3" t="n"/>
+      <c r="E94" s="2" t="n"/>
+      <c r="F94" s="2" t="n"/>
+      <c r="G94" s="10" t="n"/>
+      <c r="H94" s="11" t="n"/>
+      <c r="I94" s="5" t="n"/>
       <c r="J94" s="2" t="n"/>
       <c r="K94" s="10" t="n"/>
       <c r="L94" s="11" t="n"/>
@@ -5360,45 +4678,15 @@
       <c r="T94" s="7" t="n"/>
     </row>
     <row r="95">
-      <c r="A95" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B95" s="3" t="inlineStr">
-        <is>
-          <t>Classic Mina</t>
-        </is>
-      </c>
-      <c r="C95" s="3" t="inlineStr">
-        <is>
-          <t>Filled&amp;Polished</t>
-        </is>
-      </c>
-      <c r="D95" s="3" t="inlineStr">
-        <is>
-          <t>40,6</t>
-        </is>
-      </c>
-      <c r="E95" s="2" t="inlineStr">
-        <is>
-          <t>61,0</t>
-        </is>
-      </c>
-      <c r="F95" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G95" s="10" t="n">
-        <v>879.97</v>
-      </c>
-      <c r="H95" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" s="5" t="n">
-        <v>879.97</v>
-      </c>
+      <c r="A95" s="3" t="n"/>
+      <c r="B95" s="3" t="n"/>
+      <c r="C95" s="3" t="n"/>
+      <c r="D95" s="3" t="n"/>
+      <c r="E95" s="2" t="n"/>
+      <c r="F95" s="2" t="n"/>
+      <c r="G95" s="10" t="n"/>
+      <c r="H95" s="11" t="n"/>
+      <c r="I95" s="5" t="n"/>
       <c r="J95" s="2" t="n"/>
       <c r="K95" s="10" t="n"/>
       <c r="L95" s="11" t="n"/>
@@ -5412,45 +4700,15 @@
       <c r="T95" s="7" t="n"/>
     </row>
     <row r="96">
-      <c r="A96" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B96" s="3" t="inlineStr">
-        <is>
-          <t>Volcano</t>
-        </is>
-      </c>
-      <c r="C96" s="3" t="inlineStr">
-        <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
-        </is>
-      </c>
-      <c r="D96" s="3" t="inlineStr">
-        <is>
-          <t>40,6</t>
-        </is>
-      </c>
-      <c r="E96" s="2" t="inlineStr">
-        <is>
-          <t>61,0</t>
-        </is>
-      </c>
-      <c r="F96" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G96" s="10" t="n">
-        <v>600</v>
-      </c>
-      <c r="H96" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" s="5" t="n">
-        <v>600</v>
-      </c>
+      <c r="A96" s="3" t="n"/>
+      <c r="B96" s="3" t="n"/>
+      <c r="C96" s="3" t="n"/>
+      <c r="D96" s="3" t="n"/>
+      <c r="E96" s="2" t="n"/>
+      <c r="F96" s="2" t="n"/>
+      <c r="G96" s="10" t="n"/>
+      <c r="H96" s="11" t="n"/>
+      <c r="I96" s="5" t="n"/>
       <c r="J96" s="2" t="n"/>
       <c r="K96" s="10" t="n"/>
       <c r="L96" s="11" t="n"/>
@@ -5464,45 +4722,15 @@
       <c r="T96" s="7" t="n"/>
     </row>
     <row r="97">
-      <c r="A97" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B97" s="3" t="inlineStr">
-        <is>
-          <t>Romano</t>
-        </is>
-      </c>
-      <c r="C97" s="3" t="inlineStr">
-        <is>
-          <t>Filled&amp;Honed</t>
-        </is>
-      </c>
-      <c r="D97" s="3" t="inlineStr">
-        <is>
-          <t>40,6</t>
-        </is>
-      </c>
-      <c r="E97" s="2" t="inlineStr">
-        <is>
-          <t>61,0</t>
-        </is>
-      </c>
-      <c r="F97" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G97" s="10" t="n">
-        <v>126.3</v>
-      </c>
-      <c r="H97" s="11" t="n">
-        <v>89.16</v>
-      </c>
-      <c r="I97" s="5" t="n">
-        <v>37.14</v>
-      </c>
+      <c r="A97" s="3" t="n"/>
+      <c r="B97" s="3" t="n"/>
+      <c r="C97" s="3" t="n"/>
+      <c r="D97" s="3" t="n"/>
+      <c r="E97" s="2" t="n"/>
+      <c r="F97" s="2" t="n"/>
+      <c r="G97" s="10" t="n"/>
+      <c r="H97" s="11" t="n"/>
+      <c r="I97" s="5" t="n"/>
       <c r="J97" s="2" t="n"/>
       <c r="K97" s="10" t="n"/>
       <c r="L97" s="11" t="n"/>
@@ -5516,45 +4744,15 @@
       <c r="T97" s="7" t="n"/>
     </row>
     <row r="98">
-      <c r="A98" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B98" s="3" t="inlineStr">
-        <is>
-          <t>Gold</t>
-        </is>
-      </c>
-      <c r="C98" s="3" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
-        </is>
-      </c>
-      <c r="D98" s="3" t="inlineStr">
-        <is>
-          <t>40,6</t>
-        </is>
-      </c>
-      <c r="E98" s="2" t="inlineStr">
-        <is>
-          <t>61,0</t>
-        </is>
-      </c>
-      <c r="F98" s="2" t="inlineStr">
-        <is>
-          <t>3,2</t>
-        </is>
-      </c>
-      <c r="G98" s="10" t="n">
-        <v>98.09999999999999</v>
-      </c>
-      <c r="H98" s="11" t="n">
-        <v>98.09999999999999</v>
-      </c>
-      <c r="I98" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="A98" s="3" t="n"/>
+      <c r="B98" s="3" t="n"/>
+      <c r="C98" s="3" t="n"/>
+      <c r="D98" s="3" t="n"/>
+      <c r="E98" s="2" t="n"/>
+      <c r="F98" s="2" t="n"/>
+      <c r="G98" s="10" t="n"/>
+      <c r="H98" s="11" t="n"/>
+      <c r="I98" s="5" t="n"/>
       <c r="J98" s="2" t="n"/>
       <c r="K98" s="10" t="n"/>
       <c r="L98" s="11" t="n"/>
@@ -5568,45 +4766,15 @@
       <c r="T98" s="7" t="n"/>
     </row>
     <row r="99">
-      <c r="A99" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B99" s="3" t="inlineStr">
-        <is>
-          <t>Picasso Ivory</t>
-        </is>
-      </c>
-      <c r="C99" s="3" t="inlineStr">
-        <is>
-          <t>Filled&amp;Honed</t>
-        </is>
-      </c>
-      <c r="D99" s="3" t="inlineStr">
-        <is>
-          <t>40,6</t>
-        </is>
-      </c>
-      <c r="E99" s="2" t="inlineStr">
-        <is>
-          <t>61,0</t>
-        </is>
-      </c>
-      <c r="F99" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G99" s="10" t="n">
-        <v>76.08</v>
-      </c>
-      <c r="H99" s="11" t="n">
-        <v>26.25</v>
-      </c>
-      <c r="I99" s="5" t="n">
-        <v>49.83</v>
-      </c>
+      <c r="A99" s="3" t="n"/>
+      <c r="B99" s="3" t="n"/>
+      <c r="C99" s="3" t="n"/>
+      <c r="D99" s="3" t="n"/>
+      <c r="E99" s="2" t="n"/>
+      <c r="F99" s="2" t="n"/>
+      <c r="G99" s="10" t="n"/>
+      <c r="H99" s="11" t="n"/>
+      <c r="I99" s="5" t="n"/>
       <c r="J99" s="2" t="n"/>
       <c r="K99" s="10" t="n"/>
       <c r="L99" s="11" t="n"/>
@@ -5620,45 +4788,15 @@
       <c r="T99" s="7" t="n"/>
     </row>
     <row r="100">
-      <c r="A100" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B100" s="3" t="inlineStr">
-        <is>
-          <t>Silver Grey</t>
-        </is>
-      </c>
-      <c r="C100" s="3" t="inlineStr">
-        <is>
-          <t>Filled&amp;Honed</t>
-        </is>
-      </c>
-      <c r="D100" s="3" t="inlineStr">
-        <is>
-          <t>40,6</t>
-        </is>
-      </c>
-      <c r="E100" s="2" t="inlineStr">
-        <is>
-          <t>61,0</t>
-        </is>
-      </c>
-      <c r="F100" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G100" s="10" t="n">
-        <v>220.67</v>
-      </c>
-      <c r="H100" s="11" t="n">
-        <v>220.67</v>
-      </c>
-      <c r="I100" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="A100" s="3" t="n"/>
+      <c r="B100" s="3" t="n"/>
+      <c r="C100" s="3" t="n"/>
+      <c r="D100" s="3" t="n"/>
+      <c r="E100" s="2" t="n"/>
+      <c r="F100" s="2" t="n"/>
+      <c r="G100" s="10" t="n"/>
+      <c r="H100" s="11" t="n"/>
+      <c r="I100" s="5" t="n"/>
       <c r="J100" s="2" t="n"/>
       <c r="K100" s="10" t="n"/>
       <c r="L100" s="11" t="n"/>
@@ -5672,45 +4810,15 @@
       <c r="T100" s="7" t="n"/>
     </row>
     <row r="101">
-      <c r="A101" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B101" s="3" t="inlineStr">
-        <is>
-          <t>Silver Grey</t>
-        </is>
-      </c>
-      <c r="C101" s="3" t="inlineStr">
-        <is>
-          <t>Filled&amp;Semi Polished</t>
-        </is>
-      </c>
-      <c r="D101" s="3" t="inlineStr">
-        <is>
-          <t>40,6</t>
-        </is>
-      </c>
-      <c r="E101" s="2" t="inlineStr">
-        <is>
-          <t>61,0</t>
-        </is>
-      </c>
-      <c r="F101" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G101" s="10" t="n">
-        <v>965.62</v>
-      </c>
-      <c r="H101" s="11" t="n">
-        <v>297.19</v>
-      </c>
-      <c r="I101" s="5" t="n">
-        <v>668.4299999999999</v>
-      </c>
+      <c r="A101" s="3" t="n"/>
+      <c r="B101" s="3" t="n"/>
+      <c r="C101" s="3" t="n"/>
+      <c r="D101" s="3" t="n"/>
+      <c r="E101" s="2" t="n"/>
+      <c r="F101" s="2" t="n"/>
+      <c r="G101" s="10" t="n"/>
+      <c r="H101" s="11" t="n"/>
+      <c r="I101" s="5" t="n"/>
       <c r="J101" s="2" t="n"/>
       <c r="K101" s="10" t="n"/>
       <c r="L101" s="11" t="n"/>
@@ -5724,45 +4832,15 @@
       <c r="T101" s="7" t="n"/>
     </row>
     <row r="102">
-      <c r="A102" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B102" s="3" t="inlineStr">
-        <is>
-          <t>Mina Rustic</t>
-        </is>
-      </c>
-      <c r="C102" s="3" t="inlineStr">
-        <is>
-          <t>Filled&amp;Polished</t>
-        </is>
-      </c>
-      <c r="D102" s="3" t="inlineStr">
-        <is>
-          <t>40,6</t>
-        </is>
-      </c>
-      <c r="E102" s="2" t="inlineStr">
-        <is>
-          <t>61,0</t>
-        </is>
-      </c>
-      <c r="F102" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G102" s="10" t="n">
-        <v>1890.45</v>
-      </c>
-      <c r="H102" s="11" t="n">
-        <v>42.1</v>
-      </c>
-      <c r="I102" s="5" t="n">
-        <v>1848.35</v>
-      </c>
+      <c r="A102" s="3" t="n"/>
+      <c r="B102" s="3" t="n"/>
+      <c r="C102" s="3" t="n"/>
+      <c r="D102" s="3" t="n"/>
+      <c r="E102" s="2" t="n"/>
+      <c r="F102" s="2" t="n"/>
+      <c r="G102" s="10" t="n"/>
+      <c r="H102" s="11" t="n"/>
+      <c r="I102" s="5" t="n"/>
       <c r="J102" s="2" t="n"/>
       <c r="K102" s="10" t="n"/>
       <c r="L102" s="11" t="n"/>
@@ -5776,45 +4854,15 @@
       <c r="T102" s="7" t="n"/>
     </row>
     <row r="103">
-      <c r="A103" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B103" s="3" t="inlineStr">
-        <is>
-          <t>Classic Mina</t>
-        </is>
-      </c>
-      <c r="C103" s="3" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
-        </is>
-      </c>
-      <c r="D103" s="3" t="inlineStr">
-        <is>
-          <t>40,6</t>
-        </is>
-      </c>
-      <c r="E103" s="2" t="inlineStr">
-        <is>
-          <t>61,0</t>
-        </is>
-      </c>
-      <c r="F103" s="2" t="inlineStr">
-        <is>
-          <t>3,0</t>
-        </is>
-      </c>
-      <c r="G103" s="10" t="n">
-        <v>208.03</v>
-      </c>
-      <c r="H103" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" s="5" t="n">
-        <v>208.03</v>
-      </c>
+      <c r="A103" s="3" t="n"/>
+      <c r="B103" s="3" t="n"/>
+      <c r="C103" s="3" t="n"/>
+      <c r="D103" s="3" t="n"/>
+      <c r="E103" s="2" t="n"/>
+      <c r="F103" s="2" t="n"/>
+      <c r="G103" s="10" t="n"/>
+      <c r="H103" s="11" t="n"/>
+      <c r="I103" s="5" t="n"/>
       <c r="J103" s="2" t="n"/>
       <c r="K103" s="10" t="n"/>
       <c r="L103" s="11" t="n"/>
@@ -5828,45 +4876,15 @@
       <c r="T103" s="7" t="n"/>
     </row>
     <row r="104">
-      <c r="A104" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Sills</t>
-        </is>
-      </c>
-      <c r="B104" s="3" t="inlineStr">
-        <is>
-          <t>Noche Vein Cut</t>
-        </is>
-      </c>
-      <c r="C104" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Filled&amp;Honed&amp;Bullnose </t>
-        </is>
-      </c>
-      <c r="D104" s="3" t="inlineStr">
-        <is>
-          <t>42,0</t>
-        </is>
-      </c>
-      <c r="E104" s="2" t="inlineStr">
-        <is>
-          <t>100,0</t>
-        </is>
-      </c>
-      <c r="F104" s="2" t="inlineStr">
-        <is>
-          <t>3,0</t>
-        </is>
-      </c>
-      <c r="G104" s="10" t="n">
-        <v>7.56</v>
-      </c>
-      <c r="H104" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" s="5" t="n">
-        <v>7.56</v>
-      </c>
+      <c r="A104" s="3" t="n"/>
+      <c r="B104" s="3" t="n"/>
+      <c r="C104" s="3" t="n"/>
+      <c r="D104" s="3" t="n"/>
+      <c r="E104" s="2" t="n"/>
+      <c r="F104" s="2" t="n"/>
+      <c r="G104" s="10" t="n"/>
+      <c r="H104" s="11" t="n"/>
+      <c r="I104" s="5" t="n"/>
       <c r="J104" s="2" t="n"/>
       <c r="K104" s="10" t="n"/>
       <c r="L104" s="11" t="n"/>
@@ -5880,45 +4898,15 @@
       <c r="T104" s="7" t="n"/>
     </row>
     <row r="105">
-      <c r="A105" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Sink</t>
-        </is>
-      </c>
-      <c r="B105" s="3" t="inlineStr">
-        <is>
-          <t>Vessel Sink 3</t>
-        </is>
-      </c>
-      <c r="C105" s="3" t="inlineStr">
-        <is>
-          <t>Various&amp;Various</t>
-        </is>
-      </c>
-      <c r="D105" s="3" t="inlineStr">
-        <is>
-          <t>42,0</t>
-        </is>
-      </c>
-      <c r="E105" s="2" t="inlineStr">
-        <is>
-          <t>42,0</t>
-        </is>
-      </c>
-      <c r="F105" s="2" t="inlineStr">
-        <is>
-          <t>15,0</t>
-        </is>
-      </c>
-      <c r="G105" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="H105" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" s="5" t="n">
-        <v>2</v>
-      </c>
+      <c r="A105" s="3" t="n"/>
+      <c r="B105" s="3" t="n"/>
+      <c r="C105" s="3" t="n"/>
+      <c r="D105" s="3" t="n"/>
+      <c r="E105" s="2" t="n"/>
+      <c r="F105" s="2" t="n"/>
+      <c r="G105" s="10" t="n"/>
+      <c r="H105" s="11" t="n"/>
+      <c r="I105" s="5" t="n"/>
       <c r="J105" s="2" t="n"/>
       <c r="K105" s="10" t="n"/>
       <c r="L105" s="11" t="n"/>
@@ -5932,45 +4920,15 @@
       <c r="T105" s="7" t="n"/>
     </row>
     <row r="106">
-      <c r="A106" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B106" s="3" t="inlineStr">
-        <is>
-          <t>Silver Grey</t>
-        </is>
-      </c>
-      <c r="C106" s="3" t="inlineStr">
-        <is>
-          <t>Filled&amp;Semi Polished</t>
-        </is>
-      </c>
-      <c r="D106" s="3" t="inlineStr">
-        <is>
-          <t>43,0</t>
-        </is>
-      </c>
-      <c r="E106" s="2" t="inlineStr">
-        <is>
-          <t>110,0</t>
-        </is>
-      </c>
-      <c r="F106" s="2" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="G106" s="10" t="n">
-        <v>45</v>
-      </c>
-      <c r="H106" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" s="5" t="n">
-        <v>45</v>
-      </c>
+      <c r="A106" s="3" t="n"/>
+      <c r="B106" s="3" t="n"/>
+      <c r="C106" s="3" t="n"/>
+      <c r="D106" s="3" t="n"/>
+      <c r="E106" s="2" t="n"/>
+      <c r="F106" s="2" t="n"/>
+      <c r="G106" s="10" t="n"/>
+      <c r="H106" s="11" t="n"/>
+      <c r="I106" s="5" t="n"/>
       <c r="J106" s="2" t="n"/>
       <c r="K106" s="10" t="n"/>
       <c r="L106" s="11" t="n"/>
@@ -5984,45 +4942,15 @@
       <c r="T106" s="7" t="n"/>
     </row>
     <row r="107">
-      <c r="A107" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B107" s="3" t="inlineStr">
-        <is>
-          <t>Mina Rustic</t>
-        </is>
-      </c>
-      <c r="C107" s="3" t="inlineStr">
-        <is>
-          <t>Filled&amp;Honed</t>
-        </is>
-      </c>
-      <c r="D107" s="3" t="inlineStr">
-        <is>
-          <t>45,7</t>
-        </is>
-      </c>
-      <c r="E107" s="2" t="inlineStr">
-        <is>
-          <t>45,7</t>
-        </is>
-      </c>
-      <c r="F107" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G107" s="10" t="n">
-        <v>800.1</v>
-      </c>
-      <c r="H107" s="11" t="n">
-        <v>440.65</v>
-      </c>
-      <c r="I107" s="5" t="n">
-        <v>359.45</v>
-      </c>
+      <c r="A107" s="3" t="n"/>
+      <c r="B107" s="3" t="n"/>
+      <c r="C107" s="3" t="n"/>
+      <c r="D107" s="3" t="n"/>
+      <c r="E107" s="2" t="n"/>
+      <c r="F107" s="2" t="n"/>
+      <c r="G107" s="10" t="n"/>
+      <c r="H107" s="11" t="n"/>
+      <c r="I107" s="5" t="n"/>
       <c r="J107" s="2" t="n"/>
       <c r="K107" s="10" t="n"/>
       <c r="L107" s="11" t="n"/>
@@ -6036,45 +4964,15 @@
       <c r="T107" s="7" t="n"/>
     </row>
     <row r="108">
-      <c r="A108" s="3" t="inlineStr">
-        <is>
-          <t>Marble Countertop</t>
-        </is>
-      </c>
-      <c r="B108" s="3" t="inlineStr">
-        <is>
-          <t>Tundra Grey</t>
-        </is>
-      </c>
-      <c r="C108" s="3" t="inlineStr">
-        <is>
-          <t>Polished&amp;Bullnose</t>
-        </is>
-      </c>
-      <c r="D108" s="3" t="inlineStr">
-        <is>
-          <t>49,0</t>
-        </is>
-      </c>
-      <c r="E108" s="2" t="inlineStr">
-        <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="F108" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">5,0 </t>
-        </is>
-      </c>
-      <c r="G108" s="10" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="H108" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" s="5" t="n">
-        <v>1.57</v>
-      </c>
+      <c r="A108" s="3" t="n"/>
+      <c r="B108" s="3" t="n"/>
+      <c r="C108" s="3" t="n"/>
+      <c r="D108" s="3" t="n"/>
+      <c r="E108" s="2" t="n"/>
+      <c r="F108" s="2" t="n"/>
+      <c r="G108" s="10" t="n"/>
+      <c r="H108" s="11" t="n"/>
+      <c r="I108" s="5" t="n"/>
       <c r="J108" s="2" t="n"/>
       <c r="K108" s="10" t="n"/>
       <c r="L108" s="11" t="n"/>
@@ -6088,45 +4986,15 @@
       <c r="T108" s="7" t="n"/>
     </row>
     <row r="109">
-      <c r="A109" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Mosaic</t>
-        </is>
-      </c>
-      <c r="B109" s="3" t="inlineStr">
-        <is>
-          <t>Silver Grey</t>
-        </is>
-      </c>
-      <c r="C109" s="3" t="inlineStr">
-        <is>
-          <t>Tumbled</t>
-        </is>
-      </c>
-      <c r="D109" s="3" t="inlineStr">
-        <is>
-          <t>5,0</t>
-        </is>
-      </c>
-      <c r="E109" s="2" t="inlineStr">
-        <is>
-          <t>5,0</t>
-        </is>
-      </c>
-      <c r="F109" s="2" t="inlineStr">
-        <is>
-          <t>1,0</t>
-        </is>
-      </c>
-      <c r="G109" s="10" t="n">
-        <v>133.92</v>
-      </c>
-      <c r="H109" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" s="5" t="n">
-        <v>133.92</v>
-      </c>
+      <c r="A109" s="3" t="n"/>
+      <c r="B109" s="3" t="n"/>
+      <c r="C109" s="3" t="n"/>
+      <c r="D109" s="3" t="n"/>
+      <c r="E109" s="2" t="n"/>
+      <c r="F109" s="2" t="n"/>
+      <c r="G109" s="10" t="n"/>
+      <c r="H109" s="11" t="n"/>
+      <c r="I109" s="5" t="n"/>
       <c r="J109" s="2" t="n"/>
       <c r="K109" s="10" t="n"/>
       <c r="L109" s="11" t="n"/>
@@ -6140,45 +5008,15 @@
       <c r="T109" s="7" t="n"/>
     </row>
     <row r="110">
-      <c r="A110" s="3" t="inlineStr">
-        <is>
-          <t>Marble Tiles</t>
-        </is>
-      </c>
-      <c r="B110" s="3" t="inlineStr">
-        <is>
-          <t>Rangoon Beige</t>
-        </is>
-      </c>
-      <c r="C110" s="3" t="inlineStr">
-        <is>
-          <t>Polished</t>
-        </is>
-      </c>
-      <c r="D110" s="3" t="inlineStr">
-        <is>
-          <t>5,0</t>
-        </is>
-      </c>
-      <c r="E110" s="2" t="inlineStr">
-        <is>
-          <t>5,0</t>
-        </is>
-      </c>
-      <c r="F110" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G110" s="10" t="n">
-        <v>200</v>
-      </c>
-      <c r="H110" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" s="5" t="n">
-        <v>200</v>
-      </c>
+      <c r="A110" s="3" t="n"/>
+      <c r="B110" s="3" t="n"/>
+      <c r="C110" s="3" t="n"/>
+      <c r="D110" s="3" t="n"/>
+      <c r="E110" s="2" t="n"/>
+      <c r="F110" s="2" t="n"/>
+      <c r="G110" s="10" t="n"/>
+      <c r="H110" s="11" t="n"/>
+      <c r="I110" s="5" t="n"/>
       <c r="J110" s="2" t="n"/>
       <c r="K110" s="10" t="n"/>
       <c r="L110" s="11" t="n"/>
@@ -6192,45 +5030,15 @@
       <c r="T110" s="7" t="n"/>
     </row>
     <row r="111">
-      <c r="A111" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Mosaic</t>
-        </is>
-      </c>
-      <c r="B111" s="3" t="inlineStr">
-        <is>
-          <t>Silver Grey</t>
-        </is>
-      </c>
-      <c r="C111" s="3" t="inlineStr">
-        <is>
-          <t>Split face</t>
-        </is>
-      </c>
-      <c r="D111" s="3" t="inlineStr">
-        <is>
-          <t>5,0</t>
-        </is>
-      </c>
-      <c r="E111" s="2" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F111" s="2" t="inlineStr">
-        <is>
-          <t>1,5</t>
-        </is>
-      </c>
-      <c r="G111" s="10" t="n">
-        <v>120</v>
-      </c>
-      <c r="H111" s="11" t="n">
-        <v>160</v>
-      </c>
-      <c r="I111" s="5" t="n">
-        <v>-40</v>
-      </c>
+      <c r="A111" s="3" t="n"/>
+      <c r="B111" s="3" t="n"/>
+      <c r="C111" s="3" t="n"/>
+      <c r="D111" s="3" t="n"/>
+      <c r="E111" s="2" t="n"/>
+      <c r="F111" s="2" t="n"/>
+      <c r="G111" s="10" t="n"/>
+      <c r="H111" s="11" t="n"/>
+      <c r="I111" s="5" t="n"/>
       <c r="J111" s="2" t="n"/>
       <c r="K111" s="10" t="n"/>
       <c r="L111" s="11" t="n"/>
@@ -6244,41 +5052,15 @@
       <c r="T111" s="7" t="n"/>
     </row>
     <row r="112">
-      <c r="A112" s="3" t="inlineStr">
-        <is>
-          <t>Marble Mosaic</t>
-        </is>
-      </c>
-      <c r="B112" s="3" t="inlineStr">
-        <is>
-          <t>Bianco Ibiza</t>
-        </is>
-      </c>
-      <c r="C112" s="3" t="inlineStr">
-        <is>
-          <t>Polished</t>
-        </is>
-      </c>
-      <c r="D112" s="3" t="inlineStr">
-        <is>
-          <t>5,0</t>
-        </is>
-      </c>
-      <c r="E112" s="2" t="inlineStr">
-        <is>
-          <t>10,0</t>
-        </is>
-      </c>
-      <c r="F112" s="2" t="inlineStr"/>
-      <c r="G112" s="10" t="n">
-        <v>163.01</v>
-      </c>
-      <c r="H112" s="11" t="n">
-        <v>163.26</v>
-      </c>
-      <c r="I112" s="5" t="n">
-        <v>-0.25</v>
-      </c>
+      <c r="A112" s="3" t="n"/>
+      <c r="B112" s="3" t="n"/>
+      <c r="C112" s="3" t="n"/>
+      <c r="D112" s="3" t="n"/>
+      <c r="E112" s="2" t="n"/>
+      <c r="F112" s="2" t="n"/>
+      <c r="G112" s="10" t="n"/>
+      <c r="H112" s="11" t="n"/>
+      <c r="I112" s="5" t="n"/>
       <c r="J112" s="2" t="n"/>
       <c r="K112" s="10" t="n"/>
       <c r="L112" s="11" t="n"/>
@@ -6292,45 +5074,15 @@
       <c r="T112" s="7" t="n"/>
     </row>
     <row r="113">
-      <c r="A113" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Mosaic</t>
-        </is>
-      </c>
-      <c r="B113" s="3" t="inlineStr">
-        <is>
-          <t>Silver Grey</t>
-        </is>
-      </c>
-      <c r="C113" s="3" t="inlineStr">
-        <is>
-          <t>Split face</t>
-        </is>
-      </c>
-      <c r="D113" s="3" t="inlineStr">
-        <is>
-          <t>5,0</t>
-        </is>
-      </c>
-      <c r="E113" s="2" t="inlineStr">
-        <is>
-          <t>10,0</t>
-        </is>
-      </c>
-      <c r="F113" s="2" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="G113" s="10" t="n">
-        <v>100.44</v>
-      </c>
-      <c r="H113" s="11" t="n">
-        <v>100.44</v>
-      </c>
-      <c r="I113" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="A113" s="3" t="n"/>
+      <c r="B113" s="3" t="n"/>
+      <c r="C113" s="3" t="n"/>
+      <c r="D113" s="3" t="n"/>
+      <c r="E113" s="2" t="n"/>
+      <c r="F113" s="2" t="n"/>
+      <c r="G113" s="10" t="n"/>
+      <c r="H113" s="11" t="n"/>
+      <c r="I113" s="5" t="n"/>
       <c r="J113" s="2" t="n"/>
       <c r="K113" s="10" t="n"/>
       <c r="L113" s="11" t="n"/>
@@ -6344,41 +5096,15 @@
       <c r="T113" s="7" t="n"/>
     </row>
     <row r="114">
-      <c r="A114" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Mosaic</t>
-        </is>
-      </c>
-      <c r="B114" s="3" t="inlineStr">
-        <is>
-          <t>Silver Grey</t>
-        </is>
-      </c>
-      <c r="C114" s="3" t="inlineStr">
-        <is>
-          <t>Polished</t>
-        </is>
-      </c>
-      <c r="D114" s="3" t="inlineStr">
-        <is>
-          <t>5,0</t>
-        </is>
-      </c>
-      <c r="E114" s="2" t="inlineStr">
-        <is>
-          <t>15,0</t>
-        </is>
-      </c>
-      <c r="F114" s="2" t="inlineStr"/>
-      <c r="G114" s="10" t="n">
-        <v>230</v>
-      </c>
-      <c r="H114" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" s="5" t="n">
-        <v>230</v>
-      </c>
+      <c r="A114" s="3" t="n"/>
+      <c r="B114" s="3" t="n"/>
+      <c r="C114" s="3" t="n"/>
+      <c r="D114" s="3" t="n"/>
+      <c r="E114" s="2" t="n"/>
+      <c r="F114" s="2" t="n"/>
+      <c r="G114" s="10" t="n"/>
+      <c r="H114" s="11" t="n"/>
+      <c r="I114" s="5" t="n"/>
       <c r="J114" s="2" t="n"/>
       <c r="K114" s="10" t="n"/>
       <c r="L114" s="11" t="n"/>
@@ -6392,45 +5118,15 @@
       <c r="T114" s="7" t="n"/>
     </row>
     <row r="115">
-      <c r="A115" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Mosaic</t>
-        </is>
-      </c>
-      <c r="B115" s="3" t="inlineStr">
-        <is>
-          <t>Scabos</t>
-        </is>
-      </c>
-      <c r="C115" s="3" t="inlineStr">
-        <is>
-          <t>Split face</t>
-        </is>
-      </c>
-      <c r="D115" s="3" t="inlineStr">
-        <is>
-          <t>5,0</t>
-        </is>
-      </c>
-      <c r="E115" s="2" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F115" s="2" t="inlineStr">
-        <is>
-          <t>1,5</t>
-        </is>
-      </c>
-      <c r="G115" s="10" t="n">
-        <v>80</v>
-      </c>
-      <c r="H115" s="11" t="n">
-        <v>80</v>
-      </c>
-      <c r="I115" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="A115" s="3" t="n"/>
+      <c r="B115" s="3" t="n"/>
+      <c r="C115" s="3" t="n"/>
+      <c r="D115" s="3" t="n"/>
+      <c r="E115" s="2" t="n"/>
+      <c r="F115" s="2" t="n"/>
+      <c r="G115" s="10" t="n"/>
+      <c r="H115" s="11" t="n"/>
+      <c r="I115" s="5" t="n"/>
       <c r="J115" s="2" t="n"/>
       <c r="K115" s="10" t="n"/>
       <c r="L115" s="11" t="n"/>
@@ -6444,41 +5140,15 @@
       <c r="T115" s="7" t="n"/>
     </row>
     <row r="116">
-      <c r="A116" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B116" s="3" t="inlineStr">
-        <is>
-          <t>Classic Vein Cut</t>
-        </is>
-      </c>
-      <c r="C116" s="3" t="inlineStr">
-        <is>
-          <t>Filled&amp;Polished</t>
-        </is>
-      </c>
-      <c r="D116" s="3" t="inlineStr">
-        <is>
-          <t>5,0</t>
-        </is>
-      </c>
-      <c r="E116" s="2" t="inlineStr">
-        <is>
-          <t>15,0</t>
-        </is>
-      </c>
-      <c r="F116" s="2" t="inlineStr"/>
-      <c r="G116" s="10" t="n">
-        <v>30.05</v>
-      </c>
-      <c r="H116" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" s="5" t="n">
-        <v>30.05</v>
-      </c>
+      <c r="A116" s="3" t="n"/>
+      <c r="B116" s="3" t="n"/>
+      <c r="C116" s="3" t="n"/>
+      <c r="D116" s="3" t="n"/>
+      <c r="E116" s="2" t="n"/>
+      <c r="F116" s="2" t="n"/>
+      <c r="G116" s="10" t="n"/>
+      <c r="H116" s="11" t="n"/>
+      <c r="I116" s="5" t="n"/>
       <c r="J116" s="2" t="n"/>
       <c r="K116" s="10" t="n"/>
       <c r="L116" s="11" t="n"/>
@@ -6492,45 +5162,15 @@
       <c r="T116" s="7" t="n"/>
     </row>
     <row r="117">
-      <c r="A117" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Mosaic</t>
-        </is>
-      </c>
-      <c r="B117" s="3" t="inlineStr">
-        <is>
-          <t>Classic Mina</t>
-        </is>
-      </c>
-      <c r="C117" s="3" t="inlineStr">
-        <is>
-          <t>Filled&amp;Polished</t>
-        </is>
-      </c>
-      <c r="D117" s="3" t="inlineStr">
-        <is>
-          <t>5,0</t>
-        </is>
-      </c>
-      <c r="E117" s="2" t="inlineStr">
-        <is>
-          <t>15,0</t>
-        </is>
-      </c>
-      <c r="F117" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G117" s="10" t="n">
-        <v>150.05</v>
-      </c>
-      <c r="H117" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" s="5" t="n">
-        <v>150.05</v>
-      </c>
+      <c r="A117" s="3" t="n"/>
+      <c r="B117" s="3" t="n"/>
+      <c r="C117" s="3" t="n"/>
+      <c r="D117" s="3" t="n"/>
+      <c r="E117" s="2" t="n"/>
+      <c r="F117" s="2" t="n"/>
+      <c r="G117" s="10" t="n"/>
+      <c r="H117" s="11" t="n"/>
+      <c r="I117" s="5" t="n"/>
       <c r="J117" s="2" t="n"/>
       <c r="K117" s="10" t="n"/>
       <c r="L117" s="11" t="n"/>
@@ -6544,45 +5184,15 @@
       <c r="T117" s="7" t="n"/>
     </row>
     <row r="118">
-      <c r="A118" s="3" t="inlineStr">
-        <is>
-          <t>Marble Tiles</t>
-        </is>
-      </c>
-      <c r="B118" s="3" t="inlineStr">
-        <is>
-          <t>Bianco Ibiza</t>
-        </is>
-      </c>
-      <c r="C118" s="3" t="inlineStr">
-        <is>
-          <t>Honed</t>
-        </is>
-      </c>
-      <c r="D118" s="3" t="inlineStr">
-        <is>
-          <t>50,0</t>
-        </is>
-      </c>
-      <c r="E118" s="2" t="inlineStr">
-        <is>
-          <t>50,0</t>
-        </is>
-      </c>
-      <c r="F118" s="2" t="inlineStr">
-        <is>
-          <t>1,0</t>
-        </is>
-      </c>
-      <c r="G118" s="10" t="n">
-        <v>300</v>
-      </c>
-      <c r="H118" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" s="5" t="n">
-        <v>300</v>
-      </c>
+      <c r="A118" s="3" t="n"/>
+      <c r="B118" s="3" t="n"/>
+      <c r="C118" s="3" t="n"/>
+      <c r="D118" s="3" t="n"/>
+      <c r="E118" s="2" t="n"/>
+      <c r="F118" s="2" t="n"/>
+      <c r="G118" s="10" t="n"/>
+      <c r="H118" s="11" t="n"/>
+      <c r="I118" s="5" t="n"/>
       <c r="J118" s="2" t="n"/>
       <c r="K118" s="10" t="n"/>
       <c r="L118" s="11" t="n"/>
@@ -6596,45 +5206,15 @@
       <c r="T118" s="7" t="n"/>
     </row>
     <row r="119">
-      <c r="A119" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B119" s="3" t="inlineStr">
-        <is>
-          <t>Gold</t>
-        </is>
-      </c>
-      <c r="C119" s="3" t="inlineStr">
-        <is>
-          <t>Polished</t>
-        </is>
-      </c>
-      <c r="D119" s="3" t="inlineStr">
-        <is>
-          <t>50,0</t>
-        </is>
-      </c>
-      <c r="E119" s="2" t="inlineStr">
-        <is>
-          <t>100,0</t>
-        </is>
-      </c>
-      <c r="F119" s="2" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="G119" s="10" t="n">
-        <v>200</v>
-      </c>
-      <c r="H119" s="11" t="n">
-        <v>200</v>
-      </c>
-      <c r="I119" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="A119" s="3" t="n"/>
+      <c r="B119" s="3" t="n"/>
+      <c r="C119" s="3" t="n"/>
+      <c r="D119" s="3" t="n"/>
+      <c r="E119" s="2" t="n"/>
+      <c r="F119" s="2" t="n"/>
+      <c r="G119" s="10" t="n"/>
+      <c r="H119" s="11" t="n"/>
+      <c r="I119" s="5" t="n"/>
       <c r="J119" s="2" t="n"/>
       <c r="K119" s="10" t="n"/>
       <c r="L119" s="11" t="n"/>
@@ -6648,45 +5228,15 @@
       <c r="T119" s="7" t="n"/>
     </row>
     <row r="120">
-      <c r="A120" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Table Base</t>
-        </is>
-      </c>
-      <c r="B120" s="3" t="inlineStr">
-        <is>
-          <t>Classic Vein Cut</t>
-        </is>
-      </c>
-      <c r="C120" s="3" t="inlineStr">
-        <is>
-          <t>Split face</t>
-        </is>
-      </c>
-      <c r="D120" s="3" t="inlineStr">
-        <is>
-          <t>50,0</t>
-        </is>
-      </c>
-      <c r="E120" s="2" t="inlineStr">
-        <is>
-          <t>76,0</t>
-        </is>
-      </c>
-      <c r="F120" s="2" t="inlineStr">
-        <is>
-          <t>1,5</t>
-        </is>
-      </c>
-      <c r="G120" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H120" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="A120" s="3" t="n"/>
+      <c r="B120" s="3" t="n"/>
+      <c r="C120" s="3" t="n"/>
+      <c r="D120" s="3" t="n"/>
+      <c r="E120" s="2" t="n"/>
+      <c r="F120" s="2" t="n"/>
+      <c r="G120" s="10" t="n"/>
+      <c r="H120" s="11" t="n"/>
+      <c r="I120" s="5" t="n"/>
       <c r="J120" s="2" t="n"/>
       <c r="K120" s="10" t="n"/>
       <c r="L120" s="11" t="n"/>
@@ -6700,45 +5250,15 @@
       <c r="T120" s="7" t="n"/>
     </row>
     <row r="121">
-      <c r="A121" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B121" s="3" t="inlineStr">
-        <is>
-          <t>Classic Vein Cut</t>
-        </is>
-      </c>
-      <c r="C121" s="3" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Brushed</t>
-        </is>
-      </c>
-      <c r="D121" s="3" t="inlineStr">
-        <is>
-          <t>60,0</t>
-        </is>
-      </c>
-      <c r="E121" s="2" t="inlineStr">
-        <is>
-          <t>120,0</t>
-        </is>
-      </c>
-      <c r="F121" s="2" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="G121" s="10" t="n">
-        <v>72</v>
-      </c>
-      <c r="H121" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" s="5" t="n">
-        <v>72</v>
-      </c>
+      <c r="A121" s="3" t="n"/>
+      <c r="B121" s="3" t="n"/>
+      <c r="C121" s="3" t="n"/>
+      <c r="D121" s="3" t="n"/>
+      <c r="E121" s="2" t="n"/>
+      <c r="F121" s="2" t="n"/>
+      <c r="G121" s="10" t="n"/>
+      <c r="H121" s="11" t="n"/>
+      <c r="I121" s="5" t="n"/>
       <c r="J121" s="2" t="n"/>
       <c r="K121" s="10" t="n"/>
       <c r="L121" s="11" t="n"/>
@@ -6752,45 +5272,15 @@
       <c r="T121" s="7" t="n"/>
     </row>
     <row r="122">
-      <c r="A122" s="3" t="inlineStr">
-        <is>
-          <t>Marble Tiles</t>
-        </is>
-      </c>
-      <c r="B122" s="3" t="inlineStr">
-        <is>
-          <t>Nero Marquina</t>
-        </is>
-      </c>
-      <c r="C122" s="3" t="inlineStr">
-        <is>
-          <t>Polished</t>
-        </is>
-      </c>
-      <c r="D122" s="3" t="inlineStr">
-        <is>
-          <t>60,0</t>
-        </is>
-      </c>
-      <c r="E122" s="2" t="inlineStr">
-        <is>
-          <t>60,0</t>
-        </is>
-      </c>
-      <c r="F122" s="2" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="G122" s="10" t="n">
-        <v>35.28</v>
-      </c>
-      <c r="H122" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" s="5" t="n">
-        <v>35.28</v>
-      </c>
+      <c r="A122" s="3" t="n"/>
+      <c r="B122" s="3" t="n"/>
+      <c r="C122" s="3" t="n"/>
+      <c r="D122" s="3" t="n"/>
+      <c r="E122" s="2" t="n"/>
+      <c r="F122" s="2" t="n"/>
+      <c r="G122" s="10" t="n"/>
+      <c r="H122" s="11" t="n"/>
+      <c r="I122" s="5" t="n"/>
       <c r="J122" s="2" t="n"/>
       <c r="K122" s="10" t="n"/>
       <c r="L122" s="11" t="n"/>
@@ -6804,45 +5294,15 @@
       <c r="T122" s="7" t="n"/>
     </row>
     <row r="123">
-      <c r="A123" s="3" t="inlineStr">
-        <is>
-          <t>Marble Tiles</t>
-        </is>
-      </c>
-      <c r="B123" s="3" t="inlineStr">
-        <is>
-          <t>Vanilla Beige</t>
-        </is>
-      </c>
-      <c r="C123" s="3" t="inlineStr">
-        <is>
-          <t>Polished</t>
-        </is>
-      </c>
-      <c r="D123" s="3" t="inlineStr">
-        <is>
-          <t>60,0</t>
-        </is>
-      </c>
-      <c r="E123" s="2" t="inlineStr">
-        <is>
-          <t>60,0</t>
-        </is>
-      </c>
-      <c r="F123" s="2" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="G123" s="10" t="n">
-        <v>120.24</v>
-      </c>
-      <c r="H123" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" s="5" t="n">
-        <v>120.24</v>
-      </c>
+      <c r="A123" s="3" t="n"/>
+      <c r="B123" s="3" t="n"/>
+      <c r="C123" s="3" t="n"/>
+      <c r="D123" s="3" t="n"/>
+      <c r="E123" s="2" t="n"/>
+      <c r="F123" s="2" t="n"/>
+      <c r="G123" s="10" t="n"/>
+      <c r="H123" s="11" t="n"/>
+      <c r="I123" s="5" t="n"/>
       <c r="J123" s="2" t="n"/>
       <c r="K123" s="10" t="n"/>
       <c r="L123" s="11" t="n"/>
@@ -6856,45 +5316,15 @@
       <c r="T123" s="7" t="n"/>
     </row>
     <row r="124">
-      <c r="A124" s="3" t="inlineStr">
-        <is>
-          <t>Marble Tiles</t>
-        </is>
-      </c>
-      <c r="B124" s="3" t="inlineStr">
-        <is>
-          <t>Cream Beige</t>
-        </is>
-      </c>
-      <c r="C124" s="3" t="inlineStr">
-        <is>
-          <t>Honed</t>
-        </is>
-      </c>
-      <c r="D124" s="3" t="inlineStr">
-        <is>
-          <t>60,0</t>
-        </is>
-      </c>
-      <c r="E124" s="2" t="inlineStr">
-        <is>
-          <t>60,0</t>
-        </is>
-      </c>
-      <c r="F124" s="2" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="G124" s="10" t="n">
-        <v>80.28</v>
-      </c>
-      <c r="H124" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" s="5" t="n">
-        <v>80.28</v>
-      </c>
+      <c r="A124" s="3" t="n"/>
+      <c r="B124" s="3" t="n"/>
+      <c r="C124" s="3" t="n"/>
+      <c r="D124" s="3" t="n"/>
+      <c r="E124" s="2" t="n"/>
+      <c r="F124" s="2" t="n"/>
+      <c r="G124" s="10" t="n"/>
+      <c r="H124" s="11" t="n"/>
+      <c r="I124" s="5" t="n"/>
       <c r="J124" s="2" t="n"/>
       <c r="K124" s="10" t="n"/>
       <c r="L124" s="11" t="n"/>
@@ -6908,45 +5338,15 @@
       <c r="T124" s="7" t="n"/>
     </row>
     <row r="125">
-      <c r="A125" s="3" t="inlineStr">
-        <is>
-          <t>Marble Tiles</t>
-        </is>
-      </c>
-      <c r="B125" s="3" t="inlineStr">
-        <is>
-          <t>Ottoman Beige</t>
-        </is>
-      </c>
-      <c r="C125" s="3" t="inlineStr">
-        <is>
-          <t>Honed</t>
-        </is>
-      </c>
-      <c r="D125" s="3" t="inlineStr">
-        <is>
-          <t>60,0</t>
-        </is>
-      </c>
-      <c r="E125" s="2" t="inlineStr">
-        <is>
-          <t>60,0</t>
-        </is>
-      </c>
-      <c r="F125" s="2" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="G125" s="10" t="n">
-        <v>35.28</v>
-      </c>
-      <c r="H125" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" s="5" t="n">
-        <v>35.28</v>
-      </c>
+      <c r="A125" s="3" t="n"/>
+      <c r="B125" s="3" t="n"/>
+      <c r="C125" s="3" t="n"/>
+      <c r="D125" s="3" t="n"/>
+      <c r="E125" s="2" t="n"/>
+      <c r="F125" s="2" t="n"/>
+      <c r="G125" s="10" t="n"/>
+      <c r="H125" s="11" t="n"/>
+      <c r="I125" s="5" t="n"/>
       <c r="J125" s="2" t="n"/>
       <c r="K125" s="10" t="n"/>
       <c r="L125" s="11" t="n"/>
@@ -6960,45 +5360,15 @@
       <c r="T125" s="7" t="n"/>
     </row>
     <row r="126">
-      <c r="A126" s="3" t="inlineStr">
-        <is>
-          <t>Marble Coping</t>
-        </is>
-      </c>
-      <c r="B126" s="3" t="inlineStr">
-        <is>
-          <t>Naturella Cream</t>
-        </is>
-      </c>
-      <c r="C126" s="3" t="inlineStr">
-        <is>
-          <t>Polished&amp;Full Bullnose</t>
-        </is>
-      </c>
-      <c r="D126" s="3" t="inlineStr">
-        <is>
-          <t>60,0</t>
-        </is>
-      </c>
-      <c r="E126" s="2" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="F126" s="2" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="G126" s="10" t="n">
-        <v>27.72</v>
-      </c>
-      <c r="H126" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" s="5" t="n">
-        <v>27.72</v>
-      </c>
+      <c r="A126" s="3" t="n"/>
+      <c r="B126" s="3" t="n"/>
+      <c r="C126" s="3" t="n"/>
+      <c r="D126" s="3" t="n"/>
+      <c r="E126" s="2" t="n"/>
+      <c r="F126" s="2" t="n"/>
+      <c r="G126" s="10" t="n"/>
+      <c r="H126" s="11" t="n"/>
+      <c r="I126" s="5" t="n"/>
       <c r="J126" s="2" t="n"/>
       <c r="K126" s="10" t="n"/>
       <c r="L126" s="11" t="n"/>
@@ -7012,45 +5382,15 @@
       <c r="T126" s="7" t="n"/>
     </row>
     <row r="127">
-      <c r="A127" s="3" t="inlineStr">
-        <is>
-          <t>Marble Tiles</t>
-        </is>
-      </c>
-      <c r="B127" s="3" t="inlineStr">
-        <is>
-          <t>Ottoman Beige</t>
-        </is>
-      </c>
-      <c r="C127" s="3" t="inlineStr">
-        <is>
-          <t>Polished</t>
-        </is>
-      </c>
-      <c r="D127" s="3" t="inlineStr">
-        <is>
-          <t>60,0</t>
-        </is>
-      </c>
-      <c r="E127" s="2" t="inlineStr">
-        <is>
-          <t>60,0</t>
-        </is>
-      </c>
-      <c r="F127" s="2" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="G127" s="10" t="n">
-        <v>120.24</v>
-      </c>
-      <c r="H127" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" s="5" t="n">
-        <v>120.24</v>
-      </c>
+      <c r="A127" s="3" t="n"/>
+      <c r="B127" s="3" t="n"/>
+      <c r="C127" s="3" t="n"/>
+      <c r="D127" s="3" t="n"/>
+      <c r="E127" s="2" t="n"/>
+      <c r="F127" s="2" t="n"/>
+      <c r="G127" s="10" t="n"/>
+      <c r="H127" s="11" t="n"/>
+      <c r="I127" s="5" t="n"/>
       <c r="J127" s="2" t="n"/>
       <c r="K127" s="10" t="n"/>
       <c r="L127" s="11" t="n"/>
@@ -7064,45 +5404,15 @@
       <c r="T127" s="7" t="n"/>
     </row>
     <row r="128">
-      <c r="A128" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B128" s="3" t="inlineStr">
-        <is>
-          <t>Classic Vein Cut</t>
-        </is>
-      </c>
-      <c r="C128" s="3" t="inlineStr">
-        <is>
-          <t>Cement Filled&amp;Brushed</t>
-        </is>
-      </c>
-      <c r="D128" s="3" t="inlineStr">
-        <is>
-          <t>60,0</t>
-        </is>
-      </c>
-      <c r="E128" s="2" t="inlineStr">
-        <is>
-          <t>60,0</t>
-        </is>
-      </c>
-      <c r="F128" s="2" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="G128" s="10" t="n">
-        <v>1000.08</v>
-      </c>
-      <c r="H128" s="11" t="n">
-        <v>990</v>
-      </c>
-      <c r="I128" s="5" t="n">
-        <v>10.08</v>
-      </c>
+      <c r="A128" s="3" t="n"/>
+      <c r="B128" s="3" t="n"/>
+      <c r="C128" s="3" t="n"/>
+      <c r="D128" s="3" t="n"/>
+      <c r="E128" s="2" t="n"/>
+      <c r="F128" s="2" t="n"/>
+      <c r="G128" s="10" t="n"/>
+      <c r="H128" s="11" t="n"/>
+      <c r="I128" s="5" t="n"/>
       <c r="J128" s="2" t="n"/>
       <c r="K128" s="10" t="n"/>
       <c r="L128" s="11" t="n"/>
@@ -7116,45 +5426,15 @@
       <c r="T128" s="7" t="n"/>
     </row>
     <row r="129">
-      <c r="A129" s="3" t="inlineStr">
-        <is>
-          <t>Marble Tiles</t>
-        </is>
-      </c>
-      <c r="B129" s="3" t="inlineStr">
-        <is>
-          <t>Anatolia Beige</t>
-        </is>
-      </c>
-      <c r="C129" s="3" t="inlineStr">
-        <is>
-          <t>Polished</t>
-        </is>
-      </c>
-      <c r="D129" s="3" t="inlineStr">
-        <is>
-          <t>60,0</t>
-        </is>
-      </c>
-      <c r="E129" s="2" t="inlineStr">
-        <is>
-          <t>153,0</t>
-        </is>
-      </c>
-      <c r="F129" s="2" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="G129" s="10" t="n">
-        <v>15</v>
-      </c>
-      <c r="H129" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" s="5" t="n">
-        <v>15</v>
-      </c>
+      <c r="A129" s="3" t="n"/>
+      <c r="B129" s="3" t="n"/>
+      <c r="C129" s="3" t="n"/>
+      <c r="D129" s="3" t="n"/>
+      <c r="E129" s="2" t="n"/>
+      <c r="F129" s="2" t="n"/>
+      <c r="G129" s="10" t="n"/>
+      <c r="H129" s="11" t="n"/>
+      <c r="I129" s="5" t="n"/>
       <c r="J129" s="2" t="n"/>
       <c r="K129" s="10" t="n"/>
       <c r="L129" s="11" t="n"/>
@@ -7168,45 +5448,15 @@
       <c r="T129" s="7" t="n"/>
     </row>
     <row r="130">
-      <c r="A130" s="3" t="inlineStr">
-        <is>
-          <t>Marble Tiles</t>
-        </is>
-      </c>
-      <c r="B130" s="3" t="inlineStr">
-        <is>
-          <t>Anatolia Beige</t>
-        </is>
-      </c>
-      <c r="C130" s="3" t="inlineStr">
-        <is>
-          <t>Polished</t>
-        </is>
-      </c>
-      <c r="D130" s="3" t="inlineStr">
-        <is>
-          <t>60,0</t>
-        </is>
-      </c>
-      <c r="E130" s="2" t="inlineStr">
-        <is>
-          <t>120,0</t>
-        </is>
-      </c>
-      <c r="F130" s="2" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="G130" s="10" t="n">
-        <v>432</v>
-      </c>
-      <c r="H130" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" s="5" t="n">
-        <v>432</v>
-      </c>
+      <c r="A130" s="3" t="n"/>
+      <c r="B130" s="3" t="n"/>
+      <c r="C130" s="3" t="n"/>
+      <c r="D130" s="3" t="n"/>
+      <c r="E130" s="2" t="n"/>
+      <c r="F130" s="2" t="n"/>
+      <c r="G130" s="10" t="n"/>
+      <c r="H130" s="11" t="n"/>
+      <c r="I130" s="5" t="n"/>
       <c r="J130" s="2" t="n"/>
       <c r="K130" s="10" t="n"/>
       <c r="L130" s="11" t="n"/>
@@ -7220,45 +5470,15 @@
       <c r="T130" s="7" t="n"/>
     </row>
     <row r="131">
-      <c r="A131" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B131" s="3" t="inlineStr">
-        <is>
-          <t>Pablo</t>
-        </is>
-      </c>
-      <c r="C131" s="3" t="inlineStr">
-        <is>
-          <t>Filled&amp;Honed</t>
-        </is>
-      </c>
-      <c r="D131" s="3" t="inlineStr">
-        <is>
-          <t>61,0</t>
-        </is>
-      </c>
-      <c r="E131" s="2" t="inlineStr">
-        <is>
-          <t>61,0</t>
-        </is>
-      </c>
-      <c r="F131" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G131" s="10" t="n">
-        <v>69.59</v>
-      </c>
-      <c r="H131" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" s="5" t="n">
-        <v>69.59</v>
-      </c>
+      <c r="A131" s="3" t="n"/>
+      <c r="B131" s="3" t="n"/>
+      <c r="C131" s="3" t="n"/>
+      <c r="D131" s="3" t="n"/>
+      <c r="E131" s="2" t="n"/>
+      <c r="F131" s="2" t="n"/>
+      <c r="G131" s="10" t="n"/>
+      <c r="H131" s="11" t="n"/>
+      <c r="I131" s="5" t="n"/>
       <c r="J131" s="2" t="n"/>
       <c r="K131" s="10" t="n"/>
       <c r="L131" s="11" t="n"/>
@@ -7272,45 +5492,15 @@
       <c r="T131" s="7" t="n"/>
     </row>
     <row r="132">
-      <c r="A132" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B132" s="3" t="inlineStr">
-        <is>
-          <t>Pablo</t>
-        </is>
-      </c>
-      <c r="C132" s="3" t="inlineStr">
-        <is>
-          <t>Filled&amp;Brushed&amp;Half Bullnose</t>
-        </is>
-      </c>
-      <c r="D132" s="3" t="inlineStr">
-        <is>
-          <t>61,0</t>
-        </is>
-      </c>
-      <c r="E132" s="2" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F132" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G132" s="10" t="n">
-        <v>2</v>
-      </c>
-      <c r="H132" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" s="5" t="n">
-        <v>2</v>
-      </c>
+      <c r="A132" s="3" t="n"/>
+      <c r="B132" s="3" t="n"/>
+      <c r="C132" s="3" t="n"/>
+      <c r="D132" s="3" t="n"/>
+      <c r="E132" s="2" t="n"/>
+      <c r="F132" s="2" t="n"/>
+      <c r="G132" s="10" t="n"/>
+      <c r="H132" s="11" t="n"/>
+      <c r="I132" s="5" t="n"/>
       <c r="J132" s="2" t="n"/>
       <c r="K132" s="10" t="n"/>
       <c r="L132" s="11" t="n"/>
@@ -7324,45 +5514,15 @@
       <c r="T132" s="7" t="n"/>
     </row>
     <row r="133">
-      <c r="A133" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B133" s="3" t="inlineStr">
-        <is>
-          <t>Pablo</t>
-        </is>
-      </c>
-      <c r="C133" s="3" t="inlineStr">
-        <is>
-          <t>Filled&amp;Brushed&amp;Bullnosed</t>
-        </is>
-      </c>
-      <c r="D133" s="3" t="inlineStr">
-        <is>
-          <t>61,0</t>
-        </is>
-      </c>
-      <c r="E133" s="2" t="inlineStr">
-        <is>
-          <t>FREE</t>
-        </is>
-      </c>
-      <c r="F133" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G133" s="10" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="H133" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" s="5" t="n">
-        <v>5.7</v>
-      </c>
+      <c r="A133" s="3" t="n"/>
+      <c r="B133" s="3" t="n"/>
+      <c r="C133" s="3" t="n"/>
+      <c r="D133" s="3" t="n"/>
+      <c r="E133" s="2" t="n"/>
+      <c r="F133" s="2" t="n"/>
+      <c r="G133" s="10" t="n"/>
+      <c r="H133" s="11" t="n"/>
+      <c r="I133" s="5" t="n"/>
       <c r="J133" s="2" t="n"/>
       <c r="K133" s="10" t="n"/>
       <c r="L133" s="11" t="n"/>
@@ -7376,45 +5536,15 @@
       <c r="T133" s="7" t="n"/>
     </row>
     <row r="134">
-      <c r="A134" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Table Base</t>
-        </is>
-      </c>
-      <c r="B134" s="3" t="inlineStr">
-        <is>
-          <t>Classic Vein Cut</t>
-        </is>
-      </c>
-      <c r="C134" s="3" t="inlineStr">
-        <is>
-          <t>Split face</t>
-        </is>
-      </c>
-      <c r="D134" s="3" t="inlineStr">
-        <is>
-          <t>70,0</t>
-        </is>
-      </c>
-      <c r="E134" s="2" t="inlineStr">
-        <is>
-          <t>76,0</t>
-        </is>
-      </c>
-      <c r="F134" s="2" t="inlineStr">
-        <is>
-          <t>1,5</t>
-        </is>
-      </c>
-      <c r="G134" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H134" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="A134" s="3" t="n"/>
+      <c r="B134" s="3" t="n"/>
+      <c r="C134" s="3" t="n"/>
+      <c r="D134" s="3" t="n"/>
+      <c r="E134" s="2" t="n"/>
+      <c r="F134" s="2" t="n"/>
+      <c r="G134" s="10" t="n"/>
+      <c r="H134" s="11" t="n"/>
+      <c r="I134" s="5" t="n"/>
       <c r="J134" s="2" t="n"/>
       <c r="K134" s="10" t="n"/>
       <c r="L134" s="11" t="n"/>
@@ -7428,45 +5558,15 @@
       <c r="T134" s="7" t="n"/>
     </row>
     <row r="135">
-      <c r="A135" s="3" t="inlineStr">
-        <is>
-          <t>Marble Tiles</t>
-        </is>
-      </c>
-      <c r="B135" s="3" t="inlineStr">
-        <is>
-          <t>Diana Royal</t>
-        </is>
-      </c>
-      <c r="C135" s="3" t="inlineStr">
-        <is>
-          <t>Polished</t>
-        </is>
-      </c>
-      <c r="D135" s="3" t="inlineStr">
-        <is>
-          <t>80,0</t>
-        </is>
-      </c>
-      <c r="E135" s="2" t="inlineStr">
-        <is>
-          <t>80,0</t>
-        </is>
-      </c>
-      <c r="F135" s="2" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="G135" s="10" t="n">
-        <v>394.32</v>
-      </c>
-      <c r="H135" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" s="5" t="n">
-        <v>394.32</v>
-      </c>
+      <c r="A135" s="3" t="n"/>
+      <c r="B135" s="3" t="n"/>
+      <c r="C135" s="3" t="n"/>
+      <c r="D135" s="3" t="n"/>
+      <c r="E135" s="2" t="n"/>
+      <c r="F135" s="2" t="n"/>
+      <c r="G135" s="10" t="n"/>
+      <c r="H135" s="11" t="n"/>
+      <c r="I135" s="5" t="n"/>
       <c r="J135" s="2" t="n"/>
       <c r="K135" s="10" t="n"/>
       <c r="L135" s="11" t="n"/>
@@ -7480,45 +5580,15 @@
       <c r="T135" s="7" t="n"/>
     </row>
     <row r="136">
-      <c r="A136" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Tables</t>
-        </is>
-      </c>
-      <c r="B136" s="3" t="inlineStr">
-        <is>
-          <t>Classic Vein Cut</t>
-        </is>
-      </c>
-      <c r="C136" s="3" t="inlineStr">
-        <is>
-          <t>Filled&amp;Polished</t>
-        </is>
-      </c>
-      <c r="D136" s="3" t="inlineStr">
-        <is>
-          <t>83,0</t>
-        </is>
-      </c>
-      <c r="E136" s="2" t="inlineStr">
-        <is>
-          <t>140,0</t>
-        </is>
-      </c>
-      <c r="F136" s="2" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="G136" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H136" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="A136" s="3" t="n"/>
+      <c r="B136" s="3" t="n"/>
+      <c r="C136" s="3" t="n"/>
+      <c r="D136" s="3" t="n"/>
+      <c r="E136" s="2" t="n"/>
+      <c r="F136" s="2" t="n"/>
+      <c r="G136" s="10" t="n"/>
+      <c r="H136" s="11" t="n"/>
+      <c r="I136" s="5" t="n"/>
       <c r="J136" s="2" t="n"/>
       <c r="K136" s="10" t="n"/>
       <c r="L136" s="11" t="n"/>
@@ -7532,45 +5602,15 @@
       <c r="T136" s="7" t="n"/>
     </row>
     <row r="137">
-      <c r="A137" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Tables</t>
-        </is>
-      </c>
-      <c r="B137" s="3" t="inlineStr">
-        <is>
-          <t>Classic Vein Cut</t>
-        </is>
-      </c>
-      <c r="C137" s="3" t="inlineStr">
-        <is>
-          <t>Filled&amp;Polished</t>
-        </is>
-      </c>
-      <c r="D137" s="3" t="inlineStr">
-        <is>
-          <t>83,0</t>
-        </is>
-      </c>
-      <c r="E137" s="2" t="inlineStr">
-        <is>
-          <t>133,0</t>
-        </is>
-      </c>
-      <c r="F137" s="2" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="G137" s="10" t="n">
-        <v>3</v>
-      </c>
-      <c r="H137" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" s="5" t="n">
-        <v>3</v>
-      </c>
+      <c r="A137" s="3" t="n"/>
+      <c r="B137" s="3" t="n"/>
+      <c r="C137" s="3" t="n"/>
+      <c r="D137" s="3" t="n"/>
+      <c r="E137" s="2" t="n"/>
+      <c r="F137" s="2" t="n"/>
+      <c r="G137" s="10" t="n"/>
+      <c r="H137" s="11" t="n"/>
+      <c r="I137" s="5" t="n"/>
       <c r="J137" s="2" t="n"/>
       <c r="K137" s="10" t="n"/>
       <c r="L137" s="11" t="n"/>
@@ -7584,45 +5624,15 @@
       <c r="T137" s="7" t="n"/>
     </row>
     <row r="138">
-      <c r="A138" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B138" s="3" t="inlineStr">
-        <is>
-          <t>Valencia</t>
-        </is>
-      </c>
-      <c r="C138" s="3" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
-        </is>
-      </c>
-      <c r="D138" s="3" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="E138" s="2" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="F138" s="2" t="inlineStr">
-        <is>
-          <t>3,0</t>
-        </is>
-      </c>
-      <c r="G138" s="10" t="n">
-        <v>145</v>
-      </c>
-      <c r="H138" s="11" t="n">
-        <v>196.2</v>
-      </c>
-      <c r="I138" s="5" t="n">
-        <v>-51.2</v>
-      </c>
+      <c r="A138" s="3" t="n"/>
+      <c r="B138" s="3" t="n"/>
+      <c r="C138" s="3" t="n"/>
+      <c r="D138" s="3" t="n"/>
+      <c r="E138" s="2" t="n"/>
+      <c r="F138" s="2" t="n"/>
+      <c r="G138" s="10" t="n"/>
+      <c r="H138" s="11" t="n"/>
+      <c r="I138" s="5" t="n"/>
       <c r="J138" s="2" t="n"/>
       <c r="K138" s="10" t="n"/>
       <c r="L138" s="11" t="n"/>
@@ -7636,45 +5646,15 @@
       <c r="T138" s="7" t="n"/>
     </row>
     <row r="139">
-      <c r="A139" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B139" s="3" t="inlineStr">
-        <is>
-          <t>Valencia</t>
-        </is>
-      </c>
-      <c r="C139" s="3" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
-        </is>
-      </c>
-      <c r="D139" s="3" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="E139" s="2" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="F139" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G139" s="10" t="n">
-        <v>695.88</v>
-      </c>
-      <c r="H139" s="11" t="n">
-        <v>541.24</v>
-      </c>
-      <c r="I139" s="5" t="n">
-        <v>154.64</v>
-      </c>
+      <c r="A139" s="3" t="n"/>
+      <c r="B139" s="3" t="n"/>
+      <c r="C139" s="3" t="n"/>
+      <c r="D139" s="3" t="n"/>
+      <c r="E139" s="2" t="n"/>
+      <c r="F139" s="2" t="n"/>
+      <c r="G139" s="10" t="n"/>
+      <c r="H139" s="11" t="n"/>
+      <c r="I139" s="5" t="n"/>
       <c r="J139" s="2" t="n"/>
       <c r="K139" s="10" t="n"/>
       <c r="L139" s="11" t="n"/>
@@ -7688,45 +5668,15 @@
       <c r="T139" s="7" t="n"/>
     </row>
     <row r="140">
-      <c r="A140" s="3" t="inlineStr">
-        <is>
-          <t>Marble Tiles</t>
-        </is>
-      </c>
-      <c r="B140" s="3" t="inlineStr">
-        <is>
-          <t>Bluestone</t>
-        </is>
-      </c>
-      <c r="C140" s="3" t="inlineStr">
-        <is>
-          <t>Sandblasted&amp;Brushed</t>
-        </is>
-      </c>
-      <c r="D140" s="3" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="E140" s="2" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="F140" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G140" s="10" t="n">
-        <v>14.69</v>
-      </c>
-      <c r="H140" s="11" t="n">
-        <v>309.28</v>
-      </c>
-      <c r="I140" s="5" t="n">
-        <v>-294.59</v>
-      </c>
+      <c r="A140" s="3" t="n"/>
+      <c r="B140" s="3" t="n"/>
+      <c r="C140" s="3" t="n"/>
+      <c r="D140" s="3" t="n"/>
+      <c r="E140" s="2" t="n"/>
+      <c r="F140" s="2" t="n"/>
+      <c r="G140" s="10" t="n"/>
+      <c r="H140" s="11" t="n"/>
+      <c r="I140" s="5" t="n"/>
       <c r="J140" s="2" t="n"/>
       <c r="K140" s="10" t="n"/>
       <c r="L140" s="11" t="n"/>
@@ -7740,45 +5690,15 @@
       <c r="T140" s="7" t="n"/>
     </row>
     <row r="141">
-      <c r="A141" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B141" s="3" t="inlineStr">
-        <is>
-          <t>Ivory Rustic</t>
-        </is>
-      </c>
-      <c r="C141" s="3" t="inlineStr">
-        <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
-        </is>
-      </c>
-      <c r="D141" s="3" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="E141" s="2" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="F141" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G141" s="10" t="n">
-        <v>231.96</v>
-      </c>
-      <c r="H141" s="11" t="n">
-        <v>38.66</v>
-      </c>
-      <c r="I141" s="5" t="n">
-        <v>193.3</v>
-      </c>
+      <c r="A141" s="3" t="n"/>
+      <c r="B141" s="3" t="n"/>
+      <c r="C141" s="3" t="n"/>
+      <c r="D141" s="3" t="n"/>
+      <c r="E141" s="2" t="n"/>
+      <c r="F141" s="2" t="n"/>
+      <c r="G141" s="10" t="n"/>
+      <c r="H141" s="11" t="n"/>
+      <c r="I141" s="5" t="n"/>
       <c r="J141" s="2" t="n"/>
       <c r="K141" s="10" t="n"/>
       <c r="L141" s="11" t="n"/>
@@ -7792,45 +5712,15 @@
       <c r="T141" s="7" t="n"/>
     </row>
     <row r="142">
-      <c r="A142" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B142" s="3" t="inlineStr">
-        <is>
-          <t>Ivory Rustic</t>
-        </is>
-      </c>
-      <c r="C142" s="3" t="inlineStr">
-        <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
-        </is>
-      </c>
-      <c r="D142" s="3" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="E142" s="2" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="F142" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G142" s="10" t="n">
-        <v>889.1799999999999</v>
-      </c>
-      <c r="H142" s="11" t="n">
-        <v>502.58</v>
-      </c>
-      <c r="I142" s="5" t="n">
-        <v>386.6</v>
-      </c>
+      <c r="A142" s="3" t="n"/>
+      <c r="B142" s="3" t="n"/>
+      <c r="C142" s="3" t="n"/>
+      <c r="D142" s="3" t="n"/>
+      <c r="E142" s="2" t="n"/>
+      <c r="F142" s="2" t="n"/>
+      <c r="G142" s="10" t="n"/>
+      <c r="H142" s="11" t="n"/>
+      <c r="I142" s="5" t="n"/>
       <c r="J142" s="2" t="n"/>
       <c r="K142" s="10" t="n"/>
       <c r="L142" s="11" t="n"/>
@@ -7844,45 +5734,15 @@
       <c r="T142" s="7" t="n"/>
     </row>
     <row r="143">
-      <c r="A143" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B143" s="3" t="inlineStr">
-        <is>
-          <t>Storm Noche</t>
-        </is>
-      </c>
-      <c r="C143" s="3" t="inlineStr">
-        <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
-        </is>
-      </c>
-      <c r="D143" s="3" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="E143" s="2" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="F143" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G143" s="10" t="n">
-        <v>115.98</v>
-      </c>
-      <c r="H143" s="11" t="n">
-        <v>811.86</v>
-      </c>
-      <c r="I143" s="5" t="n">
-        <v>-695.88</v>
-      </c>
+      <c r="A143" s="3" t="n"/>
+      <c r="B143" s="3" t="n"/>
+      <c r="C143" s="3" t="n"/>
+      <c r="D143" s="3" t="n"/>
+      <c r="E143" s="2" t="n"/>
+      <c r="F143" s="2" t="n"/>
+      <c r="G143" s="10" t="n"/>
+      <c r="H143" s="11" t="n"/>
+      <c r="I143" s="5" t="n"/>
       <c r="J143" s="2" t="n"/>
       <c r="K143" s="10" t="n"/>
       <c r="L143" s="11" t="n"/>
@@ -7896,45 +5756,15 @@
       <c r="T143" s="7" t="n"/>
     </row>
     <row r="144">
-      <c r="A144" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B144" s="3" t="inlineStr">
-        <is>
-          <t>Mina Rustic</t>
-        </is>
-      </c>
-      <c r="C144" s="3" t="inlineStr">
-        <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
-        </is>
-      </c>
-      <c r="D144" s="3" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="E144" s="2" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="F144" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G144" s="10" t="n">
-        <v>115.98</v>
-      </c>
-      <c r="H144" s="11" t="n">
-        <v>115.98</v>
-      </c>
-      <c r="I144" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="A144" s="3" t="n"/>
+      <c r="B144" s="3" t="n"/>
+      <c r="C144" s="3" t="n"/>
+      <c r="D144" s="3" t="n"/>
+      <c r="E144" s="2" t="n"/>
+      <c r="F144" s="2" t="n"/>
+      <c r="G144" s="10" t="n"/>
+      <c r="H144" s="11" t="n"/>
+      <c r="I144" s="5" t="n"/>
       <c r="J144" s="2" t="n"/>
       <c r="K144" s="10" t="n"/>
       <c r="L144" s="11" t="n"/>
@@ -7948,45 +5778,15 @@
       <c r="T144" s="7" t="n"/>
     </row>
     <row r="145">
-      <c r="A145" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B145" s="3" t="inlineStr">
-        <is>
-          <t>Scabos</t>
-        </is>
-      </c>
-      <c r="C145" s="3" t="inlineStr">
-        <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
-        </is>
-      </c>
-      <c r="D145" s="3" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="E145" s="2" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="F145" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G145" s="10" t="n">
-        <v>115.98</v>
-      </c>
-      <c r="H145" s="11" t="n">
-        <v>84.75</v>
-      </c>
-      <c r="I145" s="5" t="n">
-        <v>31.23</v>
-      </c>
+      <c r="A145" s="3" t="n"/>
+      <c r="B145" s="3" t="n"/>
+      <c r="C145" s="3" t="n"/>
+      <c r="D145" s="3" t="n"/>
+      <c r="E145" s="2" t="n"/>
+      <c r="F145" s="2" t="n"/>
+      <c r="G145" s="10" t="n"/>
+      <c r="H145" s="11" t="n"/>
+      <c r="I145" s="5" t="n"/>
       <c r="J145" s="2" t="n"/>
       <c r="K145" s="10" t="n"/>
       <c r="L145" s="11" t="n"/>
@@ -8000,45 +5800,15 @@
       <c r="T145" s="7" t="n"/>
     </row>
     <row r="146">
-      <c r="A146" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B146" s="3" t="inlineStr">
-        <is>
-          <t>Ela</t>
-        </is>
-      </c>
-      <c r="C146" s="3" t="inlineStr">
-        <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
-        </is>
-      </c>
-      <c r="D146" s="3" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="E146" s="2" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="F146" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G146" s="10" t="n">
-        <v>463.92</v>
-      </c>
-      <c r="H146" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" s="5" t="n">
-        <v>463.92</v>
-      </c>
+      <c r="A146" s="3" t="n"/>
+      <c r="B146" s="3" t="n"/>
+      <c r="C146" s="3" t="n"/>
+      <c r="D146" s="3" t="n"/>
+      <c r="E146" s="2" t="n"/>
+      <c r="F146" s="2" t="n"/>
+      <c r="G146" s="10" t="n"/>
+      <c r="H146" s="11" t="n"/>
+      <c r="I146" s="5" t="n"/>
       <c r="J146" s="2" t="n"/>
       <c r="K146" s="10" t="n"/>
       <c r="L146" s="11" t="n"/>
@@ -8052,45 +5822,15 @@
       <c r="T146" s="7" t="n"/>
     </row>
     <row r="147">
-      <c r="A147" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B147" s="3" t="inlineStr">
-        <is>
-          <t>Volcano</t>
-        </is>
-      </c>
-      <c r="C147" s="3" t="inlineStr">
-        <is>
-          <t>Filled&amp;Polished</t>
-        </is>
-      </c>
-      <c r="D147" s="3" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="E147" s="2" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="F147" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G147" s="10" t="n">
-        <v>159.4</v>
-      </c>
-      <c r="H147" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" s="5" t="n">
-        <v>159.4</v>
-      </c>
+      <c r="A147" s="3" t="n"/>
+      <c r="B147" s="3" t="n"/>
+      <c r="C147" s="3" t="n"/>
+      <c r="D147" s="3" t="n"/>
+      <c r="E147" s="2" t="n"/>
+      <c r="F147" s="2" t="n"/>
+      <c r="G147" s="10" t="n"/>
+      <c r="H147" s="11" t="n"/>
+      <c r="I147" s="5" t="n"/>
       <c r="J147" s="2" t="n"/>
       <c r="K147" s="10" t="n"/>
       <c r="L147" s="11" t="n"/>
@@ -8104,45 +5844,15 @@
       <c r="T147" s="7" t="n"/>
     </row>
     <row r="148">
-      <c r="A148" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B148" s="3" t="inlineStr">
-        <is>
-          <t>Walnut</t>
-        </is>
-      </c>
-      <c r="C148" s="3" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
-        </is>
-      </c>
-      <c r="D148" s="3" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="E148" s="2" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="F148" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G148" s="10" t="n">
-        <v>1200.57</v>
-      </c>
-      <c r="H148" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" s="5" t="n">
-        <v>1200.57</v>
-      </c>
+      <c r="A148" s="3" t="n"/>
+      <c r="B148" s="3" t="n"/>
+      <c r="C148" s="3" t="n"/>
+      <c r="D148" s="3" t="n"/>
+      <c r="E148" s="2" t="n"/>
+      <c r="F148" s="2" t="n"/>
+      <c r="G148" s="10" t="n"/>
+      <c r="H148" s="11" t="n"/>
+      <c r="I148" s="5" t="n"/>
       <c r="J148" s="2" t="n"/>
       <c r="K148" s="10" t="n"/>
       <c r="L148" s="11" t="n"/>
@@ -8156,45 +5866,15 @@
       <c r="T148" s="7" t="n"/>
     </row>
     <row r="149">
-      <c r="A149" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B149" s="3" t="inlineStr">
-        <is>
-          <t>Classic Mina</t>
-        </is>
-      </c>
-      <c r="C149" s="3" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
-        </is>
-      </c>
-      <c r="D149" s="3" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="E149" s="2" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="F149" s="2" t="inlineStr">
-        <is>
-          <t>3,0</t>
-        </is>
-      </c>
-      <c r="G149" s="10" t="n">
-        <v>104.09</v>
-      </c>
-      <c r="H149" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" s="5" t="n">
-        <v>104.09</v>
-      </c>
+      <c r="A149" s="3" t="n"/>
+      <c r="B149" s="3" t="n"/>
+      <c r="C149" s="3" t="n"/>
+      <c r="D149" s="3" t="n"/>
+      <c r="E149" s="2" t="n"/>
+      <c r="F149" s="2" t="n"/>
+      <c r="G149" s="10" t="n"/>
+      <c r="H149" s="11" t="n"/>
+      <c r="I149" s="5" t="n"/>
       <c r="J149" s="2" t="n"/>
       <c r="K149" s="10" t="n"/>
       <c r="L149" s="11" t="n"/>
@@ -8208,45 +5888,15 @@
       <c r="T149" s="7" t="n"/>
     </row>
     <row r="150">
-      <c r="A150" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B150" s="3" t="inlineStr">
-        <is>
-          <t>Picasso Ivory</t>
-        </is>
-      </c>
-      <c r="C150" s="3" t="inlineStr">
-        <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
-        </is>
-      </c>
-      <c r="D150" s="3" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="E150" s="2" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="F150" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G150" s="10" t="n">
-        <v>154.64</v>
-      </c>
-      <c r="H150" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" s="5" t="n">
-        <v>154.64</v>
-      </c>
+      <c r="A150" s="3" t="n"/>
+      <c r="B150" s="3" t="n"/>
+      <c r="C150" s="3" t="n"/>
+      <c r="D150" s="3" t="n"/>
+      <c r="E150" s="2" t="n"/>
+      <c r="F150" s="2" t="n"/>
+      <c r="G150" s="10" t="n"/>
+      <c r="H150" s="11" t="n"/>
+      <c r="I150" s="5" t="n"/>
       <c r="J150" s="2" t="n"/>
       <c r="K150" s="10" t="n"/>
       <c r="L150" s="11" t="n"/>
@@ -8260,45 +5910,15 @@
       <c r="T150" s="7" t="n"/>
     </row>
     <row r="151">
-      <c r="A151" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B151" s="3" t="inlineStr">
-        <is>
-          <t>Picasso Ivory</t>
-        </is>
-      </c>
-      <c r="C151" s="3" t="inlineStr">
-        <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
-        </is>
-      </c>
-      <c r="D151" s="3" t="inlineStr">
-        <is>
-          <t>Mini</t>
-        </is>
-      </c>
-      <c r="E151" s="2" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="F151" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G151" s="10" t="n">
-        <v>470</v>
-      </c>
-      <c r="H151" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" s="5" t="n">
-        <v>470</v>
-      </c>
+      <c r="A151" s="3" t="n"/>
+      <c r="B151" s="3" t="n"/>
+      <c r="C151" s="3" t="n"/>
+      <c r="D151" s="3" t="n"/>
+      <c r="E151" s="2" t="n"/>
+      <c r="F151" s="2" t="n"/>
+      <c r="G151" s="10" t="n"/>
+      <c r="H151" s="11" t="n"/>
+      <c r="I151" s="5" t="n"/>
       <c r="J151" s="2" t="n"/>
       <c r="K151" s="10" t="n"/>
       <c r="L151" s="11" t="n"/>
@@ -8312,45 +5932,15 @@
       <c r="T151" s="7" t="n"/>
     </row>
     <row r="152">
-      <c r="A152" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Slabs</t>
-        </is>
-      </c>
-      <c r="B152" s="3" t="inlineStr">
-        <is>
-          <t>Classic Light</t>
-        </is>
-      </c>
-      <c r="C152" s="3" t="inlineStr">
-        <is>
-          <t>Filled&amp;Brushed</t>
-        </is>
-      </c>
-      <c r="D152" s="3" t="inlineStr">
-        <is>
-          <t>SLAB</t>
-        </is>
-      </c>
-      <c r="E152" s="2" t="inlineStr">
-        <is>
-          <t>SLAB</t>
-        </is>
-      </c>
-      <c r="F152" s="2" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="G152" s="10" t="n">
-        <v>170</v>
-      </c>
-      <c r="H152" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" s="5" t="n">
-        <v>170</v>
-      </c>
+      <c r="A152" s="3" t="n"/>
+      <c r="B152" s="3" t="n"/>
+      <c r="C152" s="3" t="n"/>
+      <c r="D152" s="3" t="n"/>
+      <c r="E152" s="2" t="n"/>
+      <c r="F152" s="2" t="n"/>
+      <c r="G152" s="10" t="n"/>
+      <c r="H152" s="11" t="n"/>
+      <c r="I152" s="5" t="n"/>
       <c r="J152" s="2" t="n"/>
       <c r="K152" s="10" t="n"/>
       <c r="L152" s="11" t="n"/>
@@ -8364,45 +5954,15 @@
       <c r="T152" s="7" t="n"/>
     </row>
     <row r="153">
-      <c r="A153" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Slabs</t>
-        </is>
-      </c>
-      <c r="B153" s="3" t="inlineStr">
-        <is>
-          <t>Classic Light</t>
-        </is>
-      </c>
-      <c r="C153" s="3" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Brushed</t>
-        </is>
-      </c>
-      <c r="D153" s="3" t="inlineStr">
-        <is>
-          <t>SLAB</t>
-        </is>
-      </c>
-      <c r="E153" s="2" t="inlineStr">
-        <is>
-          <t>SLAB</t>
-        </is>
-      </c>
-      <c r="F153" s="2" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="G153" s="10" t="n">
-        <v>230</v>
-      </c>
-      <c r="H153" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" s="5" t="n">
-        <v>230</v>
-      </c>
+      <c r="A153" s="3" t="n"/>
+      <c r="B153" s="3" t="n"/>
+      <c r="C153" s="3" t="n"/>
+      <c r="D153" s="3" t="n"/>
+      <c r="E153" s="2" t="n"/>
+      <c r="F153" s="2" t="n"/>
+      <c r="G153" s="10" t="n"/>
+      <c r="H153" s="11" t="n"/>
+      <c r="I153" s="5" t="n"/>
       <c r="J153" s="2" t="n"/>
       <c r="K153" s="10" t="n"/>
       <c r="L153" s="11" t="n"/>
@@ -8416,45 +5976,15 @@
       <c r="T153" s="7" t="n"/>
     </row>
     <row r="154">
-      <c r="A154" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B154" s="3" t="inlineStr">
-        <is>
-          <t>Classic Vein Cut</t>
-        </is>
-      </c>
-      <c r="C154" s="3" t="inlineStr">
-        <is>
-          <t>Filled&amp;Honed</t>
-        </is>
-      </c>
-      <c r="D154" s="3" t="inlineStr">
-        <is>
-          <t>VAR</t>
-        </is>
-      </c>
-      <c r="E154" s="2" t="inlineStr">
-        <is>
-          <t>VAR</t>
-        </is>
-      </c>
-      <c r="F154" s="2" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="G154" s="10" t="n">
-        <v>4.48</v>
-      </c>
-      <c r="H154" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" s="5" t="n">
-        <v>4.48</v>
-      </c>
+      <c r="A154" s="3" t="n"/>
+      <c r="B154" s="3" t="n"/>
+      <c r="C154" s="3" t="n"/>
+      <c r="D154" s="3" t="n"/>
+      <c r="E154" s="2" t="n"/>
+      <c r="F154" s="2" t="n"/>
+      <c r="G154" s="10" t="n"/>
+      <c r="H154" s="11" t="n"/>
+      <c r="I154" s="5" t="n"/>
       <c r="J154" s="2" t="n"/>
       <c r="K154" s="10" t="n"/>
       <c r="L154" s="11" t="n"/>
@@ -8468,45 +5998,15 @@
       <c r="T154" s="7" t="n"/>
     </row>
     <row r="155">
-      <c r="A155" s="3" t="inlineStr">
-        <is>
-          <t>Marble Countertop</t>
-        </is>
-      </c>
-      <c r="B155" s="3" t="inlineStr">
-        <is>
-          <t>Nero Marquina</t>
-        </is>
-      </c>
-      <c r="C155" s="3" t="inlineStr">
-        <is>
-          <t>Polished</t>
-        </is>
-      </c>
-      <c r="D155" s="3" t="inlineStr">
-        <is>
-          <t>VAR</t>
-        </is>
-      </c>
-      <c r="E155" s="2" t="inlineStr">
-        <is>
-          <t>VAR</t>
-        </is>
-      </c>
-      <c r="F155" s="2" t="inlineStr">
-        <is>
-          <t>5,0</t>
-        </is>
-      </c>
-      <c r="G155" s="10" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="H155" s="11" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="I155" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="A155" s="3" t="n"/>
+      <c r="B155" s="3" t="n"/>
+      <c r="C155" s="3" t="n"/>
+      <c r="D155" s="3" t="n"/>
+      <c r="E155" s="2" t="n"/>
+      <c r="F155" s="2" t="n"/>
+      <c r="G155" s="10" t="n"/>
+      <c r="H155" s="11" t="n"/>
+      <c r="I155" s="5" t="n"/>
       <c r="J155" s="2" t="n"/>
       <c r="K155" s="10" t="n"/>
       <c r="L155" s="11" t="n"/>
@@ -8520,45 +6020,15 @@
       <c r="T155" s="7" t="n"/>
     </row>
     <row r="156">
-      <c r="A156" s="3" t="inlineStr">
-        <is>
-          <t>Marble Countertop</t>
-        </is>
-      </c>
-      <c r="B156" s="3" t="inlineStr">
-        <is>
-          <t>Tundra Grey</t>
-        </is>
-      </c>
-      <c r="C156" s="3" t="inlineStr">
-        <is>
-          <t>Polished</t>
-        </is>
-      </c>
-      <c r="D156" s="3" t="inlineStr">
-        <is>
-          <t>VAR</t>
-        </is>
-      </c>
-      <c r="E156" s="2" t="inlineStr">
-        <is>
-          <t>VAR</t>
-        </is>
-      </c>
-      <c r="F156" s="2" t="inlineStr">
-        <is>
-          <t>5,0</t>
-        </is>
-      </c>
-      <c r="G156" s="10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H156" s="11" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="I156" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="A156" s="3" t="n"/>
+      <c r="B156" s="3" t="n"/>
+      <c r="C156" s="3" t="n"/>
+      <c r="D156" s="3" t="n"/>
+      <c r="E156" s="2" t="n"/>
+      <c r="F156" s="2" t="n"/>
+      <c r="G156" s="10" t="n"/>
+      <c r="H156" s="11" t="n"/>
+      <c r="I156" s="5" t="n"/>
       <c r="J156" s="2" t="n"/>
       <c r="K156" s="10" t="n"/>
       <c r="L156" s="11" t="n"/>
@@ -8572,45 +6042,15 @@
       <c r="T156" s="7" t="n"/>
     </row>
     <row r="157">
-      <c r="A157" s="3" t="inlineStr">
-        <is>
-          <t>Marble Tiles</t>
-        </is>
-      </c>
-      <c r="B157" s="3" t="inlineStr">
-        <is>
-          <t>Tundra Grey</t>
-        </is>
-      </c>
-      <c r="C157" s="3" t="inlineStr">
-        <is>
-          <t>Polished</t>
-        </is>
-      </c>
-      <c r="D157" s="3" t="inlineStr">
-        <is>
-          <t>VAR</t>
-        </is>
-      </c>
-      <c r="E157" s="2" t="inlineStr">
-        <is>
-          <t>VAR</t>
-        </is>
-      </c>
-      <c r="F157" s="2" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="G157" s="10" t="n">
-        <v>46.32</v>
-      </c>
-      <c r="H157" s="11" t="n">
-        <v>46.32</v>
-      </c>
-      <c r="I157" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="A157" s="3" t="n"/>
+      <c r="B157" s="3" t="n"/>
+      <c r="C157" s="3" t="n"/>
+      <c r="D157" s="3" t="n"/>
+      <c r="E157" s="2" t="n"/>
+      <c r="F157" s="2" t="n"/>
+      <c r="G157" s="10" t="n"/>
+      <c r="H157" s="11" t="n"/>
+      <c r="I157" s="5" t="n"/>
       <c r="J157" s="2" t="n"/>
       <c r="K157" s="10" t="n"/>
       <c r="L157" s="11" t="n"/>
@@ -8624,45 +6064,15 @@
       <c r="T157" s="7" t="n"/>
     </row>
     <row r="158">
-      <c r="A158" s="3" t="inlineStr">
-        <is>
-          <t>Marble Tiles</t>
-        </is>
-      </c>
-      <c r="B158" s="3" t="inlineStr">
-        <is>
-          <t>Bianco Ibiza</t>
-        </is>
-      </c>
-      <c r="C158" s="3" t="inlineStr">
-        <is>
-          <t>Polished</t>
-        </is>
-      </c>
-      <c r="D158" s="3" t="inlineStr">
-        <is>
-          <t>VAR</t>
-        </is>
-      </c>
-      <c r="E158" s="2" t="inlineStr">
-        <is>
-          <t>VAR</t>
-        </is>
-      </c>
-      <c r="F158" s="2" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="G158" s="10" t="n">
-        <v>6.93</v>
-      </c>
-      <c r="H158" s="11" t="n">
-        <v>6.93</v>
-      </c>
-      <c r="I158" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="A158" s="3" t="n"/>
+      <c r="B158" s="3" t="n"/>
+      <c r="C158" s="3" t="n"/>
+      <c r="D158" s="3" t="n"/>
+      <c r="E158" s="2" t="n"/>
+      <c r="F158" s="2" t="n"/>
+      <c r="G158" s="10" t="n"/>
+      <c r="H158" s="11" t="n"/>
+      <c r="I158" s="5" t="n"/>
       <c r="J158" s="2" t="n"/>
       <c r="K158" s="10" t="n"/>
       <c r="L158" s="11" t="n"/>
@@ -8676,45 +6086,15 @@
       <c r="T158" s="7" t="n"/>
     </row>
     <row r="159">
-      <c r="A159" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B159" s="3" t="inlineStr">
-        <is>
-          <t>Classic Vein Cut</t>
-        </is>
-      </c>
-      <c r="C159" s="3" t="inlineStr">
-        <is>
-          <t>Filled&amp;Honed&amp;Beveled</t>
-        </is>
-      </c>
-      <c r="D159" s="3" t="inlineStr">
-        <is>
-          <t>VAR</t>
-        </is>
-      </c>
-      <c r="E159" s="2" t="inlineStr">
-        <is>
-          <t>VAR</t>
-        </is>
-      </c>
-      <c r="F159" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G159" s="10" t="n">
-        <v>28.98</v>
-      </c>
-      <c r="H159" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" s="5" t="n">
-        <v>28.98</v>
-      </c>
+      <c r="A159" s="3" t="n"/>
+      <c r="B159" s="3" t="n"/>
+      <c r="C159" s="3" t="n"/>
+      <c r="D159" s="3" t="n"/>
+      <c r="E159" s="2" t="n"/>
+      <c r="F159" s="2" t="n"/>
+      <c r="G159" s="10" t="n"/>
+      <c r="H159" s="11" t="n"/>
+      <c r="I159" s="5" t="n"/>
       <c r="J159" s="2" t="n"/>
       <c r="K159" s="10" t="n"/>
       <c r="L159" s="11" t="n"/>
@@ -8728,45 +6108,15 @@
       <c r="T159" s="7" t="n"/>
     </row>
     <row r="160">
-      <c r="A160" s="3" t="inlineStr">
-        <is>
-          <t>Marble Slabs</t>
-        </is>
-      </c>
-      <c r="B160" s="3" t="inlineStr">
-        <is>
-          <t>Bianco Ibiza</t>
-        </is>
-      </c>
-      <c r="C160" s="3" t="inlineStr">
-        <is>
-          <t>Polished</t>
-        </is>
-      </c>
-      <c r="D160" s="3" t="inlineStr">
-        <is>
-          <t>VAR</t>
-        </is>
-      </c>
-      <c r="E160" s="2" t="inlineStr">
-        <is>
-          <t>VAR</t>
-        </is>
-      </c>
-      <c r="F160" s="2" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="G160" s="10" t="n">
-        <v>440</v>
-      </c>
-      <c r="H160" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" s="5" t="n">
-        <v>440</v>
-      </c>
+      <c r="A160" s="3" t="n"/>
+      <c r="B160" s="3" t="n"/>
+      <c r="C160" s="3" t="n"/>
+      <c r="D160" s="3" t="n"/>
+      <c r="E160" s="2" t="n"/>
+      <c r="F160" s="2" t="n"/>
+      <c r="G160" s="10" t="n"/>
+      <c r="H160" s="11" t="n"/>
+      <c r="I160" s="5" t="n"/>
       <c r="J160" s="2" t="n"/>
       <c r="K160" s="10" t="n"/>
       <c r="L160" s="11" t="n"/>
@@ -8780,45 +6130,15 @@
       <c r="T160" s="7" t="n"/>
     </row>
     <row r="161">
-      <c r="A161" s="3" t="inlineStr">
-        <is>
-          <t>Marble Countertop</t>
-        </is>
-      </c>
-      <c r="B161" s="3" t="inlineStr">
-        <is>
-          <t>Tundra Grey</t>
-        </is>
-      </c>
-      <c r="C161" s="3" t="inlineStr">
-        <is>
-          <t>Polished&amp;Bevelled</t>
-        </is>
-      </c>
-      <c r="D161" s="3" t="inlineStr">
-        <is>
-          <t>VAR</t>
-        </is>
-      </c>
-      <c r="E161" s="2" t="inlineStr">
-        <is>
-          <t>VAR</t>
-        </is>
-      </c>
-      <c r="F161" s="2" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="G161" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H161" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="A161" s="3" t="n"/>
+      <c r="B161" s="3" t="n"/>
+      <c r="C161" s="3" t="n"/>
+      <c r="D161" s="3" t="n"/>
+      <c r="E161" s="2" t="n"/>
+      <c r="F161" s="2" t="n"/>
+      <c r="G161" s="10" t="n"/>
+      <c r="H161" s="11" t="n"/>
+      <c r="I161" s="5" t="n"/>
       <c r="J161" s="2" t="n"/>
       <c r="K161" s="10" t="n"/>
       <c r="L161" s="11" t="n"/>
@@ -8832,45 +6152,15 @@
       <c r="T161" s="7" t="n"/>
     </row>
     <row r="162">
-      <c r="A162" s="3" t="inlineStr">
-        <is>
-          <t>Marble Countertop</t>
-        </is>
-      </c>
-      <c r="B162" s="3" t="inlineStr">
-        <is>
-          <t>Nero Marquina</t>
-        </is>
-      </c>
-      <c r="C162" s="3" t="inlineStr">
-        <is>
-          <t>Polished&amp;Bevelled</t>
-        </is>
-      </c>
-      <c r="D162" s="3" t="inlineStr">
-        <is>
-          <t>VAR</t>
-        </is>
-      </c>
-      <c r="E162" s="2" t="inlineStr">
-        <is>
-          <t>VAR</t>
-        </is>
-      </c>
-      <c r="F162" s="2" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="G162" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H162" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="A162" s="3" t="n"/>
+      <c r="B162" s="3" t="n"/>
+      <c r="C162" s="3" t="n"/>
+      <c r="D162" s="3" t="n"/>
+      <c r="E162" s="2" t="n"/>
+      <c r="F162" s="2" t="n"/>
+      <c r="G162" s="10" t="n"/>
+      <c r="H162" s="11" t="n"/>
+      <c r="I162" s="5" t="n"/>
       <c r="J162" s="2" t="n"/>
       <c r="K162" s="10" t="n"/>
       <c r="L162" s="11" t="n"/>
@@ -8884,45 +6174,15 @@
       <c r="T162" s="7" t="n"/>
     </row>
     <row r="163">
-      <c r="A163" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B163" s="3" t="inlineStr">
-        <is>
-          <t>Red Vein Cut</t>
-        </is>
-      </c>
-      <c r="C163" s="3" t="inlineStr">
-        <is>
-          <t>Filled&amp;Brushed</t>
-        </is>
-      </c>
-      <c r="D163" s="3" t="inlineStr">
-        <is>
-          <t>VAR</t>
-        </is>
-      </c>
-      <c r="E163" s="2" t="inlineStr">
-        <is>
-          <t>VAR</t>
-        </is>
-      </c>
-      <c r="F163" s="2" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="G163" s="10" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="H163" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" s="5" t="n">
-        <v>9.35</v>
-      </c>
+      <c r="A163" s="3" t="n"/>
+      <c r="B163" s="3" t="n"/>
+      <c r="C163" s="3" t="n"/>
+      <c r="D163" s="3" t="n"/>
+      <c r="E163" s="2" t="n"/>
+      <c r="F163" s="2" t="n"/>
+      <c r="G163" s="10" t="n"/>
+      <c r="H163" s="11" t="n"/>
+      <c r="I163" s="5" t="n"/>
       <c r="J163" s="2" t="n"/>
       <c r="K163" s="10" t="n"/>
       <c r="L163" s="11" t="n"/>
@@ -8936,45 +6196,15 @@
       <c r="T163" s="7" t="n"/>
     </row>
     <row r="164">
-      <c r="A164" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Sink</t>
-        </is>
-      </c>
-      <c r="B164" s="3" t="inlineStr">
-        <is>
-          <t>Red Vein Cut</t>
-        </is>
-      </c>
-      <c r="C164" s="3" t="inlineStr">
-        <is>
-          <t>Filled&amp;Honed&amp;Engraved</t>
-        </is>
-      </c>
-      <c r="D164" s="3" t="inlineStr">
-        <is>
-          <t>VAR</t>
-        </is>
-      </c>
-      <c r="E164" s="2" t="inlineStr">
-        <is>
-          <t>VAR</t>
-        </is>
-      </c>
-      <c r="F164" s="2" t="inlineStr">
-        <is>
-          <t>5,0</t>
-        </is>
-      </c>
-      <c r="G164" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H164" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="A164" s="3" t="n"/>
+      <c r="B164" s="3" t="n"/>
+      <c r="C164" s="3" t="n"/>
+      <c r="D164" s="3" t="n"/>
+      <c r="E164" s="2" t="n"/>
+      <c r="F164" s="2" t="n"/>
+      <c r="G164" s="10" t="n"/>
+      <c r="H164" s="11" t="n"/>
+      <c r="I164" s="5" t="n"/>
       <c r="J164" s="2" t="n"/>
       <c r="K164" s="10" t="n"/>
       <c r="L164" s="11" t="n"/>
@@ -8988,45 +6218,15 @@
       <c r="T164" s="7" t="n"/>
     </row>
     <row r="165">
-      <c r="A165" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Countertop</t>
-        </is>
-      </c>
-      <c r="B165" s="3" t="inlineStr">
-        <is>
-          <t>Noche Vein Cut</t>
-        </is>
-      </c>
-      <c r="C165" s="3" t="inlineStr">
-        <is>
-          <t>Filled&amp;Polished&amp;Bevelled</t>
-        </is>
-      </c>
-      <c r="D165" s="3" t="inlineStr">
-        <is>
-          <t>VAR</t>
-        </is>
-      </c>
-      <c r="E165" s="2" t="inlineStr">
-        <is>
-          <t>VAR</t>
-        </is>
-      </c>
-      <c r="F165" s="2" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="G165" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H165" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="A165" s="3" t="n"/>
+      <c r="B165" s="3" t="n"/>
+      <c r="C165" s="3" t="n"/>
+      <c r="D165" s="3" t="n"/>
+      <c r="E165" s="2" t="n"/>
+      <c r="F165" s="2" t="n"/>
+      <c r="G165" s="10" t="n"/>
+      <c r="H165" s="11" t="n"/>
+      <c r="I165" s="5" t="n"/>
       <c r="J165" s="2" t="n"/>
       <c r="K165" s="10" t="n"/>
       <c r="L165" s="11" t="n"/>
@@ -9040,41 +6240,15 @@
       <c r="T165" s="7" t="n"/>
     </row>
     <row r="166">
-      <c r="A166" s="3" t="inlineStr">
-        <is>
-          <t>Marble Mosaic</t>
-        </is>
-      </c>
-      <c r="B166" s="3" t="inlineStr">
-        <is>
-          <t>Solto Dark White</t>
-        </is>
-      </c>
-      <c r="C166" s="3" t="inlineStr">
-        <is>
-          <t>Herringbone&amp;Polished&amp;Mesh</t>
-        </is>
-      </c>
-      <c r="D166" s="3" t="inlineStr">
-        <is>
-          <t>VAR</t>
-        </is>
-      </c>
-      <c r="E166" s="2" t="inlineStr">
-        <is>
-          <t>VAR</t>
-        </is>
-      </c>
-      <c r="F166" s="2" t="inlineStr"/>
-      <c r="G166" s="10" t="n">
-        <v>398</v>
-      </c>
-      <c r="H166" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" s="5" t="n">
-        <v>398</v>
-      </c>
+      <c r="A166" s="3" t="n"/>
+      <c r="B166" s="3" t="n"/>
+      <c r="C166" s="3" t="n"/>
+      <c r="D166" s="3" t="n"/>
+      <c r="E166" s="2" t="n"/>
+      <c r="F166" s="2" t="n"/>
+      <c r="G166" s="10" t="n"/>
+      <c r="H166" s="11" t="n"/>
+      <c r="I166" s="5" t="n"/>
       <c r="J166" s="2" t="n"/>
       <c r="K166" s="10" t="n"/>
       <c r="L166" s="11" t="n"/>
@@ -9088,45 +6262,15 @@
       <c r="T166" s="7" t="n"/>
     </row>
     <row r="167">
-      <c r="A167" s="3" t="inlineStr">
-        <is>
-          <t>Marble Tiles</t>
-        </is>
-      </c>
-      <c r="B167" s="3" t="inlineStr">
-        <is>
-          <t>Nero Marquina</t>
-        </is>
-      </c>
-      <c r="C167" s="3" t="inlineStr">
-        <is>
-          <t>Polished&amp;Grooved&amp;Bevelled</t>
-        </is>
-      </c>
-      <c r="D167" s="3" t="inlineStr">
-        <is>
-          <t>VAR</t>
-        </is>
-      </c>
-      <c r="E167" s="2" t="inlineStr">
-        <is>
-          <t>VAR</t>
-        </is>
-      </c>
-      <c r="F167" s="2" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="G167" s="10" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="H167" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" s="5" t="n">
-        <v>2.31</v>
-      </c>
+      <c r="A167" s="3" t="n"/>
+      <c r="B167" s="3" t="n"/>
+      <c r="C167" s="3" t="n"/>
+      <c r="D167" s="3" t="n"/>
+      <c r="E167" s="2" t="n"/>
+      <c r="F167" s="2" t="n"/>
+      <c r="G167" s="10" t="n"/>
+      <c r="H167" s="11" t="n"/>
+      <c r="I167" s="5" t="n"/>
       <c r="J167" s="2" t="n"/>
       <c r="K167" s="10" t="n"/>
       <c r="L167" s="11" t="n"/>
@@ -9140,45 +6284,15 @@
       <c r="T167" s="7" t="n"/>
     </row>
     <row r="168">
-      <c r="A168" s="3" t="inlineStr">
-        <is>
-          <t>Marble Landing Corduroy</t>
-        </is>
-      </c>
-      <c r="B168" s="3" t="inlineStr">
-        <is>
-          <t>Dark Emperador</t>
-        </is>
-      </c>
-      <c r="C168" s="3" t="inlineStr">
-        <is>
-          <t>Corduroy</t>
-        </is>
-      </c>
-      <c r="D168" s="3" t="inlineStr">
-        <is>
-          <t>VAR</t>
-        </is>
-      </c>
-      <c r="E168" s="2" t="inlineStr">
-        <is>
-          <t>VAR</t>
-        </is>
-      </c>
-      <c r="F168" s="2" t="inlineStr">
-        <is>
-          <t>2,6</t>
-        </is>
-      </c>
-      <c r="G168" s="10" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="H168" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" s="5" t="n">
-        <v>2.62</v>
-      </c>
+      <c r="A168" s="3" t="n"/>
+      <c r="B168" s="3" t="n"/>
+      <c r="C168" s="3" t="n"/>
+      <c r="D168" s="3" t="n"/>
+      <c r="E168" s="2" t="n"/>
+      <c r="F168" s="2" t="n"/>
+      <c r="G168" s="10" t="n"/>
+      <c r="H168" s="11" t="n"/>
+      <c r="I168" s="5" t="n"/>
       <c r="J168" s="2" t="n"/>
       <c r="K168" s="10" t="n"/>
       <c r="L168" s="11" t="n"/>
@@ -9192,45 +6306,15 @@
       <c r="T168" s="7" t="n"/>
     </row>
     <row r="169">
-      <c r="A169" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B169" s="3" t="inlineStr">
-        <is>
-          <t>Red Vein Cut</t>
-        </is>
-      </c>
-      <c r="C169" s="3" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Brushed</t>
-        </is>
-      </c>
-      <c r="D169" s="3" t="inlineStr">
-        <is>
-          <t>VAR</t>
-        </is>
-      </c>
-      <c r="E169" s="2" t="inlineStr">
-        <is>
-          <t>VAR</t>
-        </is>
-      </c>
-      <c r="F169" s="2" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="G169" s="10" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="H169" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" s="5" t="n">
-        <v>3.66</v>
-      </c>
+      <c r="A169" s="3" t="n"/>
+      <c r="B169" s="3" t="n"/>
+      <c r="C169" s="3" t="n"/>
+      <c r="D169" s="3" t="n"/>
+      <c r="E169" s="2" t="n"/>
+      <c r="F169" s="2" t="n"/>
+      <c r="G169" s="10" t="n"/>
+      <c r="H169" s="11" t="n"/>
+      <c r="I169" s="5" t="n"/>
       <c r="J169" s="2" t="n"/>
       <c r="K169" s="10" t="n"/>
       <c r="L169" s="11" t="n"/>
@@ -9244,45 +6328,15 @@
       <c r="T169" s="7" t="n"/>
     </row>
     <row r="170">
-      <c r="A170" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B170" s="3" t="inlineStr">
-        <is>
-          <t>Classic Vein Cut</t>
-        </is>
-      </c>
-      <c r="C170" s="3" t="inlineStr">
-        <is>
-          <t>Filled&amp;Honed&amp;Beveled</t>
-        </is>
-      </c>
-      <c r="D170" s="3" t="inlineStr">
-        <is>
-          <t>VAR</t>
-        </is>
-      </c>
-      <c r="E170" s="2" t="inlineStr">
-        <is>
-          <t>VAR</t>
-        </is>
-      </c>
-      <c r="F170" s="2" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="G170" s="10" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="H170" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" s="5" t="n">
-        <v>0.77</v>
-      </c>
+      <c r="A170" s="3" t="n"/>
+      <c r="B170" s="3" t="n"/>
+      <c r="C170" s="3" t="n"/>
+      <c r="D170" s="3" t="n"/>
+      <c r="E170" s="2" t="n"/>
+      <c r="F170" s="2" t="n"/>
+      <c r="G170" s="10" t="n"/>
+      <c r="H170" s="11" t="n"/>
+      <c r="I170" s="5" t="n"/>
       <c r="J170" s="2" t="n"/>
       <c r="K170" s="10" t="n"/>
       <c r="L170" s="11" t="n"/>
@@ -9296,45 +6350,15 @@
       <c r="T170" s="7" t="n"/>
     </row>
     <row r="171">
-      <c r="A171" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B171" s="3" t="inlineStr">
-        <is>
-          <t>Classic Vein Cut</t>
-        </is>
-      </c>
-      <c r="C171" s="3" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Brushed</t>
-        </is>
-      </c>
-      <c r="D171" s="3" t="inlineStr">
-        <is>
-          <t>VAR</t>
-        </is>
-      </c>
-      <c r="E171" s="2" t="inlineStr">
-        <is>
-          <t>VAR</t>
-        </is>
-      </c>
-      <c r="F171" s="2" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="G171" s="10" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="H171" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" s="5" t="n">
-        <v>3.07</v>
-      </c>
+      <c r="A171" s="3" t="n"/>
+      <c r="B171" s="3" t="n"/>
+      <c r="C171" s="3" t="n"/>
+      <c r="D171" s="3" t="n"/>
+      <c r="E171" s="2" t="n"/>
+      <c r="F171" s="2" t="n"/>
+      <c r="G171" s="10" t="n"/>
+      <c r="H171" s="11" t="n"/>
+      <c r="I171" s="5" t="n"/>
       <c r="J171" s="2" t="n"/>
       <c r="K171" s="10" t="n"/>
       <c r="L171" s="11" t="n"/>
@@ -9348,45 +6372,15 @@
       <c r="T171" s="7" t="n"/>
     </row>
     <row r="172">
-      <c r="A172" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B172" s="3" t="inlineStr">
-        <is>
-          <t>Red Vein Cut</t>
-        </is>
-      </c>
-      <c r="C172" s="3" t="inlineStr">
-        <is>
-          <t>Filled&amp;Honed&amp;Beveled</t>
-        </is>
-      </c>
-      <c r="D172" s="3" t="inlineStr">
-        <is>
-          <t>VAR</t>
-        </is>
-      </c>
-      <c r="E172" s="2" t="inlineStr">
-        <is>
-          <t>VAR</t>
-        </is>
-      </c>
-      <c r="F172" s="2" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="G172" s="10" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="H172" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" s="5" t="n">
-        <v>2.46</v>
-      </c>
+      <c r="A172" s="3" t="n"/>
+      <c r="B172" s="3" t="n"/>
+      <c r="C172" s="3" t="n"/>
+      <c r="D172" s="3" t="n"/>
+      <c r="E172" s="2" t="n"/>
+      <c r="F172" s="2" t="n"/>
+      <c r="G172" s="10" t="n"/>
+      <c r="H172" s="11" t="n"/>
+      <c r="I172" s="5" t="n"/>
       <c r="J172" s="2" t="n"/>
       <c r="K172" s="10" t="n"/>
       <c r="L172" s="11" t="n"/>
@@ -9400,45 +6394,15 @@
       <c r="T172" s="7" t="n"/>
     </row>
     <row r="173">
-      <c r="A173" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Sills</t>
-        </is>
-      </c>
-      <c r="B173" s="3" t="inlineStr">
-        <is>
-          <t>Noche Vein Cut</t>
-        </is>
-      </c>
-      <c r="C173" s="3" t="inlineStr">
-        <is>
-          <t>Filled&amp;Honed</t>
-        </is>
-      </c>
-      <c r="D173" s="3" t="inlineStr">
-        <is>
-          <t>VAR</t>
-        </is>
-      </c>
-      <c r="E173" s="2" t="inlineStr">
-        <is>
-          <t>VAR</t>
-        </is>
-      </c>
-      <c r="F173" s="2" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="G173" s="10" t="n">
-        <v>4.57</v>
-      </c>
-      <c r="H173" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" s="5" t="n">
-        <v>4.57</v>
-      </c>
+      <c r="A173" s="3" t="n"/>
+      <c r="B173" s="3" t="n"/>
+      <c r="C173" s="3" t="n"/>
+      <c r="D173" s="3" t="n"/>
+      <c r="E173" s="2" t="n"/>
+      <c r="F173" s="2" t="n"/>
+      <c r="G173" s="10" t="n"/>
+      <c r="H173" s="11" t="n"/>
+      <c r="I173" s="5" t="n"/>
       <c r="J173" s="2" t="n"/>
       <c r="K173" s="10" t="n"/>
       <c r="L173" s="11" t="n"/>
@@ -9452,45 +6416,15 @@
       <c r="T173" s="7" t="n"/>
     </row>
     <row r="174">
-      <c r="A174" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="B174" s="3" t="inlineStr">
-        <is>
-          <t>Classic Vein Cut</t>
-        </is>
-      </c>
-      <c r="C174" s="3" t="inlineStr">
-        <is>
-          <t>Filled&amp;Honed</t>
-        </is>
-      </c>
-      <c r="D174" s="3" t="inlineStr">
-        <is>
-          <t>VAR</t>
-        </is>
-      </c>
-      <c r="E174" s="2" t="inlineStr">
-        <is>
-          <t>VAR</t>
-        </is>
-      </c>
-      <c r="F174" s="2" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G174" s="10" t="n">
-        <v>23.54</v>
-      </c>
-      <c r="H174" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" s="5" t="n">
-        <v>23.54</v>
-      </c>
+      <c r="A174" s="3" t="n"/>
+      <c r="B174" s="3" t="n"/>
+      <c r="C174" s="3" t="n"/>
+      <c r="D174" s="3" t="n"/>
+      <c r="E174" s="2" t="n"/>
+      <c r="F174" s="2" t="n"/>
+      <c r="G174" s="10" t="n"/>
+      <c r="H174" s="11" t="n"/>
+      <c r="I174" s="5" t="n"/>
       <c r="J174" s="2" t="n"/>
       <c r="K174" s="10" t="n"/>
       <c r="L174" s="11" t="n"/>
@@ -9504,45 +6438,15 @@
       <c r="T174" s="7" t="n"/>
     </row>
     <row r="175">
-      <c r="A175" s="3" t="inlineStr">
-        <is>
-          <t>Marble Countertop</t>
-        </is>
-      </c>
-      <c r="B175" s="3" t="inlineStr">
-        <is>
-          <t>Bianco Ibiza</t>
-        </is>
-      </c>
-      <c r="C175" s="3" t="inlineStr">
-        <is>
-          <t>Polished&amp;Bevelled</t>
-        </is>
-      </c>
-      <c r="D175" s="3" t="inlineStr">
-        <is>
-          <t>VAR</t>
-        </is>
-      </c>
-      <c r="E175" s="2" t="inlineStr">
-        <is>
-          <t>VAR</t>
-        </is>
-      </c>
-      <c r="F175" s="2" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="G175" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H175" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="A175" s="3" t="n"/>
+      <c r="B175" s="3" t="n"/>
+      <c r="C175" s="3" t="n"/>
+      <c r="D175" s="3" t="n"/>
+      <c r="E175" s="2" t="n"/>
+      <c r="F175" s="2" t="n"/>
+      <c r="G175" s="10" t="n"/>
+      <c r="H175" s="11" t="n"/>
+      <c r="I175" s="5" t="n"/>
       <c r="J175" s="2" t="n"/>
       <c r="K175" s="10" t="n"/>
       <c r="L175" s="11" t="n"/>
@@ -9556,45 +6460,15 @@
       <c r="T175" s="7" t="n"/>
     </row>
     <row r="176">
-      <c r="A176" s="3" t="inlineStr">
-        <is>
-          <t>Travertine Sink</t>
-        </is>
-      </c>
-      <c r="B176" s="3" t="inlineStr">
-        <is>
-          <t>Red Vein Cut</t>
-        </is>
-      </c>
-      <c r="C176" s="3" t="inlineStr">
-        <is>
-          <t>Filled&amp;Honed&amp;CNC Cutted</t>
-        </is>
-      </c>
-      <c r="D176" s="3" t="inlineStr">
-        <is>
-          <t>VAR</t>
-        </is>
-      </c>
-      <c r="E176" s="2" t="inlineStr">
-        <is>
-          <t>VAR</t>
-        </is>
-      </c>
-      <c r="F176" s="2" t="inlineStr">
-        <is>
-          <t>20,0</t>
-        </is>
-      </c>
-      <c r="G176" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="H176" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" s="5" t="n">
-        <v>1</v>
-      </c>
+      <c r="A176" s="3" t="n"/>
+      <c r="B176" s="3" t="n"/>
+      <c r="C176" s="3" t="n"/>
+      <c r="D176" s="3" t="n"/>
+      <c r="E176" s="2" t="n"/>
+      <c r="F176" s="2" t="n"/>
+      <c r="G176" s="10" t="n"/>
+      <c r="H176" s="11" t="n"/>
+      <c r="I176" s="5" t="n"/>
       <c r="J176" s="2" t="n"/>
       <c r="K176" s="10" t="n"/>
       <c r="L176" s="11" t="n"/>
@@ -9608,45 +6482,15 @@
       <c r="T176" s="7" t="n"/>
     </row>
     <row r="177">
-      <c r="A177" s="3" t="inlineStr">
-        <is>
-          <t>Limestone Slabs</t>
-        </is>
-      </c>
-      <c r="B177" s="3" t="inlineStr">
-        <is>
-          <t>Simena Limestone</t>
-        </is>
-      </c>
-      <c r="C177" s="3" t="inlineStr">
-        <is>
-          <t>Honed</t>
-        </is>
-      </c>
-      <c r="D177" s="3" t="inlineStr">
-        <is>
-          <t>VAR</t>
-        </is>
-      </c>
-      <c r="E177" s="2" t="inlineStr">
-        <is>
-          <t>VAR</t>
-        </is>
-      </c>
-      <c r="F177" s="2" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="G177" s="10" t="n">
-        <v>475</v>
-      </c>
-      <c r="H177" s="11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" s="5" t="n">
-        <v>475</v>
-      </c>
+      <c r="A177" s="3" t="n"/>
+      <c r="B177" s="3" t="n"/>
+      <c r="C177" s="3" t="n"/>
+      <c r="D177" s="3" t="n"/>
+      <c r="E177" s="2" t="n"/>
+      <c r="F177" s="2" t="n"/>
+      <c r="G177" s="10" t="n"/>
+      <c r="H177" s="11" t="n"/>
+      <c r="I177" s="5" t="n"/>
       <c r="J177" s="2" t="n"/>
       <c r="K177" s="10" t="n"/>
       <c r="L177" s="11" t="n"/>
@@ -16392,7 +13236,7 @@
       <c r="T483" s="8" t="n"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>